--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1367 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.000717285815890609</v>
+        <v>0.0007172858214633804</v>
       </c>
       <c r="B2">
-        <v>0.247601012249758</v>
+        <v>0.2476010125521857</v>
       </c>
       <c r="C2">
-        <v>0.007638919235848174</v>
+        <v>0.007638919622672731</v>
       </c>
       <c r="D2">
-        <v>0.0100727388957152</v>
+        <v>0.01007273939296563</v>
       </c>
       <c r="E2">
-        <v>0.6735796378038631</v>
+        <v>0.6735796752987794</v>
       </c>
       <c r="F2">
-        <v>0.149743328859391</v>
+        <v>0.149743328893983</v>
       </c>
       <c r="G2">
-        <v>5.476664453482769E-05</v>
+        <v>5.476664503214043E-05</v>
       </c>
       <c r="H2">
-        <v>7.737268571262098E-06</v>
+        <v>7.737268582844679E-06</v>
       </c>
       <c r="I2">
-        <v>0.009802519876742216</v>
+        <v>0.009802520051077075</v>
       </c>
       <c r="J2">
-        <v>0.1526597108403673</v>
+        <v>0.152659716618304</v>
       </c>
       <c r="K2">
-        <v>0.01108799457040204</v>
+        <v>0.01108799457586398</v>
       </c>
       <c r="L2">
-        <v>0.004108041671945242</v>
+        <v>0.004108042018290453</v>
       </c>
       <c r="M2">
-        <v>0.00243454514727293</v>
+        <v>0.002434545169495901</v>
       </c>
       <c r="N2">
-        <v>4.656145822980755E-08</v>
+        <v>4.656145841239028E-08</v>
       </c>
       <c r="O2">
-        <v>0.0003086847769241062</v>
+        <v>0.0003086847791470814</v>
       </c>
       <c r="P2">
-        <v>0.0005812956145139557</v>
+        <v>0.0005812956178185733</v>
       </c>
       <c r="Q2">
-        <v>0.0006158725298927011</v>
+        <v>0.0006158725330556075</v>
       </c>
       <c r="R2">
-        <v>0.00200086931258645</v>
+        <v>0.002000869313433622</v>
       </c>
       <c r="S2">
-        <v>1.012221222469622E-09</v>
+        <v>1.012221229060956E-09</v>
       </c>
       <c r="T2">
-        <v>4.961592759521732E-07</v>
+        <v>4.961592795305003E-07</v>
       </c>
       <c r="U2">
-        <v>0.05715518798786298</v>
+        <v>0.05715518799270729</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002052429278422805</v>
+        <v>0.002052429295582987</v>
       </c>
       <c r="B3">
-        <v>0.708572604218402</v>
+        <v>0.7085726044278589</v>
       </c>
       <c r="C3">
-        <v>0.02185263906012356</v>
+        <v>0.02185264039121851</v>
       </c>
       <c r="D3">
-        <v>0.02881605741769351</v>
+        <v>0.02881605910557022</v>
       </c>
       <c r="E3">
-        <v>1.926021689357634</v>
+        <v>1.926021819241528</v>
       </c>
       <c r="F3">
-        <v>0.4284085117439461</v>
+        <v>0.4284085116133038</v>
       </c>
       <c r="G3">
-        <v>0.0001570287119867641</v>
+        <v>0.0001570287129700997</v>
       </c>
       <c r="H3">
-        <v>2.241806638991115E-05</v>
+        <v>2.24180663448635E-05</v>
       </c>
       <c r="I3">
-        <v>0.02806666539867365</v>
+        <v>0.0280666650536483</v>
       </c>
       <c r="J3">
-        <v>0.4371103829573327</v>
+        <v>0.4371104019143154</v>
       </c>
       <c r="K3">
-        <v>0.03189183572081555</v>
+        <v>0.03189183544241259</v>
       </c>
       <c r="L3">
-        <v>0.01197443936620161</v>
+        <v>0.0119744476001613</v>
       </c>
       <c r="M3">
-        <v>0.00696403180333664</v>
+        <v>0.006964031591221167</v>
       </c>
       <c r="N3">
-        <v>1.335684922716259E-07</v>
+        <v>1.335684926332336E-07</v>
       </c>
       <c r="O3">
-        <v>0.0008831184061299807</v>
+        <v>0.0008831184120180913</v>
       </c>
       <c r="P3">
-        <v>0.001663931898423081</v>
+        <v>0.001663931908322962</v>
       </c>
       <c r="Q3">
-        <v>0.001763208250134898</v>
+        <v>0.00176320825929397</v>
       </c>
       <c r="R3">
-        <v>0.005758781219869447</v>
+        <v>0.005758781208145086</v>
       </c>
       <c r="S3">
-        <v>2.898876189664326E-09</v>
+        <v>2.89887627140036E-09</v>
       </c>
       <c r="T3">
-        <v>1.419896822194292E-06</v>
+        <v>1.419896829244402E-06</v>
       </c>
       <c r="U3">
-        <v>0.1635073490921471</v>
+        <v>0.1635073490131902</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>7.630677467360438E-05</v>
+        <v>7.630677128332186E-05</v>
       </c>
       <c r="B4">
-        <v>0.02301679243669817</v>
+        <v>0.02301679233296458</v>
       </c>
       <c r="C4">
-        <v>0.001941428108660832</v>
+        <v>0.001941427841910875</v>
       </c>
       <c r="D4">
-        <v>0.002527724806012105</v>
+        <v>0.002527724467967794</v>
       </c>
       <c r="E4">
-        <v>0.1107951013644033</v>
+        <v>0.110795081682282</v>
       </c>
       <c r="F4">
-        <v>0.006855980849288196</v>
+        <v>0.006855980826970998</v>
       </c>
       <c r="G4">
-        <v>1.347005069485925E-05</v>
+        <v>1.347005039357743E-05</v>
       </c>
       <c r="H4">
-        <v>2.894577051081345E-06</v>
+        <v>2.894577038711986E-06</v>
       </c>
       <c r="I4">
-        <v>0.001756119927966447</v>
+        <v>0.001756120151760715</v>
       </c>
       <c r="J4">
-        <v>0.03730513903848259</v>
+        <v>0.03730513521844646</v>
       </c>
       <c r="K4">
-        <v>0.006970986105768629</v>
+        <v>0.006970986104468701</v>
       </c>
       <c r="L4">
-        <v>0.001155830969464858</v>
+        <v>0.001155830870585628</v>
       </c>
       <c r="M4">
-        <v>0.0003624060838761254</v>
+        <v>0.0003624060465524919</v>
       </c>
       <c r="N4">
-        <v>9.839563951592144E-09</v>
+        <v>9.839563813040561E-09</v>
       </c>
       <c r="O4">
-        <v>3.074831723215986E-05</v>
+        <v>3.074831643384513E-05</v>
       </c>
       <c r="P4">
-        <v>4.545269851992256E-05</v>
+        <v>4.545269723798892E-05</v>
       </c>
       <c r="Q4">
-        <v>4.824432710809573E-05</v>
+        <v>4.824432581476511E-05</v>
       </c>
       <c r="R4">
-        <v>0.0007217857451975864</v>
+        <v>0.000721785743619718</v>
       </c>
       <c r="S4">
-        <v>1.090138847982693E-10</v>
+        <v>1.090138820981277E-10</v>
       </c>
       <c r="T4">
-        <v>5.67209843709234E-08</v>
+        <v>5.672098364103753E-08</v>
       </c>
       <c r="U4">
-        <v>0.001997395473994515</v>
+        <v>0.001997395455025312</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>4.479861996701422E-05</v>
+        <v>4.479861831343849E-05</v>
       </c>
       <c r="B5">
-        <v>0.01349444465276269</v>
+        <v>0.01349444465976932</v>
       </c>
       <c r="C5">
-        <v>0.0011505332709141</v>
+        <v>0.001150533121508346</v>
       </c>
       <c r="D5">
-        <v>0.001498012107920712</v>
+        <v>0.001498011918359469</v>
       </c>
       <c r="E5">
-        <v>0.06535547188971923</v>
+        <v>0.065355460525968</v>
       </c>
       <c r="F5">
-        <v>0.003970127344994953</v>
+        <v>0.003970127350554585</v>
       </c>
       <c r="G5">
-        <v>7.97202707176076E-06</v>
+        <v>7.972026912718201E-06</v>
       </c>
       <c r="H5">
-        <v>1.71687949005657E-06</v>
+        <v>1.716879487789784E-06</v>
       </c>
       <c r="I5">
-        <v>0.001037048755508939</v>
+        <v>0.001037048909272714</v>
       </c>
       <c r="J5">
-        <v>0.02205022098300535</v>
+        <v>0.02205021877560415</v>
       </c>
       <c r="K5">
-        <v>0.004148794101408156</v>
+        <v>0.004148794101802159</v>
       </c>
       <c r="L5">
-        <v>0.0006870474220138363</v>
+        <v>0.00068704738509568</v>
       </c>
       <c r="M5">
-        <v>0.000209672941297061</v>
+        <v>0.00020967293365826</v>
       </c>
       <c r="N5">
-        <v>5.806816869226039E-09</v>
+        <v>5.806816835771206E-09</v>
       </c>
       <c r="O5">
-        <v>1.800135365365033E-05</v>
+        <v>1.800135334484244E-05</v>
       </c>
       <c r="P5">
-        <v>2.658480970397909E-05</v>
+        <v>2.658480926918063E-05</v>
       </c>
       <c r="Q5">
-        <v>2.820709686405104E-05</v>
+        <v>2.820709643163117E-05</v>
       </c>
       <c r="R5">
-        <v>0.0004263984214761821</v>
+        <v>0.0004263984212110073</v>
       </c>
       <c r="S5">
-        <v>6.406434685017515E-11</v>
+        <v>6.406434577633651E-11</v>
       </c>
       <c r="T5">
-        <v>3.331159457717054E-08</v>
+        <v>3.331159439628674E-08</v>
       </c>
       <c r="U5">
-        <v>0.001148233448590862</v>
+        <v>0.001148233446049483</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.009221070849360816</v>
+        <v>0.009221070769363111</v>
       </c>
       <c r="B6">
-        <v>2.61378086677163</v>
+        <v>2.613780841976748</v>
       </c>
       <c r="C6">
-        <v>0.5237057511743419</v>
+        <v>0.5237057486642072</v>
       </c>
       <c r="D6">
-        <v>0.6594677298236702</v>
+        <v>0.6594677264452963</v>
       </c>
       <c r="E6">
-        <v>27.28412773897797</v>
+        <v>27.28412771861799</v>
       </c>
       <c r="F6">
-        <v>0.6726728458485298</v>
+        <v>0.6726728405415332</v>
       </c>
       <c r="G6">
-        <v>0.002558289050463532</v>
+        <v>0.002558289042776349</v>
       </c>
       <c r="H6">
-        <v>0.001769465490014333</v>
+        <v>0.001769465488830154</v>
       </c>
       <c r="I6">
-        <v>0.2443130892130465</v>
+        <v>0.2443130757156063</v>
       </c>
       <c r="J6">
-        <v>7.418088136346077</v>
+        <v>7.418088099333323</v>
       </c>
       <c r="K6">
-        <v>0.7194758485324733</v>
+        <v>0.7194758485311344</v>
       </c>
       <c r="L6">
-        <v>0.4853171464716915</v>
+        <v>0.4853171450029249</v>
       </c>
       <c r="M6">
-        <v>0.05620282891241035</v>
+        <v>0.05620282423452237</v>
       </c>
       <c r="N6">
-        <v>2.905570429022207E-06</v>
+        <v>2.905570428639722E-06</v>
       </c>
       <c r="O6">
-        <v>0.003190112429011301</v>
+        <v>0.003190112407550131</v>
       </c>
       <c r="P6">
-        <v>0.00552183350683909</v>
+        <v>0.00552183348752826</v>
       </c>
       <c r="Q6">
-        <v>0.005660185658846535</v>
+        <v>0.0056601856357523</v>
       </c>
       <c r="R6">
-        <v>0.0479113559388819</v>
+        <v>0.04791135575336762</v>
       </c>
       <c r="S6">
-        <v>1.676798352581098E-08</v>
+        <v>1.676798341591031E-08</v>
       </c>
       <c r="T6">
-        <v>7.051189857236292E-06</v>
+        <v>7.051189767059298E-06</v>
       </c>
       <c r="U6">
-        <v>0.1411066809928782</v>
+        <v>0.1411066786798089</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02530154829014332</v>
+        <v>0.02530154831579086</v>
       </c>
       <c r="B7">
-        <v>5.80419997754491</v>
+        <v>5.804199976838722</v>
       </c>
       <c r="C7">
-        <v>3.252090700984481</v>
+        <v>3.25209070337637</v>
       </c>
       <c r="D7">
-        <v>3.926635957884013</v>
+        <v>3.926635960980761</v>
       </c>
       <c r="E7">
-        <v>13.22407572411099</v>
+        <v>13.2240759940345</v>
       </c>
       <c r="F7">
-        <v>1.237341574846373</v>
+        <v>1.237341574570694</v>
       </c>
       <c r="G7">
-        <v>0.001834956714675172</v>
+        <v>0.001834956718232453</v>
       </c>
       <c r="H7">
-        <v>0.0001424809148645104</v>
+        <v>0.0001424809147576439</v>
       </c>
       <c r="I7">
-        <v>1.104179391563203</v>
+        <v>1.104179393234296</v>
       </c>
       <c r="J7">
-        <v>9.089711811202285</v>
+        <v>9.089711849492655</v>
       </c>
       <c r="K7">
-        <v>0.1135132793741971</v>
+        <v>0.1135132796136268</v>
       </c>
       <c r="L7">
-        <v>0.07736411068995501</v>
+        <v>0.07736411548004687</v>
       </c>
       <c r="M7">
-        <v>0.1088357601453308</v>
+        <v>0.1088357597392106</v>
       </c>
       <c r="N7">
-        <v>1.481457688117108E-06</v>
+        <v>1.481457687989065E-06</v>
       </c>
       <c r="O7">
-        <v>0.0111026450569879</v>
+        <v>0.01110264506705023</v>
       </c>
       <c r="P7">
-        <v>0.01538134124191619</v>
+        <v>0.0153813412255247</v>
       </c>
       <c r="Q7">
-        <v>0.01563481721484509</v>
+        <v>0.01563481719634725</v>
       </c>
       <c r="R7">
-        <v>0.03521361399823963</v>
+        <v>0.03521361399657173</v>
       </c>
       <c r="S7">
-        <v>2.836547551835263E-08</v>
+        <v>2.836547556938539E-08</v>
       </c>
       <c r="T7">
-        <v>1.819359485419258E-05</v>
+        <v>1.81935948741169E-05</v>
       </c>
       <c r="U7">
-        <v>0.2638603436934541</v>
+        <v>0.2638603432837091</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.0005037847394483864</v>
+        <v>0.0005037847300824596</v>
       </c>
       <c r="B8">
-        <v>0.2084098675040763</v>
+        <v>0.2084098651496353</v>
       </c>
       <c r="C8">
-        <v>0.0125001796923853</v>
+        <v>0.01250017948317705</v>
       </c>
       <c r="D8">
-        <v>0.01630201284067526</v>
+        <v>0.01630201256196151</v>
       </c>
       <c r="E8">
-        <v>0.6245138069946581</v>
+        <v>0.6245138017585579</v>
       </c>
       <c r="F8">
-        <v>0.05471552632908139</v>
+        <v>0.05471552575297298</v>
       </c>
       <c r="G8">
-        <v>0.0001634954720410772</v>
+        <v>0.0001634954713947842</v>
       </c>
       <c r="H8">
-        <v>1.188510945915958E-05</v>
+        <v>1.188510935844747E-05</v>
       </c>
       <c r="I8">
-        <v>0.01662770236093848</v>
+        <v>0.01662770125688291</v>
       </c>
       <c r="J8">
-        <v>0.2947844988999965</v>
+        <v>0.2947844955505631</v>
       </c>
       <c r="K8">
-        <v>0.06328972159749907</v>
+        <v>0.06328972154149025</v>
       </c>
       <c r="L8">
-        <v>0.04349396260462939</v>
+        <v>0.04349396258986814</v>
       </c>
       <c r="M8">
-        <v>0.00209643620202448</v>
+        <v>0.002096435846675388</v>
       </c>
       <c r="N8">
-        <v>2.090750672402101E-07</v>
+        <v>2.090750668114471E-07</v>
       </c>
       <c r="O8">
-        <v>0.0001699537453808815</v>
+        <v>0.0001699537419485139</v>
       </c>
       <c r="P8">
-        <v>0.0004089896506171216</v>
+        <v>0.0004089896420001447</v>
       </c>
       <c r="Q8">
-        <v>0.0004182080256691158</v>
+        <v>0.0004182080166078078</v>
       </c>
       <c r="R8">
-        <v>0.003495028322784143</v>
+        <v>0.003495028306175824</v>
       </c>
       <c r="S8">
-        <v>1.25707753031487E-09</v>
+        <v>1.257077519768343E-09</v>
       </c>
       <c r="T8">
-        <v>4.313872683589974E-07</v>
+        <v>4.313872595418792E-07</v>
       </c>
       <c r="U8">
-        <v>0.01031957040358893</v>
+        <v>0.01031957015243576</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.00630352106480405</v>
+        <v>0.006303521149981963</v>
       </c>
       <c r="B9">
-        <v>2.378755629866532</v>
+        <v>2.378755636663225</v>
       </c>
       <c r="C9">
-        <v>0.05408766526461001</v>
+        <v>0.05408767064415545</v>
       </c>
       <c r="D9">
-        <v>0.07208145742272712</v>
+        <v>0.07208146434036157</v>
       </c>
       <c r="E9">
-        <v>5.129596526510789</v>
+        <v>5.129597040857997</v>
       </c>
       <c r="F9">
-        <v>1.713173813649442</v>
+        <v>1.713173814798994</v>
       </c>
       <c r="G9">
-        <v>0.0003886539629453848</v>
+        <v>0.0003886539703298109</v>
       </c>
       <c r="H9">
-        <v>3.880851483635139E-05</v>
+        <v>3.880851506875836E-05</v>
       </c>
       <c r="I9">
-        <v>0.0857047084831624</v>
+        <v>0.08570471146111121</v>
       </c>
       <c r="J9">
-        <v>1.151822831997176</v>
+        <v>1.15182291218173</v>
       </c>
       <c r="K9">
-        <v>0.04709684681296855</v>
+        <v>0.04709684703484454</v>
       </c>
       <c r="L9">
-        <v>0.01837652301886761</v>
+        <v>0.01837651469495615</v>
       </c>
       <c r="M9">
-        <v>0.0205025900814893</v>
+        <v>0.02050259061779716</v>
       </c>
       <c r="N9">
-        <v>2.695596513610222E-07</v>
+        <v>2.695596546364791E-07</v>
       </c>
       <c r="O9">
-        <v>0.002388588600725301</v>
+        <v>0.00238858863643515</v>
       </c>
       <c r="P9">
-        <v>0.004929617277676124</v>
+        <v>0.004929617339069865</v>
       </c>
       <c r="Q9">
-        <v>0.00527874347516412</v>
+        <v>0.005278743534772244</v>
       </c>
       <c r="R9">
-        <v>0.01752713853872865</v>
+        <v>0.01752713856734229</v>
       </c>
       <c r="S9">
-        <v>9.20759808498937E-09</v>
+        <v>9.207598071143238E-09</v>
       </c>
       <c r="T9">
-        <v>4.299010215784747E-06</v>
+        <v>4.299010272819709E-06</v>
       </c>
       <c r="U9">
-        <v>0.6788007258447201</v>
+        <v>0.6788007262239479</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.01162068841101796</v>
+        <v>0.01162068828201442</v>
       </c>
       <c r="B10">
-        <v>3.466886128546915</v>
+        <v>3.466886106560136</v>
       </c>
       <c r="C10">
-        <v>0.7086161902350866</v>
+        <v>0.7086161845279181</v>
       </c>
       <c r="D10">
-        <v>0.8912456400508454</v>
+        <v>0.8912456326048219</v>
       </c>
       <c r="E10">
-        <v>36.42125294591207</v>
+        <v>36.42125271167293</v>
       </c>
       <c r="F10">
-        <v>0.8974062286041149</v>
+        <v>0.8974062230570367</v>
       </c>
       <c r="G10">
-        <v>0.003207825037772449</v>
+        <v>0.003207825028598304</v>
       </c>
       <c r="H10">
-        <v>0.001413958189891765</v>
+        <v>0.001413958188637838</v>
       </c>
       <c r="I10">
-        <v>0.3160316778164293</v>
+        <v>0.3160316700613462</v>
       </c>
       <c r="J10">
-        <v>9.502532530216845</v>
+        <v>9.502532443512345</v>
       </c>
       <c r="K10">
-        <v>0.988925966944764</v>
+        <v>0.9889259668054738</v>
       </c>
       <c r="L10">
-        <v>0.6648528969788519</v>
+        <v>0.6648528790066061</v>
       </c>
       <c r="M10">
-        <v>0.05724204985754089</v>
+        <v>0.05724204660516415</v>
       </c>
       <c r="N10">
-        <v>3.638717808127291E-06</v>
+        <v>3.638717803041932E-06</v>
       </c>
       <c r="O10">
-        <v>0.003997746729691662</v>
+        <v>0.003997746694158021</v>
       </c>
       <c r="P10">
-        <v>0.007253941115301834</v>
+        <v>0.007253941038212967</v>
       </c>
       <c r="Q10">
-        <v>0.007432664658396861</v>
+        <v>0.007432664576380933</v>
       </c>
       <c r="R10">
-        <v>0.05870154944342752</v>
+        <v>0.05870154926553038</v>
       </c>
       <c r="S10">
-        <v>2.217736192981651E-08</v>
+        <v>2.217736165723281E-08</v>
       </c>
       <c r="T10">
-        <v>9.091799388789648E-06</v>
+        <v>9.091799300068356E-06</v>
       </c>
       <c r="U10">
-        <v>0.1818204847165761</v>
+        <v>0.1818204822579458</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001089981373766868</v>
+        <v>0.0001089981342904747</v>
       </c>
       <c r="B11">
-        <v>0.03192098030248177</v>
+        <v>0.03192097996418105</v>
       </c>
       <c r="C11">
-        <v>0.001146021267747725</v>
+        <v>0.001146021098617838</v>
       </c>
       <c r="D11">
-        <v>0.001528371627783185</v>
+        <v>0.001528371409758731</v>
       </c>
       <c r="E11">
-        <v>0.1409166109693695</v>
+        <v>0.1409165994755822</v>
       </c>
       <c r="F11">
-        <v>0.009235705725262378</v>
+        <v>0.009235705656359505</v>
       </c>
       <c r="G11">
-        <v>8.121734446165732E-06</v>
+        <v>8.121734252893716E-06</v>
       </c>
       <c r="H11">
-        <v>7.484272788713667E-07</v>
+        <v>7.484272530034012E-07</v>
       </c>
       <c r="I11">
-        <v>0.001269325924172082</v>
+        <v>0.001269325769161409</v>
       </c>
       <c r="J11">
-        <v>0.03464215329637142</v>
+        <v>0.03464215087837072</v>
       </c>
       <c r="K11">
-        <v>0.002201629076111192</v>
+        <v>0.00220162911999223</v>
       </c>
       <c r="L11">
-        <v>0.020352188046318</v>
+        <v>0.02035218804951409</v>
       </c>
       <c r="M11">
-        <v>0.0002599424387399079</v>
+        <v>0.0002599423330596716</v>
       </c>
       <c r="N11">
-        <v>2.976256645753611E-08</v>
+        <v>2.976256635573968E-08</v>
       </c>
       <c r="O11">
-        <v>4.73285920466037E-05</v>
+        <v>4.732859104075303E-05</v>
       </c>
       <c r="P11">
-        <v>0.000119470181917125</v>
+        <v>0.0001194701798294081</v>
       </c>
       <c r="Q11">
-        <v>0.0001236769311115894</v>
+        <v>0.0001236769289612746</v>
       </c>
       <c r="R11">
-        <v>0.0001758711254520403</v>
+        <v>0.0001758711227583143</v>
       </c>
       <c r="S11">
-        <v>3.169270692219381E-10</v>
+        <v>3.169270669706932E-10</v>
       </c>
       <c r="T11">
-        <v>7.20151295504654E-08</v>
+        <v>7.201512753108759E-08</v>
       </c>
       <c r="U11">
-        <v>0.002907866134842016</v>
+        <v>0.002907866088096503</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001440246667617875</v>
+        <v>0.001440246799850124</v>
       </c>
       <c r="B12">
-        <v>0.637216806541003</v>
+        <v>0.6372168131591168</v>
       </c>
       <c r="C12">
-        <v>0.07976704343312299</v>
+        <v>0.07976703956667575</v>
       </c>
       <c r="D12">
-        <v>0.1062083101982053</v>
+        <v>0.1062083050396376</v>
       </c>
       <c r="E12">
-        <v>4.704536459851674</v>
+        <v>4.704536424329723</v>
       </c>
       <c r="F12">
-        <v>0.143781235558243</v>
+        <v>0.1437812386771699</v>
       </c>
       <c r="G12">
-        <v>0.0002276075404295582</v>
+        <v>0.0002276075188615082</v>
       </c>
       <c r="H12">
-        <v>0.0001474222425243923</v>
+        <v>0.0001474222404165288</v>
       </c>
       <c r="I12">
-        <v>0.07681775835846961</v>
+        <v>0.0768177592522131</v>
       </c>
       <c r="J12">
-        <v>1.470723120858924</v>
+        <v>1.470723069243701</v>
       </c>
       <c r="K12">
-        <v>0.1171778903063498</v>
+        <v>0.1171778795172912</v>
       </c>
       <c r="L12">
-        <v>0.02330674723609089</v>
+        <v>0.02330676203208322</v>
       </c>
       <c r="M12">
-        <v>0.01675323355882433</v>
+        <v>0.01675322751972945</v>
       </c>
       <c r="N12">
-        <v>2.466677282649544E-07</v>
+        <v>2.466677330355556E-07</v>
       </c>
       <c r="O12">
-        <v>0.0006523256943157471</v>
+        <v>0.0006523257231049907</v>
       </c>
       <c r="P12">
-        <v>0.00124182148088946</v>
+        <v>0.001241821653677368</v>
       </c>
       <c r="Q12">
-        <v>0.001304904985792675</v>
+        <v>0.001304905155531148</v>
       </c>
       <c r="R12">
-        <v>0.004383512583513531</v>
+        <v>0.00438351244165302</v>
       </c>
       <c r="S12">
-        <v>2.737740659881389E-09</v>
+        <v>2.737740841542281E-09</v>
       </c>
       <c r="T12">
-        <v>1.603706663642855E-06</v>
+        <v>1.603706678808896E-06</v>
       </c>
       <c r="U12">
-        <v>0.04916392922236804</v>
+        <v>0.04916392702183996</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.002444219225655288</v>
+        <v>0.002444220061416234</v>
       </c>
       <c r="B13">
-        <v>0.9739011090512822</v>
+        <v>0.9739013190959941</v>
       </c>
       <c r="C13">
-        <v>0.1854003653870262</v>
+        <v>0.1854003872341146</v>
       </c>
       <c r="D13">
-        <v>0.2440385141124726</v>
+        <v>0.2440385423213413</v>
       </c>
       <c r="E13">
-        <v>6.910472353096249</v>
+        <v>6.91047505797578</v>
       </c>
       <c r="F13">
-        <v>0.2745314490305876</v>
+        <v>0.274531496633281</v>
       </c>
       <c r="G13">
-        <v>0.000418604602183869</v>
+        <v>0.0004186046820069152</v>
       </c>
       <c r="H13">
-        <v>0.000182150029112155</v>
+        <v>0.0001821500341543375</v>
       </c>
       <c r="I13">
-        <v>0.108173873587492</v>
+        <v>0.1081739508533905</v>
       </c>
       <c r="J13">
-        <v>3.491391962879518</v>
+        <v>3.491392298261293</v>
       </c>
       <c r="K13">
-        <v>0.2192466440651686</v>
+        <v>0.2192466561766495</v>
       </c>
       <c r="L13">
-        <v>0.03347838895631304</v>
+        <v>0.03347840884598962</v>
       </c>
       <c r="M13">
-        <v>0.02266608271833019</v>
+        <v>0.02266609024242063</v>
       </c>
       <c r="N13">
-        <v>3.870599670984563E-07</v>
+        <v>3.870600221588297E-07</v>
       </c>
       <c r="O13">
-        <v>0.00106486371584986</v>
+        <v>0.00106486419077812</v>
       </c>
       <c r="P13">
-        <v>0.002034291949641735</v>
+        <v>0.002034292521047693</v>
       </c>
       <c r="Q13">
-        <v>0.002146171803274951</v>
+        <v>0.002146172392014676</v>
       </c>
       <c r="R13">
-        <v>0.007903180882469201</v>
+        <v>0.007903181996527075</v>
       </c>
       <c r="S13">
-        <v>4.333015267248725E-09</v>
+        <v>4.33301638764379E-09</v>
       </c>
       <c r="T13">
-        <v>2.749860123939649E-06</v>
+        <v>2.749860953451761E-06</v>
       </c>
       <c r="U13">
-        <v>0.09029820315811697</v>
+        <v>0.0902982141896591</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.001686105605375828</v>
+        <v>0.001686106075439179</v>
       </c>
       <c r="B14">
-        <v>0.7234643009222238</v>
+        <v>0.7234643996820215</v>
       </c>
       <c r="C14">
-        <v>0.08197066514095151</v>
+        <v>0.08197067947394941</v>
       </c>
       <c r="D14">
-        <v>0.1099896889125342</v>
+        <v>0.1099897078224611</v>
       </c>
       <c r="E14">
-        <v>6.196945331583231</v>
+        <v>6.196947013749856</v>
       </c>
       <c r="F14">
-        <v>0.1707507315262316</v>
+        <v>0.1707507600325125</v>
       </c>
       <c r="G14">
-        <v>0.0002375871301321144</v>
+        <v>0.0002375871835772541</v>
       </c>
       <c r="H14">
-        <v>0.0001500038593234348</v>
+        <v>0.0001500038624325077</v>
       </c>
       <c r="I14">
-        <v>0.08282901068348343</v>
+        <v>0.08282905521516445</v>
       </c>
       <c r="J14">
-        <v>1.537274848572209</v>
+        <v>1.537275080467904</v>
       </c>
       <c r="K14">
-        <v>0.1205755382062545</v>
+        <v>0.120575545548381</v>
       </c>
       <c r="L14">
-        <v>0.02749937016521349</v>
+        <v>0.02749938386800692</v>
       </c>
       <c r="M14">
-        <v>0.018755258206927</v>
+        <v>0.01875526241746621</v>
       </c>
       <c r="N14">
-        <v>2.680698407061138E-07</v>
+        <v>2.680698747128363E-07</v>
       </c>
       <c r="O14">
-        <v>0.000760330242154803</v>
+        <v>0.0007603305374923681</v>
       </c>
       <c r="P14">
-        <v>0.001699001524019269</v>
+        <v>0.001699001823499839</v>
       </c>
       <c r="Q14">
-        <v>0.001781177817321164</v>
+        <v>0.00178117812823129</v>
       </c>
       <c r="R14">
-        <v>0.004581041063608723</v>
+        <v>0.004581041618619011</v>
       </c>
       <c r="S14">
-        <v>3.155683961953005E-09</v>
+        <v>3.155684566781403E-09</v>
       </c>
       <c r="T14">
-        <v>1.787672789616331E-06</v>
+        <v>1.787673269185691E-06</v>
       </c>
       <c r="U14">
-        <v>0.06068960324788893</v>
+        <v>0.06068961060402192</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.007452921289040716</v>
+        <v>0.007452921297512883</v>
       </c>
       <c r="B15">
-        <v>0.801155933102694</v>
+        <v>0.8011559346163203</v>
       </c>
       <c r="C15">
-        <v>12.43630401794071</v>
+        <v>12.43630401824598</v>
       </c>
       <c r="D15">
-        <v>14.87577718618785</v>
+        <v>14.87577718659232</v>
       </c>
       <c r="E15">
-        <v>50.85425523636034</v>
+        <v>50.85425527148356</v>
       </c>
       <c r="F15">
-        <v>0.1854203258154956</v>
+        <v>0.1854203260860908</v>
       </c>
       <c r="G15">
-        <v>0.0007846963242756589</v>
+        <v>0.0007846963250213256</v>
       </c>
       <c r="H15">
-        <v>2.6721768719169E-05</v>
+        <v>2.672176876148308E-05</v>
       </c>
       <c r="I15">
-        <v>0.08330189400266612</v>
+        <v>0.08330189526295868</v>
       </c>
       <c r="J15">
-        <v>10.16158249645208</v>
+        <v>10.16158250083405</v>
       </c>
       <c r="K15">
-        <v>0.0595755327051187</v>
+        <v>0.05957553278221409</v>
       </c>
       <c r="L15">
-        <v>0.04563348864477663</v>
+        <v>0.04563348846565283</v>
       </c>
       <c r="M15">
-        <v>0.03221521079091864</v>
+        <v>0.03221521096353842</v>
       </c>
       <c r="N15">
-        <v>2.917508600814406E-07</v>
+        <v>2.917508603776227E-07</v>
       </c>
       <c r="O15">
-        <v>0.002654052220278386</v>
+        <v>0.002654052224792672</v>
       </c>
       <c r="P15">
-        <v>0.002240654454131725</v>
+        <v>0.002240654458027473</v>
       </c>
       <c r="Q15">
-        <v>0.002328867455037287</v>
+        <v>0.002328867458743875</v>
       </c>
       <c r="R15">
-        <v>0.005490033553467274</v>
+        <v>0.005490033562644729</v>
       </c>
       <c r="S15">
-        <v>1.579819141652497E-08</v>
+        <v>1.579819142260294E-08</v>
       </c>
       <c r="T15">
-        <v>5.018727740378044E-06</v>
+        <v>5.01872774982774E-06</v>
       </c>
       <c r="U15">
-        <v>0.06163244717735027</v>
+        <v>0.06163244723458522</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.0001800963199654882</v>
+        <v>0.000180096319435344</v>
       </c>
       <c r="B16">
-        <v>0.05946456400259962</v>
+        <v>0.05946456378989902</v>
       </c>
       <c r="C16">
-        <v>0.003280486670392157</v>
+        <v>0.003280486581495939</v>
       </c>
       <c r="D16">
-        <v>0.004459450291842106</v>
+        <v>0.004459450176202532</v>
       </c>
       <c r="E16">
-        <v>0.215405821954497</v>
+        <v>0.2154058138545397</v>
       </c>
       <c r="F16">
-        <v>0.01472402582185406</v>
+        <v>0.01472402577141803</v>
       </c>
       <c r="G16">
-        <v>7.501696911198649E-06</v>
+        <v>7.501696676712837E-06</v>
       </c>
       <c r="H16">
-        <v>2.429200858486264E-05</v>
+        <v>2.429200857741975E-05</v>
       </c>
       <c r="I16">
-        <v>0.004801345277988916</v>
+        <v>0.004801345269650736</v>
       </c>
       <c r="J16">
-        <v>0.08067776370892424</v>
+        <v>0.08067776228336368</v>
       </c>
       <c r="K16">
-        <v>0.0009118517316369047</v>
+        <v>0.0009118517054251518</v>
       </c>
       <c r="L16">
-        <v>0.0008546998486257441</v>
+        <v>0.0008546996261153795</v>
       </c>
       <c r="M16">
-        <v>0.001628072393947811</v>
+        <v>0.00162807239993927</v>
       </c>
       <c r="N16">
-        <v>3.438117370181119E-08</v>
+        <v>3.438117367886066E-08</v>
       </c>
       <c r="O16">
-        <v>0.0001129354184644413</v>
+        <v>0.0001129354183801775</v>
       </c>
       <c r="P16">
-        <v>0.0003028718470183307</v>
+        <v>0.0003028718466702364</v>
       </c>
       <c r="Q16">
-        <v>0.0003203858431875154</v>
+        <v>0.0003203858427921817</v>
       </c>
       <c r="R16">
-        <v>0.000115530559913892</v>
+        <v>0.0001155305609737395</v>
       </c>
       <c r="S16">
-        <v>2.638945186405743E-10</v>
+        <v>2.638945155832251E-10</v>
       </c>
       <c r="T16">
-        <v>1.610902835231542E-07</v>
+        <v>1.610902829220796E-07</v>
       </c>
       <c r="U16">
-        <v>0.006001468063900482</v>
+        <v>0.00600146804805595</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002703664987395538</v>
+        <v>-0.0002703665012614757</v>
       </c>
       <c r="B17">
-        <v>-2.372651841187268</v>
+        <v>-2.372651841953287</v>
       </c>
       <c r="C17">
-        <v>-0.1200802838464883</v>
+        <v>-0.1200802839387673</v>
       </c>
       <c r="D17">
-        <v>-0.1599095141518624</v>
+        <v>-0.1599095142712253</v>
       </c>
       <c r="E17">
-        <v>-1.263153873458231</v>
+        <v>-1.263153882896125</v>
       </c>
       <c r="F17">
-        <v>-0.00784279093393987</v>
+        <v>-0.00784279117372897</v>
       </c>
       <c r="G17">
-        <v>-5.136435013334784E-06</v>
+        <v>-5.136435266707025E-06</v>
       </c>
       <c r="H17">
-        <v>-2.141437712726909E-05</v>
+        <v>-2.141437715141415E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399076762060454</v>
+        <v>-0.02399076783167066</v>
       </c>
       <c r="J17">
-        <v>-2.349318088142556</v>
+        <v>-2.349318089339379</v>
       </c>
       <c r="K17">
-        <v>-0.001041090753575239</v>
+        <v>-0.001041090796553842</v>
       </c>
       <c r="L17">
-        <v>-0.0005414003447924807</v>
+        <v>-0.000541400445510487</v>
       </c>
       <c r="M17">
-        <v>-0.001682385464902294</v>
+        <v>-0.00168238551176853</v>
       </c>
       <c r="N17">
-        <v>-1.016975884233988E-06</v>
+        <v>-1.016975884476675E-06</v>
       </c>
       <c r="O17">
-        <v>-9.103761887978808E-05</v>
+        <v>-9.103762044908426E-05</v>
       </c>
       <c r="P17">
-        <v>-0.0006013723787461547</v>
+        <v>-0.0006013723820613333</v>
       </c>
       <c r="Q17">
-        <v>-0.0006054442850570876</v>
+        <v>-0.0006054442887208452</v>
       </c>
       <c r="R17">
-        <v>-0.003722391159709204</v>
+        <v>-0.00372239116330273</v>
       </c>
       <c r="S17">
-        <v>-6.901632082825844E-09</v>
+        <v>-6.901632087226194E-09</v>
       </c>
       <c r="T17">
-        <v>-2.884030308513779E-06</v>
+        <v>-2.884030311196038E-06</v>
       </c>
       <c r="U17">
-        <v>-0.003060162327156707</v>
+        <v>-0.003060162418717863</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0001926107900869916</v>
+        <v>-0.0001926107897212973</v>
       </c>
       <c r="B18">
-        <v>-3.020232371471818</v>
+        <v>-3.020232371464862</v>
       </c>
       <c r="C18">
-        <v>-0.1585580381984412</v>
+        <v>-0.1585580381598226</v>
       </c>
       <c r="D18">
-        <v>-0.2295974278728354</v>
+        <v>-0.2295974278221691</v>
       </c>
       <c r="E18">
-        <v>-8.832198445140808</v>
+        <v>-8.832198442559299</v>
       </c>
       <c r="F18">
-        <v>-0.004982771794624709</v>
+        <v>-0.004982771813580569</v>
       </c>
       <c r="G18">
-        <v>-2.600694404462817E-06</v>
+        <v>-2.600694359732868E-06</v>
       </c>
       <c r="H18">
-        <v>-4.712967504468086E-06</v>
+        <v>-4.712967503471203E-06</v>
       </c>
       <c r="I18">
-        <v>-0.009844746033005496</v>
+        <v>-0.009844745974671323</v>
       </c>
       <c r="J18">
-        <v>-1.917227265053199</v>
+        <v>-1.917227264428579</v>
       </c>
       <c r="K18">
-        <v>-0.0004261771959880609</v>
+        <v>-0.0004261772004485223</v>
       </c>
       <c r="L18">
-        <v>-0.0002952297221995214</v>
+        <v>-0.0002952296330230795</v>
       </c>
       <c r="M18">
-        <v>-0.001009659070617739</v>
+        <v>-0.001009659059049594</v>
       </c>
       <c r="N18">
-        <v>-2.203428892988539E-07</v>
+        <v>-2.203428893528792E-07</v>
       </c>
       <c r="O18">
-        <v>-6.324301927307885E-05</v>
+        <v>-6.324301926179527E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004640577319139838</v>
+        <v>-0.0004640577322180428</v>
       </c>
       <c r="Q18">
-        <v>-0.0004665276033687073</v>
+        <v>-0.0004665276037224568</v>
       </c>
       <c r="R18">
-        <v>-0.001527602344100055</v>
+        <v>-0.001527602343543212</v>
       </c>
       <c r="S18">
-        <v>-8.797267535519405E-09</v>
+        <v>-8.797267534584834E-09</v>
       </c>
       <c r="T18">
-        <v>-3.316482485123182E-06</v>
+        <v>-3.316482484772724E-06</v>
       </c>
       <c r="U18">
-        <v>-0.001920371170372528</v>
+        <v>-0.001920371176203873</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001639086777632773</v>
+        <v>-0.0001639086792878112</v>
       </c>
       <c r="B19">
-        <v>-2.550880667795147</v>
+        <v>-2.55088066816102</v>
       </c>
       <c r="C19">
-        <v>-0.1339112701180914</v>
+        <v>-0.1339112701648152</v>
       </c>
       <c r="D19">
-        <v>-0.193906674530673</v>
+        <v>-0.1939066745902733</v>
       </c>
       <c r="E19">
-        <v>-7.460027106312346</v>
+        <v>-7.460027110401506</v>
       </c>
       <c r="F19">
-        <v>-0.004342334859295363</v>
+        <v>-0.004342334980273354</v>
       </c>
       <c r="G19">
-        <v>-2.366434537167354E-06</v>
+        <v>-2.366434652965611E-06</v>
       </c>
       <c r="H19">
-        <v>-4.000192084493059E-06</v>
+        <v>-4.000192104587586E-06</v>
       </c>
       <c r="I19">
-        <v>-0.00861720172791659</v>
+        <v>-0.008617201789286572</v>
       </c>
       <c r="J19">
-        <v>-1.61922092705565</v>
+        <v>-1.619220927655206</v>
       </c>
       <c r="K19">
-        <v>-0.0003756151272768405</v>
+        <v>-0.0003756151457224608</v>
       </c>
       <c r="L19">
-        <v>-0.0002616830166878662</v>
+        <v>-0.0002616834048422939</v>
       </c>
       <c r="M19">
-        <v>-0.0009631102479805114</v>
+        <v>-0.0009631102682630724</v>
       </c>
       <c r="N19">
-        <v>-1.861432753770035E-07</v>
+        <v>-1.861432755534356E-07</v>
       </c>
       <c r="O19">
-        <v>-5.508284387834368E-05</v>
+        <v>-5.508284460730452E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0003933495465973625</v>
+        <v>-0.0003933495481578215</v>
       </c>
       <c r="Q19">
-        <v>-0.000395590145545764</v>
+        <v>-0.0003955901472785586</v>
       </c>
       <c r="R19">
-        <v>-0.00144946608198044</v>
+        <v>-0.0014494660837886</v>
       </c>
       <c r="S19">
-        <v>-7.430834734606215E-09</v>
+        <v>-7.43083473978585E-09</v>
       </c>
       <c r="T19">
-        <v>-2.803485650946271E-06</v>
+        <v>-2.80348565209001E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001684653469385253</v>
+        <v>-0.001684653516407921</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001395958793080899</v>
+        <v>-0.001395958797221734</v>
       </c>
       <c r="B20">
-        <v>-0.7560797514507358</v>
+        <v>-0.7560797520653713</v>
       </c>
       <c r="C20">
-        <v>-0.01826306631612505</v>
+        <v>-0.01826306655693495</v>
       </c>
       <c r="D20">
-        <v>-0.02424443879912081</v>
+        <v>-0.02424443910904609</v>
       </c>
       <c r="E20">
-        <v>-0.1419770544932148</v>
+        <v>-0.1419770780107587</v>
       </c>
       <c r="F20">
-        <v>-0.02676679724390906</v>
+        <v>-0.02676679743193339</v>
       </c>
       <c r="G20">
-        <v>-9.553340189349209E-06</v>
+        <v>-9.553340623944157E-06</v>
       </c>
       <c r="H20">
-        <v>-0.0002332124981544527</v>
+        <v>-0.0002332124981844386</v>
       </c>
       <c r="I20">
-        <v>-0.006439796757089829</v>
+        <v>-0.006439796938679598</v>
       </c>
       <c r="J20">
-        <v>-0.433491074769537</v>
+        <v>-0.4334910784862847</v>
       </c>
       <c r="K20">
-        <v>-0.00181318055992514</v>
+        <v>-0.001813180600342777</v>
       </c>
       <c r="L20">
-        <v>-0.0007497013716980319</v>
+        <v>-0.0007497014126038408</v>
       </c>
       <c r="M20">
-        <v>-0.002686348865914037</v>
+        <v>-0.002686348883331665</v>
       </c>
       <c r="N20">
-        <v>-1.167331374768067E-05</v>
+        <v>-1.16733137479299E-05</v>
       </c>
       <c r="O20">
-        <v>-0.0004374718552656429</v>
+        <v>-0.000437471857068633</v>
       </c>
       <c r="P20">
-        <v>-0.003155472647014283</v>
+        <v>-0.003155472649310552</v>
       </c>
       <c r="Q20">
-        <v>-0.003166045749257271</v>
+        <v>-0.003166045751773025</v>
       </c>
       <c r="R20">
-        <v>-0.002119597158098121</v>
+        <v>-0.002119597161412283</v>
       </c>
       <c r="S20">
-        <v>-2.851281862702759E-09</v>
+        <v>-2.851281866747921E-09</v>
       </c>
       <c r="T20">
-        <v>-1.111285646483759E-06</v>
+        <v>-1.111285649647058E-06</v>
       </c>
       <c r="U20">
-        <v>-0.009781148716654569</v>
+        <v>-0.009781148778634775</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0</v>
+        <v>0.0001243276863723447</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.02863769586525965</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.001085950372486286</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.001203462702779423</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.0702801528343522</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.01613015404281799</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.042370418099545E-05</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.367342421720804E-05</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001138779899783023</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02180390557904579</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.001614134321835049</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.006308440117743036</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0002176138608191709</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.338596178957186E-08</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3.815966441699809E-05</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.0005466381236304504</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.0008454525270618258</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>0.004763877567086902</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.803087478346289E-10</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>7.042486359747278E-08</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>0.0001243276861617469</v>
-      </c>
-      <c r="B22">
-        <v>0.02863769581260263</v>
-      </c>
-      <c r="C22">
-        <v>0.001085950362689438</v>
-      </c>
-      <c r="D22">
-        <v>0.001203462689916416</v>
-      </c>
-      <c r="E22">
-        <v>0.07028015163359211</v>
-      </c>
-      <c r="F22">
-        <v>0.01613015402969197</v>
-      </c>
-      <c r="G22">
-        <v>1.042370415067066E-05</v>
-      </c>
-      <c r="H22">
-        <v>4.36734242153196E-05</v>
-      </c>
-      <c r="I22">
-        <v>0.001138779867299311</v>
-      </c>
-      <c r="J22">
-        <v>0.02180390543532839</v>
-      </c>
-      <c r="K22">
-        <v>0.001614134314348662</v>
-      </c>
-      <c r="L22">
-        <v>0.006308440130158356</v>
-      </c>
-      <c r="M22">
-        <v>0.0002176138588330099</v>
-      </c>
-      <c r="N22">
-        <v>5.338596177449632E-08</v>
-      </c>
-      <c r="O22">
-        <v>3.815966429202694E-05</v>
-      </c>
-      <c r="P22">
-        <v>0.0005466381235694568</v>
-      </c>
-      <c r="Q22">
-        <v>0.0008454525269983216</v>
-      </c>
-      <c r="R22">
-        <v>0.004763877566797466</v>
-      </c>
-      <c r="S22">
-        <v>2.803087477023979E-10</v>
-      </c>
-      <c r="T22">
-        <v>7.042486332869242E-08</v>
-      </c>
-      <c r="U22">
-        <v>0.006196128871938106</v>
+        <v>0.006196128874857361</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -637,132 +637,132 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>7.630677128332186E-05</v>
+        <v>0.0005630100249994989</v>
       </c>
       <c r="B4">
-        <v>0.02301679233296458</v>
+        <v>0.1299286652090859</v>
       </c>
       <c r="C4">
-        <v>0.001941427841910875</v>
+        <v>0.01088808485616814</v>
       </c>
       <c r="D4">
-        <v>0.002527724467967794</v>
+        <v>0.01382035035423272</v>
       </c>
       <c r="E4">
-        <v>0.110795081682282</v>
+        <v>0.3189665526770596</v>
       </c>
       <c r="F4">
-        <v>0.006855980826970998</v>
+        <v>0.02939600250250694</v>
       </c>
       <c r="G4">
-        <v>1.347005039357743E-05</v>
+        <v>4.770705086479183E-05</v>
       </c>
       <c r="H4">
-        <v>2.894577038711986E-06</v>
+        <v>5.475435088903973E-06</v>
       </c>
       <c r="I4">
-        <v>0.001756120151760715</v>
+        <v>0.02285232814583956</v>
       </c>
       <c r="J4">
-        <v>0.03730513521844646</v>
+        <v>0.1428551843351491</v>
       </c>
       <c r="K4">
-        <v>0.006970986104468701</v>
+        <v>0.008600613358165024</v>
       </c>
       <c r="L4">
-        <v>0.001155830870585628</v>
+        <v>0.002342453081565948</v>
       </c>
       <c r="M4">
-        <v>0.0003624060465524919</v>
+        <v>0.002122011019283849</v>
       </c>
       <c r="N4">
-        <v>9.839563813040561E-09</v>
+        <v>3.172919247112918E-08</v>
       </c>
       <c r="O4">
-        <v>3.074831643384513E-05</v>
+        <v>0.0002443710737602712</v>
       </c>
       <c r="P4">
-        <v>4.545269723798892E-05</v>
+        <v>0.0003263262626782621</v>
       </c>
       <c r="Q4">
-        <v>4.824432581476511E-05</v>
+        <v>0.0003331710956482778</v>
       </c>
       <c r="R4">
-        <v>0.000721785743619718</v>
+        <v>0.001336897312384</v>
       </c>
       <c r="S4">
-        <v>1.090138820981277E-10</v>
+        <v>5.916113711826206E-10</v>
       </c>
       <c r="T4">
-        <v>5.672098364103753E-08</v>
+        <v>3.858827203906173E-07</v>
       </c>
       <c r="U4">
-        <v>0.001997395455025312</v>
+        <v>0.006459441215195453</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>4.479861831343849E-05</v>
+        <v>0.0003356241867171992</v>
       </c>
       <c r="B5">
-        <v>0.01349444465976932</v>
+        <v>0.07737876424746311</v>
       </c>
       <c r="C5">
-        <v>0.001150533121508346</v>
+        <v>0.006496535208948148</v>
       </c>
       <c r="D5">
-        <v>0.001498011918359469</v>
+        <v>0.008245828612831357</v>
       </c>
       <c r="E5">
-        <v>0.065355460525968</v>
+        <v>0.1897466285994567</v>
       </c>
       <c r="F5">
-        <v>0.003970127350554585</v>
+        <v>0.01743873387160091</v>
       </c>
       <c r="G5">
-        <v>7.972026912718201E-06</v>
+        <v>2.843006791902039E-05</v>
       </c>
       <c r="H5">
-        <v>1.716879487789784E-06</v>
+        <v>3.259050212429936E-06</v>
       </c>
       <c r="I5">
-        <v>0.001037048909272714</v>
+        <v>0.01364291631456281</v>
       </c>
       <c r="J5">
-        <v>0.02205021877560415</v>
+        <v>0.08512079160435781</v>
       </c>
       <c r="K5">
-        <v>0.004148794101802159</v>
+        <v>0.005122564605281215</v>
       </c>
       <c r="L5">
-        <v>0.00068704738509568</v>
+        <v>0.001396103833408355</v>
       </c>
       <c r="M5">
-        <v>0.00020967293365826</v>
+        <v>0.001261110565372426</v>
       </c>
       <c r="N5">
-        <v>5.806816835771206E-09</v>
+        <v>1.888678630080748E-08</v>
       </c>
       <c r="O5">
-        <v>1.800135334484244E-05</v>
+        <v>0.0001456498935017106</v>
       </c>
       <c r="P5">
-        <v>2.658480926918063E-05</v>
+        <v>0.0001944185225313675</v>
       </c>
       <c r="Q5">
-        <v>2.820709643163117E-05</v>
+        <v>0.0001984627689947085</v>
       </c>
       <c r="R5">
-        <v>0.0004263984212110073</v>
+        <v>0.0007939533333089088</v>
       </c>
       <c r="S5">
-        <v>6.406434577633651E-11</v>
+        <v>3.524365479989983E-10</v>
       </c>
       <c r="T5">
-        <v>3.331159439628674E-08</v>
+        <v>2.299995114440315E-07</v>
       </c>
       <c r="U5">
-        <v>0.001148233446049483</v>
+        <v>0.003814492577836441</v>
       </c>
     </row>
     <row r="6" spans="1:21">

--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,1302 +507,1367 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0007172858214633804</v>
+        <v>0.000717285822073984</v>
       </c>
       <c r="B2">
-        <v>0.2476010125521857</v>
+        <v>0.2476010127049158</v>
       </c>
       <c r="C2">
-        <v>0.007638919622672731</v>
+        <v>0.007638919643349559</v>
       </c>
       <c r="D2">
-        <v>0.01007273939296563</v>
+        <v>0.01007273941998863</v>
       </c>
       <c r="E2">
-        <v>0.6735796752987794</v>
+        <v>0.6735796774574083</v>
       </c>
       <c r="F2">
-        <v>0.149743328893983</v>
+        <v>0.149743328941828</v>
       </c>
       <c r="G2">
-        <v>5.476664503214043E-05</v>
+        <v>5.476664507749736E-05</v>
       </c>
       <c r="H2">
-        <v>7.737268582844679E-06</v>
+        <v>7.737268587160864E-06</v>
       </c>
       <c r="I2">
-        <v>0.009802520051077075</v>
+        <v>0.009802520075714522</v>
       </c>
       <c r="J2">
-        <v>0.152659716618304</v>
+        <v>0.1526597169823759</v>
       </c>
       <c r="K2">
-        <v>0.01108799457586398</v>
+        <v>0.01108799457601747</v>
       </c>
       <c r="L2">
-        <v>0.004108042018290453</v>
+        <v>0.004108042020145753</v>
       </c>
       <c r="M2">
-        <v>0.002434545169495901</v>
+        <v>0.002434545175767611</v>
       </c>
       <c r="N2">
-        <v>4.656145841239028E-08</v>
+        <v>4.65614584355328E-08</v>
       </c>
       <c r="O2">
-        <v>0.0003086847791470814</v>
+        <v>0.0003086847793968818</v>
       </c>
       <c r="P2">
-        <v>0.0005812956178185733</v>
+        <v>0.000581295618231238</v>
       </c>
       <c r="Q2">
-        <v>0.0006158725330556075</v>
+        <v>0.0006158725335396966</v>
       </c>
       <c r="R2">
-        <v>0.002000869313433622</v>
+        <v>0.002000869314090184</v>
       </c>
       <c r="S2">
-        <v>1.012221229060956E-09</v>
+        <v>1.012221229769225E-09</v>
       </c>
       <c r="T2">
-        <v>4.961592795305003E-07</v>
+        <v>4.961592799958188E-07</v>
       </c>
       <c r="U2">
-        <v>0.05715518799270729</v>
+        <v>0.05715518801149502</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002052429295582987</v>
+        <v>0.002052429300185033</v>
       </c>
       <c r="B3">
-        <v>0.7085726044278589</v>
+        <v>0.7085726050600442</v>
       </c>
       <c r="C3">
-        <v>0.02185264039121851</v>
+        <v>0.02185264061014</v>
       </c>
       <c r="D3">
-        <v>0.02881605910557022</v>
+        <v>0.02881605938731101</v>
       </c>
       <c r="E3">
-        <v>1.926021819241528</v>
+        <v>1.92602184104226</v>
       </c>
       <c r="F3">
-        <v>0.4284085116133038</v>
+        <v>0.428408511775361</v>
       </c>
       <c r="G3">
-        <v>0.0001570287129700997</v>
+        <v>0.0001570287132891481</v>
       </c>
       <c r="H3">
-        <v>2.24180663448635E-05</v>
+        <v>2.241806636872244E-05</v>
       </c>
       <c r="I3">
-        <v>0.0280666650536483</v>
+        <v>0.02806666519360916</v>
       </c>
       <c r="J3">
-        <v>0.4371104019143154</v>
+        <v>0.4371104054515319</v>
       </c>
       <c r="K3">
-        <v>0.03189183544241259</v>
+        <v>0.03189183542762093</v>
       </c>
       <c r="L3">
-        <v>0.0119744476001613</v>
+        <v>0.01197444742304666</v>
       </c>
       <c r="M3">
-        <v>0.006964031591221167</v>
+        <v>0.006964031643006453</v>
       </c>
       <c r="N3">
-        <v>1.335684926332336E-07</v>
+        <v>1.335684927581652E-07</v>
       </c>
       <c r="O3">
-        <v>0.0008831184120180913</v>
+        <v>0.0008831184136332457</v>
       </c>
       <c r="P3">
-        <v>0.001663931908322962</v>
+        <v>0.001663931910604501</v>
       </c>
       <c r="Q3">
-        <v>0.00176320825929397</v>
+        <v>0.001763208261808474</v>
       </c>
       <c r="R3">
-        <v>0.005758781208145086</v>
+        <v>0.005758781211245484</v>
       </c>
       <c r="S3">
-        <v>2.89887627140036E-09</v>
+        <v>2.898876273542128E-09</v>
       </c>
       <c r="T3">
-        <v>1.419896829244402E-06</v>
+        <v>1.419896832125682E-06</v>
       </c>
       <c r="U3">
-        <v>0.1635073490131902</v>
+        <v>0.163507349081575</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.0005630100249994989</v>
+        <v>0.2926121465778755</v>
       </c>
       <c r="B4">
-        <v>0.1299286652090859</v>
+        <v>67.60476018155245</v>
       </c>
       <c r="C4">
-        <v>0.01088808485616814</v>
+        <v>5.628516445976704</v>
       </c>
       <c r="D4">
-        <v>0.01382035035423272</v>
+        <v>7.147256915454436</v>
       </c>
       <c r="E4">
-        <v>0.3189665526770596</v>
+        <v>165.7995225761766</v>
       </c>
       <c r="F4">
-        <v>0.02939600250250694</v>
+        <v>15.3459352051772</v>
       </c>
       <c r="G4">
-        <v>4.770705086479183E-05</v>
+        <v>0.02516519706616504</v>
       </c>
       <c r="H4">
-        <v>5.475435088903973E-06</v>
+        <v>0.002877731852249751</v>
       </c>
       <c r="I4">
-        <v>0.02285232814583956</v>
+        <v>11.81339519184716</v>
       </c>
       <c r="J4">
-        <v>0.1428551843351491</v>
+        <v>74.48885137407952</v>
       </c>
       <c r="K4">
-        <v>0.008600613358165024</v>
+        <v>4.842772612601845</v>
       </c>
       <c r="L4">
-        <v>0.002342453081565948</v>
+        <v>1.31817131650959</v>
       </c>
       <c r="M4">
-        <v>0.002122011019283849</v>
+        <v>1.113191241882717</v>
       </c>
       <c r="N4">
-        <v>3.172919247112918E-08</v>
+        <v>1.666525698815092E-05</v>
       </c>
       <c r="O4">
-        <v>0.0002443710737602712</v>
+        <v>0.1267996991031374</v>
       </c>
       <c r="P4">
-        <v>0.0003263262626782621</v>
+        <v>0.169657594639666</v>
       </c>
       <c r="Q4">
-        <v>0.0003331710956482778</v>
+        <v>0.1732763346256601</v>
       </c>
       <c r="R4">
-        <v>0.001336897312384</v>
+        <v>0.6963203626528149</v>
       </c>
       <c r="S4">
-        <v>5.916113711826206E-10</v>
+        <v>3.088258367868882E-07</v>
       </c>
       <c r="T4">
-        <v>3.858827203906173E-07</v>
+        <v>0.0002003468455782229</v>
       </c>
       <c r="U4">
-        <v>0.006459441215195453</v>
+        <v>3.383806310909824</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.0003356241867171992</v>
+        <v>0.1744351750350207</v>
       </c>
       <c r="B5">
-        <v>0.07737876424746311</v>
+        <v>40.26300473220532</v>
       </c>
       <c r="C5">
-        <v>0.006496535208948148</v>
+        <v>3.358309979029481</v>
       </c>
       <c r="D5">
-        <v>0.008245828612831357</v>
+        <v>4.264337908577596</v>
       </c>
       <c r="E5">
-        <v>0.1897466285994567</v>
+        <v>98.63498053815692</v>
       </c>
       <c r="F5">
-        <v>0.01743873387160091</v>
+        <v>9.104724231405857</v>
       </c>
       <c r="G5">
-        <v>2.843006791902039E-05</v>
+        <v>0.01499755926697738</v>
       </c>
       <c r="H5">
-        <v>3.259050212429936E-06</v>
+        <v>0.001713004359293499</v>
       </c>
       <c r="I5">
-        <v>0.01364291631456281</v>
+        <v>7.052533279977734</v>
       </c>
       <c r="J5">
-        <v>0.08512079160435781</v>
+        <v>44.38572163538614</v>
       </c>
       <c r="K5">
-        <v>0.005122564605281215</v>
+        <v>2.88519417036441</v>
       </c>
       <c r="L5">
-        <v>0.001396103833408355</v>
+        <v>0.7858005422392398</v>
       </c>
       <c r="M5">
-        <v>0.001261110565372426</v>
+        <v>0.6616361132001086</v>
       </c>
       <c r="N5">
-        <v>1.888678630080748E-08</v>
+        <v>9.920714377058976E-06</v>
       </c>
       <c r="O5">
-        <v>0.0001456498935017106</v>
+        <v>0.07557572172046402</v>
       </c>
       <c r="P5">
-        <v>0.0001944185225313675</v>
+        <v>0.1010804644681376</v>
       </c>
       <c r="Q5">
-        <v>0.0001984627689947085</v>
+        <v>0.1032192730394716</v>
       </c>
       <c r="R5">
-        <v>0.0007939533333089088</v>
+        <v>0.4135629686537948</v>
       </c>
       <c r="S5">
-        <v>3.524365479989983E-10</v>
+        <v>1.839808551410032E-07</v>
       </c>
       <c r="T5">
-        <v>2.299995114440315E-07</v>
+        <v>0.0001194149021843196</v>
       </c>
       <c r="U5">
-        <v>0.003814492577836441</v>
+        <v>1.99869732210117</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.009221070769363111</v>
+        <v>0.009221070648572697</v>
       </c>
       <c r="B6">
-        <v>2.613780841976748</v>
+        <v>2.613780851731164</v>
       </c>
       <c r="C6">
-        <v>0.5237057486642072</v>
+        <v>0.5237057365757175</v>
       </c>
       <c r="D6">
-        <v>0.6594677264452963</v>
+        <v>0.6594677111125826</v>
       </c>
       <c r="E6">
-        <v>27.28412771861799</v>
+        <v>27.28412664441876</v>
       </c>
       <c r="F6">
-        <v>0.6726728405415332</v>
+        <v>0.6726728441473374</v>
       </c>
       <c r="G6">
-        <v>0.002558289042776349</v>
+        <v>0.00255828903112697</v>
       </c>
       <c r="H6">
-        <v>0.001769465488830154</v>
+        <v>0.001769465488343716</v>
       </c>
       <c r="I6">
-        <v>0.2443130757156063</v>
+        <v>0.2443130783962033</v>
       </c>
       <c r="J6">
-        <v>7.418088099333323</v>
+        <v>7.4180879356065</v>
       </c>
       <c r="K6">
-        <v>0.7194758485311344</v>
+        <v>0.719475848910666</v>
       </c>
       <c r="L6">
-        <v>0.4853171450029249</v>
+        <v>0.4853171331126638</v>
       </c>
       <c r="M6">
-        <v>0.05620282423452237</v>
+        <v>0.05620282347957235</v>
       </c>
       <c r="N6">
-        <v>2.905570428639722E-06</v>
+        <v>2.905570428457461E-06</v>
       </c>
       <c r="O6">
-        <v>0.003190112407550131</v>
+        <v>0.003190112372468144</v>
       </c>
       <c r="P6">
-        <v>0.00552183348752826</v>
+        <v>0.005521833503995882</v>
       </c>
       <c r="Q6">
-        <v>0.0056601856357523</v>
+        <v>0.00566018565660567</v>
       </c>
       <c r="R6">
-        <v>0.04791135575336762</v>
+        <v>0.04791135570585944</v>
       </c>
       <c r="S6">
-        <v>1.676798341591031E-08</v>
+        <v>1.676798328474637E-08</v>
       </c>
       <c r="T6">
-        <v>7.051189767059298E-06</v>
+        <v>7.051189725585081E-06</v>
       </c>
       <c r="U6">
-        <v>0.1411066786798089</v>
+        <v>0.1411066799004605</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02530154831579086</v>
+        <v>0.02530154829856895</v>
       </c>
       <c r="B7">
-        <v>5.804199976838722</v>
+        <v>5.804199975220341</v>
       </c>
       <c r="C7">
-        <v>3.25209070337637</v>
+        <v>3.252090702501102</v>
       </c>
       <c r="D7">
-        <v>3.926635960980761</v>
+        <v>3.926635959846382</v>
       </c>
       <c r="E7">
-        <v>13.2240759940345</v>
+        <v>13.22407592276414</v>
       </c>
       <c r="F7">
-        <v>1.237341574570694</v>
+        <v>1.237341574323509</v>
       </c>
       <c r="G7">
-        <v>0.001834956718232453</v>
+        <v>0.001834956716542793</v>
       </c>
       <c r="H7">
-        <v>0.0001424809147576439</v>
+        <v>0.0001424809146065182</v>
       </c>
       <c r="I7">
-        <v>1.104179393234296</v>
+        <v>1.104179391452043</v>
       </c>
       <c r="J7">
-        <v>9.089711849492655</v>
+        <v>9.089711836962303</v>
       </c>
       <c r="K7">
-        <v>0.1135132796136268</v>
+        <v>0.1135132795308761</v>
       </c>
       <c r="L7">
-        <v>0.07736411548004687</v>
+        <v>0.07736411448265063</v>
       </c>
       <c r="M7">
-        <v>0.1088357597392106</v>
+        <v>0.1088357592029391</v>
       </c>
       <c r="N7">
-        <v>1.481457687989065E-06</v>
+        <v>1.481457687179921E-06</v>
       </c>
       <c r="O7">
-        <v>0.01110264506705023</v>
+        <v>0.01110264505982038</v>
       </c>
       <c r="P7">
-        <v>0.0153813412255247</v>
+        <v>0.01538134121671514</v>
       </c>
       <c r="Q7">
-        <v>0.01563481719634725</v>
+        <v>0.01563481718799101</v>
       </c>
       <c r="R7">
-        <v>0.03521361399657173</v>
+        <v>0.03521361397160153</v>
       </c>
       <c r="S7">
-        <v>2.836547556938539E-08</v>
+        <v>2.83654755486025E-08</v>
       </c>
       <c r="T7">
-        <v>1.81935948741169E-05</v>
+        <v>1.819359485923347E-05</v>
       </c>
       <c r="U7">
-        <v>0.2638603432837091</v>
+        <v>0.2638603431780548</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.0005037847300824596</v>
+        <v>0.0005037847113081951</v>
       </c>
       <c r="B8">
-        <v>0.2084098651496353</v>
+        <v>0.2084098652489746</v>
       </c>
       <c r="C8">
-        <v>0.01250017948317705</v>
+        <v>0.01250017782651672</v>
       </c>
       <c r="D8">
-        <v>0.01630201256196151</v>
+        <v>0.01630201045288217</v>
       </c>
       <c r="E8">
-        <v>0.6245138017585579</v>
+        <v>0.6245136504247453</v>
       </c>
       <c r="F8">
-        <v>0.05471552575297298</v>
+        <v>0.05471552585941118</v>
       </c>
       <c r="G8">
-        <v>0.0001634954713947842</v>
+        <v>0.0001634954695762753</v>
       </c>
       <c r="H8">
-        <v>1.188510935844747E-05</v>
+        <v>1.188510930961295E-05</v>
       </c>
       <c r="I8">
-        <v>0.01662770125688291</v>
+        <v>0.01662770163175291</v>
       </c>
       <c r="J8">
-        <v>0.2947844955505631</v>
+        <v>0.2947844719630262</v>
       </c>
       <c r="K8">
-        <v>0.06328972154149025</v>
+        <v>0.06328972154931427</v>
       </c>
       <c r="L8">
-        <v>0.04349396258986814</v>
+        <v>0.04349396202732678</v>
       </c>
       <c r="M8">
-        <v>0.002096435846675388</v>
+        <v>0.00209643584726272</v>
       </c>
       <c r="N8">
-        <v>2.090750668114471E-07</v>
+        <v>2.09075066525828E-07</v>
       </c>
       <c r="O8">
-        <v>0.0001699537419485139</v>
+        <v>0.0001699537360664994</v>
       </c>
       <c r="P8">
-        <v>0.0004089896420001447</v>
+        <v>0.000408989641478939</v>
       </c>
       <c r="Q8">
-        <v>0.0004182080166078078</v>
+        <v>0.0004182080162982915</v>
       </c>
       <c r="R8">
-        <v>0.003495028306175824</v>
+        <v>0.003495028300723486</v>
       </c>
       <c r="S8">
-        <v>1.257077519768343E-09</v>
+        <v>1.257077506721761E-09</v>
       </c>
       <c r="T8">
-        <v>4.313872595418792E-07</v>
+        <v>4.31387251796307E-07</v>
       </c>
       <c r="U8">
-        <v>0.01031957015243576</v>
+        <v>0.01031957020105097</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006303521149981963</v>
+        <v>0.006303521150975214</v>
       </c>
       <c r="B9">
-        <v>2.378755636663225</v>
+        <v>2.378755637346851</v>
       </c>
       <c r="C9">
-        <v>0.05408767064415545</v>
+        <v>0.05408767061997893</v>
       </c>
       <c r="D9">
-        <v>0.07208146434036157</v>
+        <v>0.0720814643108168</v>
       </c>
       <c r="E9">
-        <v>5.129597040857997</v>
+        <v>5.129597039837097</v>
       </c>
       <c r="F9">
-        <v>1.713173814798994</v>
+        <v>1.713173815043781</v>
       </c>
       <c r="G9">
-        <v>0.0003886539703298109</v>
+        <v>0.0003886539703598497</v>
       </c>
       <c r="H9">
-        <v>3.880851506875836E-05</v>
+        <v>3.880851508412491E-05</v>
       </c>
       <c r="I9">
-        <v>0.08570471146111121</v>
+        <v>0.08570471151666255</v>
       </c>
       <c r="J9">
-        <v>1.15182291218173</v>
+        <v>1.151822911958387</v>
       </c>
       <c r="K9">
-        <v>0.04709684703484454</v>
+        <v>0.04709684703113342</v>
       </c>
       <c r="L9">
-        <v>0.01837651469495615</v>
+        <v>0.01837651461671232</v>
       </c>
       <c r="M9">
-        <v>0.02050259061779716</v>
+        <v>0.02050259063826712</v>
       </c>
       <c r="N9">
-        <v>2.695596546364791E-07</v>
+        <v>2.695596546778646E-07</v>
       </c>
       <c r="O9">
-        <v>0.00238858863643515</v>
+        <v>0.002388588636900164</v>
       </c>
       <c r="P9">
-        <v>0.004929617339069865</v>
+        <v>0.004929617340548314</v>
       </c>
       <c r="Q9">
-        <v>0.005278743534772244</v>
+        <v>0.005278743536728193</v>
       </c>
       <c r="R9">
-        <v>0.01752713856734229</v>
+        <v>0.01752713856933262</v>
       </c>
       <c r="S9">
-        <v>9.207598071143238E-09</v>
+        <v>9.207598072814914E-09</v>
       </c>
       <c r="T9">
-        <v>4.299010272819709E-06</v>
+        <v>4.299010273885547E-06</v>
       </c>
       <c r="U9">
-        <v>0.6788007262239479</v>
+        <v>0.6788007263273615</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.01162068828201442</v>
+        <v>0.01162068804822315</v>
       </c>
       <c r="B10">
-        <v>3.466886106560136</v>
+        <v>3.466886107365547</v>
       </c>
       <c r="C10">
-        <v>0.7086161845279181</v>
+        <v>0.7086161641832104</v>
       </c>
       <c r="D10">
-        <v>0.8912456326048219</v>
+        <v>0.8912456066418757</v>
       </c>
       <c r="E10">
-        <v>36.42125271167293</v>
+        <v>36.42125085496972</v>
       </c>
       <c r="F10">
-        <v>0.8974062230570367</v>
+        <v>0.8974062246420504</v>
       </c>
       <c r="G10">
-        <v>0.003207825028598304</v>
+        <v>0.003207825005012909</v>
       </c>
       <c r="H10">
-        <v>0.001413958188637838</v>
+        <v>0.001413958187570511</v>
       </c>
       <c r="I10">
-        <v>0.3160316700613462</v>
+        <v>0.3160316704119533</v>
       </c>
       <c r="J10">
-        <v>9.502532443512345</v>
+        <v>9.502532153364111</v>
       </c>
       <c r="K10">
-        <v>0.9889259668054738</v>
+        <v>0.9889259668761475</v>
       </c>
       <c r="L10">
-        <v>0.6648528790066061</v>
+        <v>0.6648528768323583</v>
       </c>
       <c r="M10">
-        <v>0.05724204660516415</v>
+        <v>0.05724204493406125</v>
       </c>
       <c r="N10">
-        <v>3.638717803041932E-06</v>
+        <v>3.638717799694638E-06</v>
       </c>
       <c r="O10">
-        <v>0.003997746694158021</v>
+        <v>0.00399774662459763</v>
       </c>
       <c r="P10">
-        <v>0.007253941038212967</v>
+        <v>0.007253941039422547</v>
       </c>
       <c r="Q10">
-        <v>0.007432664576380933</v>
+        <v>0.007432664579662583</v>
       </c>
       <c r="R10">
-        <v>0.05870154926553038</v>
+        <v>0.05870154914409529</v>
       </c>
       <c r="S10">
-        <v>2.217736165723281E-08</v>
+        <v>2.217736153727305E-08</v>
       </c>
       <c r="T10">
-        <v>9.091799300068356E-06</v>
+        <v>9.091799191905476E-06</v>
       </c>
       <c r="U10">
-        <v>0.1818204822579458</v>
+        <v>0.1818204827645303</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001089981342904747</v>
+        <v>0.0001182622958222963</v>
       </c>
       <c r="B11">
-        <v>0.03192097996418105</v>
+        <v>0.03461772762986059</v>
       </c>
       <c r="C11">
-        <v>0.001146021098617838</v>
+        <v>0.001739476049617164</v>
       </c>
       <c r="D11">
-        <v>0.001528371409758731</v>
+        <v>0.002274848360418705</v>
       </c>
       <c r="E11">
-        <v>0.1409165994755822</v>
+        <v>0.172708078227156</v>
       </c>
       <c r="F11">
-        <v>0.009235705656359505</v>
+        <v>0.009931553818339432</v>
       </c>
       <c r="G11">
-        <v>8.121734252893716E-06</v>
+        <v>1.041736731118785E-05</v>
       </c>
       <c r="H11">
-        <v>7.484272530034012E-07</v>
+        <v>9.033479415445073E-07</v>
       </c>
       <c r="I11">
-        <v>0.001269325769161409</v>
+        <v>0.001523289733508508</v>
       </c>
       <c r="J11">
-        <v>0.03464215087837072</v>
+        <v>0.0421407667666827</v>
       </c>
       <c r="K11">
-        <v>0.00220162911999223</v>
+        <v>0.002968783000930037</v>
       </c>
       <c r="L11">
-        <v>0.02035218804951409</v>
+        <v>0.02088456533216508</v>
       </c>
       <c r="M11">
-        <v>0.0002599423330596716</v>
+        <v>0.0003024705119679542</v>
       </c>
       <c r="N11">
-        <v>2.976256635573968E-08</v>
+        <v>3.236197829341984E-08</v>
       </c>
       <c r="O11">
-        <v>4.732859104075303E-05</v>
+        <v>5.050228326155675E-05</v>
       </c>
       <c r="P11">
-        <v>0.0001194701798294081</v>
+        <v>0.0001251274050180749</v>
       </c>
       <c r="Q11">
-        <v>0.0001236769289612746</v>
+        <v>0.0001294711476131838</v>
       </c>
       <c r="R11">
-        <v>0.0001758711227583143</v>
+        <v>0.0002207392825372745</v>
       </c>
       <c r="S11">
-        <v>3.169270669706932E-10</v>
+        <v>3.343011024297217E-10</v>
       </c>
       <c r="T11">
-        <v>7.201512753108759E-08</v>
+        <v>7.91768743761724E-08</v>
       </c>
       <c r="U11">
-        <v>0.002907866088096503</v>
+        <v>0.0030458205727897</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001440246799850124</v>
+        <v>0.001440246804972307</v>
       </c>
       <c r="B12">
-        <v>0.6372168131591168</v>
+        <v>0.6372168138932609</v>
       </c>
       <c r="C12">
-        <v>0.07976703956667575</v>
+        <v>0.07976703979796793</v>
       </c>
       <c r="D12">
-        <v>0.1062083050396376</v>
+        <v>0.1062083053401067</v>
       </c>
       <c r="E12">
-        <v>4.704536424329723</v>
+        <v>4.704536445280661</v>
       </c>
       <c r="F12">
-        <v>0.1437812386771699</v>
+        <v>0.1437812388610653</v>
       </c>
       <c r="G12">
-        <v>0.0002276075188615082</v>
+        <v>0.0002276075192459245</v>
       </c>
       <c r="H12">
-        <v>0.0001474222404165288</v>
+        <v>0.0001474222404167577</v>
       </c>
       <c r="I12">
-        <v>0.0768177592522131</v>
+        <v>0.07681775928046888</v>
       </c>
       <c r="J12">
-        <v>1.470723069243701</v>
+        <v>1.470723073294336</v>
       </c>
       <c r="K12">
-        <v>0.1171778795172912</v>
+        <v>0.1171778795271697</v>
       </c>
       <c r="L12">
-        <v>0.02330676203208322</v>
+        <v>0.02330676179500792</v>
       </c>
       <c r="M12">
-        <v>0.01675322751972945</v>
+        <v>0.01675322755197791</v>
       </c>
       <c r="N12">
-        <v>2.466677330355556E-07</v>
+        <v>2.466677331683354E-07</v>
       </c>
       <c r="O12">
-        <v>0.0006523257231049907</v>
+        <v>0.0006523257249917747</v>
       </c>
       <c r="P12">
-        <v>0.001241821653677368</v>
+        <v>0.001241821656611868</v>
       </c>
       <c r="Q12">
-        <v>0.001304905155531148</v>
+        <v>0.001304905158563109</v>
       </c>
       <c r="R12">
-        <v>0.00438351244165302</v>
+        <v>0.004383512444426994</v>
       </c>
       <c r="S12">
-        <v>2.737740841542281E-09</v>
+        <v>2.737740843659373E-09</v>
       </c>
       <c r="T12">
-        <v>1.603706678808896E-06</v>
+        <v>1.603706681701829E-06</v>
       </c>
       <c r="U12">
-        <v>0.04916392702183996</v>
+        <v>0.04916392708387297</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.002444220061416234</v>
+        <v>0.002444220071017033</v>
       </c>
       <c r="B13">
-        <v>0.9739013190959941</v>
+        <v>0.9739013211484931</v>
       </c>
       <c r="C13">
-        <v>0.1854003872341146</v>
+        <v>0.1854003876045837</v>
       </c>
       <c r="D13">
-        <v>0.2440385423213413</v>
+        <v>0.2440385428064109</v>
       </c>
       <c r="E13">
-        <v>6.91047505797578</v>
+        <v>6.910475091344327</v>
       </c>
       <c r="F13">
-        <v>0.274531496633281</v>
+        <v>0.2745314972013425</v>
       </c>
       <c r="G13">
-        <v>0.0004186046820069152</v>
+        <v>0.0004186046827884051</v>
       </c>
       <c r="H13">
-        <v>0.0001821500341543375</v>
+        <v>0.00018215003417596</v>
       </c>
       <c r="I13">
-        <v>0.1081739508533905</v>
+        <v>0.1081739510348234</v>
       </c>
       <c r="J13">
-        <v>3.491392298261293</v>
+        <v>3.491392304852433</v>
       </c>
       <c r="K13">
-        <v>0.2192466561766495</v>
+        <v>0.2192466562285853</v>
       </c>
       <c r="L13">
-        <v>0.03347840884598962</v>
+        <v>0.03347840897372488</v>
       </c>
       <c r="M13">
-        <v>0.02266609024242063</v>
+        <v>0.02266609032177674</v>
       </c>
       <c r="N13">
-        <v>3.870600221588297E-07</v>
+        <v>3.870600225313501E-07</v>
       </c>
       <c r="O13">
-        <v>0.00106486419077812</v>
+        <v>0.001064864194553824</v>
       </c>
       <c r="P13">
-        <v>0.002034292521047693</v>
+        <v>0.002034292527809086</v>
       </c>
       <c r="Q13">
-        <v>0.002146172392014676</v>
+        <v>0.002146172399380587</v>
       </c>
       <c r="R13">
-        <v>0.007903181996527075</v>
+        <v>0.007903182004017396</v>
       </c>
       <c r="S13">
-        <v>4.33301638764379E-09</v>
+        <v>4.333016398723898E-09</v>
       </c>
       <c r="T13">
-        <v>2.749860953451761E-06</v>
+        <v>2.749860959857216E-06</v>
       </c>
       <c r="U13">
-        <v>0.0902982141896591</v>
+        <v>0.09029821439721664</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.001686106075439179</v>
+        <v>0.001686106082253855</v>
       </c>
       <c r="B14">
-        <v>0.7234643996820215</v>
+        <v>0.7234644006404126</v>
       </c>
       <c r="C14">
-        <v>0.08197067947394941</v>
+        <v>0.08197067979199336</v>
       </c>
       <c r="D14">
-        <v>0.1099897078224611</v>
+        <v>0.1099897082350404</v>
       </c>
       <c r="E14">
-        <v>6.196947013749856</v>
+        <v>6.196947043310128</v>
       </c>
       <c r="F14">
-        <v>0.1707507600325125</v>
+        <v>0.170750760278951</v>
       </c>
       <c r="G14">
-        <v>0.0002375871835772541</v>
+        <v>0.0002375871840972313</v>
       </c>
       <c r="H14">
-        <v>0.0001500038624325077</v>
+        <v>0.0001500038624438931</v>
       </c>
       <c r="I14">
-        <v>0.08282905521516445</v>
+        <v>0.08282905536715685</v>
       </c>
       <c r="J14">
-        <v>1.537275080467904</v>
+        <v>1.537275085899429</v>
       </c>
       <c r="K14">
-        <v>0.120575545548381</v>
+        <v>0.1205755455684466</v>
       </c>
       <c r="L14">
-        <v>0.02749938386800692</v>
+        <v>0.02749938343749142</v>
       </c>
       <c r="M14">
-        <v>0.01875526241746621</v>
+        <v>0.01875526246977449</v>
       </c>
       <c r="N14">
-        <v>2.680698747128363E-07</v>
+        <v>2.680698749166532E-07</v>
       </c>
       <c r="O14">
-        <v>0.0007603305374923681</v>
+        <v>0.0007603305400769092</v>
       </c>
       <c r="P14">
-        <v>0.001699001823499839</v>
+        <v>0.001699001827139272</v>
       </c>
       <c r="Q14">
-        <v>0.00178117812823129</v>
+        <v>0.001781178132015026</v>
       </c>
       <c r="R14">
-        <v>0.004581041618619011</v>
+        <v>0.004581041623443297</v>
       </c>
       <c r="S14">
-        <v>3.155684566781403E-09</v>
+        <v>3.155684568525825E-09</v>
       </c>
       <c r="T14">
-        <v>1.787673269185691E-06</v>
+        <v>1.787673273456094E-06</v>
       </c>
       <c r="U14">
-        <v>0.06068961060402192</v>
+        <v>0.06068961068935239</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.007452921297512883</v>
+        <v>0.007452921304432396</v>
       </c>
       <c r="B15">
-        <v>0.8011559346163203</v>
+        <v>0.8011559359015941</v>
       </c>
       <c r="C15">
-        <v>12.43630401824598</v>
+        <v>12.43630401850372</v>
       </c>
       <c r="D15">
-        <v>14.87577718659232</v>
+        <v>14.87577718692946</v>
       </c>
       <c r="E15">
-        <v>50.85425527148356</v>
+        <v>50.85425529380193</v>
       </c>
       <c r="F15">
-        <v>0.1854203260860908</v>
+        <v>0.1854203264230045</v>
       </c>
       <c r="G15">
-        <v>0.0007846963250213256</v>
+        <v>0.0007846963256112298</v>
       </c>
       <c r="H15">
-        <v>2.672176876148308E-05</v>
+        <v>2.67217688328648E-05</v>
       </c>
       <c r="I15">
-        <v>0.08330189526295868</v>
+        <v>0.08330189570277592</v>
       </c>
       <c r="J15">
-        <v>10.16158250083405</v>
+        <v>10.16158250485277</v>
       </c>
       <c r="K15">
-        <v>0.05957553278221409</v>
+        <v>0.05957553282374088</v>
       </c>
       <c r="L15">
-        <v>0.04563348846565283</v>
+        <v>0.04563348860921154</v>
       </c>
       <c r="M15">
-        <v>0.03221521096353842</v>
+        <v>0.03221521110513953</v>
       </c>
       <c r="N15">
-        <v>2.917508603776227E-07</v>
+        <v>2.917508606939542E-07</v>
       </c>
       <c r="O15">
-        <v>0.002654052224792672</v>
+        <v>0.002654052227708405</v>
       </c>
       <c r="P15">
-        <v>0.002240654458027473</v>
+        <v>0.002240654461888078</v>
       </c>
       <c r="Q15">
-        <v>0.002328867458743875</v>
+        <v>0.002328867462966797</v>
       </c>
       <c r="R15">
-        <v>0.005490033562644729</v>
+        <v>0.005490033572079439</v>
       </c>
       <c r="S15">
-        <v>1.579819142260294E-08</v>
+        <v>1.579819143035219E-08</v>
       </c>
       <c r="T15">
-        <v>5.01872774982774E-06</v>
+        <v>5.018727755253978E-06</v>
       </c>
       <c r="U15">
-        <v>0.06163244723458522</v>
+        <v>0.06163244736782188</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.000180096319435344</v>
+        <v>0.0001665626001791726</v>
       </c>
       <c r="B16">
-        <v>0.05946456378989902</v>
+        <v>0.06417485311536184</v>
       </c>
       <c r="C16">
-        <v>0.003280486581495939</v>
+        <v>0.003148154729057589</v>
       </c>
       <c r="D16">
-        <v>0.004459450176202532</v>
+        <v>0.00424301402837992</v>
       </c>
       <c r="E16">
-        <v>0.2154058138545397</v>
+        <v>0.1787814608957422</v>
       </c>
       <c r="F16">
-        <v>0.01472402577141803</v>
+        <v>0.01427287304758992</v>
       </c>
       <c r="G16">
-        <v>7.501696676712837E-06</v>
+        <v>7.732679479250932E-06</v>
       </c>
       <c r="H16">
-        <v>2.429200857741975E-05</v>
+        <v>1.440669531904714E-05</v>
       </c>
       <c r="I16">
-        <v>0.004801345269650736</v>
+        <v>0.004894198531259394</v>
       </c>
       <c r="J16">
-        <v>0.08067776228336368</v>
+        <v>0.0664991462317483</v>
       </c>
       <c r="K16">
-        <v>0.0009118517054251518</v>
+        <v>0.002360122247392997</v>
       </c>
       <c r="L16">
-        <v>0.0008546996261153795</v>
+        <v>0.0008281552030719898</v>
       </c>
       <c r="M16">
-        <v>0.00162807239993927</v>
+        <v>0.001651304003949861</v>
       </c>
       <c r="N16">
-        <v>3.438117367886066E-08</v>
+        <v>3.992359752531558E-08</v>
       </c>
       <c r="O16">
-        <v>0.0001129354183801775</v>
+        <v>7.762011502155323E-05</v>
       </c>
       <c r="P16">
-        <v>0.0003028718466702364</v>
+        <v>0.0002904709228138738</v>
       </c>
       <c r="Q16">
-        <v>0.0003203858427921817</v>
+        <v>0.000308026800432875</v>
       </c>
       <c r="R16">
-        <v>0.0001155305609737395</v>
+        <v>0.0001380484619632011</v>
       </c>
       <c r="S16">
-        <v>2.638945155832251E-10</v>
+        <v>2.719825396997373E-10</v>
       </c>
       <c r="T16">
-        <v>1.610902829220796E-07</v>
+        <v>1.403803775040984E-07</v>
       </c>
       <c r="U16">
-        <v>0.00600146804805595</v>
+        <v>0.006057706555414479</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002703665012614757</v>
+        <v>0.0001800963173772835</v>
       </c>
       <c r="B17">
-        <v>-2.372651841953287</v>
+        <v>0.05946456358702724</v>
       </c>
       <c r="C17">
-        <v>-0.1200802839387673</v>
+        <v>0.003280486510972439</v>
       </c>
       <c r="D17">
-        <v>-0.1599095142712253</v>
+        <v>0.004459450085601693</v>
       </c>
       <c r="E17">
-        <v>-1.263153882896125</v>
+        <v>0.2154058082342934</v>
       </c>
       <c r="F17">
-        <v>-0.00784279117372897</v>
+        <v>0.01472402572452236</v>
       </c>
       <c r="G17">
-        <v>-5.136435266707025E-06</v>
+        <v>7.501696565236472E-06</v>
       </c>
       <c r="H17">
-        <v>-2.141437715141415E-05</v>
+        <v>2.429200855753841E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399076783167066</v>
+        <v>0.004801345051083624</v>
       </c>
       <c r="J17">
-        <v>-2.349318089339379</v>
+        <v>0.0806777613616655</v>
       </c>
       <c r="K17">
-        <v>-0.001041090796553842</v>
+        <v>0.0009118517203525467</v>
       </c>
       <c r="L17">
-        <v>-0.000541400445510487</v>
+        <v>0.0008546993722424607</v>
       </c>
       <c r="M17">
-        <v>-0.00168238551176853</v>
+        <v>0.001628072350398133</v>
       </c>
       <c r="N17">
-        <v>-1.016975884476675E-06</v>
+        <v>3.438117357288224E-08</v>
       </c>
       <c r="O17">
-        <v>-9.103762044908426E-05</v>
+        <v>0.0001129354173113004</v>
       </c>
       <c r="P17">
-        <v>-0.0006013723820613333</v>
+        <v>0.0003028718456451616</v>
       </c>
       <c r="Q17">
-        <v>-0.0006054442887208452</v>
+        <v>0.0003203858417963027</v>
       </c>
       <c r="R17">
-        <v>-0.00372239116330273</v>
+        <v>0.0001155305567348192</v>
       </c>
       <c r="S17">
-        <v>-6.901632087226194E-09</v>
+        <v>2.638945119999803E-10</v>
       </c>
       <c r="T17">
-        <v>-2.884030311196038E-06</v>
+        <v>1.610902811160363E-07</v>
       </c>
       <c r="U17">
-        <v>-0.003060162418717863</v>
+        <v>0.006001468034724432</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0001926107897212973</v>
+        <v>-0.0002703665012480702</v>
       </c>
       <c r="B18">
-        <v>-3.020232371464862</v>
+        <v>-2.372651841944999</v>
       </c>
       <c r="C18">
-        <v>-0.1585580381598226</v>
+        <v>-0.1200802839395092</v>
       </c>
       <c r="D18">
-        <v>-0.2295974278221691</v>
+        <v>-0.1599095142720314</v>
       </c>
       <c r="E18">
-        <v>-8.832198442559299</v>
+        <v>-1.263153882844763</v>
       </c>
       <c r="F18">
-        <v>-0.004982771813580569</v>
+        <v>-0.00784279117289428</v>
       </c>
       <c r="G18">
-        <v>-2.600694359732868E-06</v>
+        <v>-5.136435263347077E-06</v>
       </c>
       <c r="H18">
-        <v>-4.712967503471203E-06</v>
+        <v>-2.141437715087163E-05</v>
       </c>
       <c r="I18">
-        <v>-0.009844745974671323</v>
+        <v>-0.02399076781156646</v>
       </c>
       <c r="J18">
-        <v>-1.917227264428579</v>
+        <v>-2.349318089360443</v>
       </c>
       <c r="K18">
-        <v>-0.0004261772004485223</v>
+        <v>-0.001041090795874953</v>
       </c>
       <c r="L18">
-        <v>-0.0002952296330230795</v>
+        <v>-0.0005414004402980756</v>
       </c>
       <c r="M18">
-        <v>-0.001009659059049594</v>
+        <v>-0.001682385508718667</v>
       </c>
       <c r="N18">
-        <v>-2.203428893528792E-07</v>
+        <v>-1.016975884472829E-06</v>
       </c>
       <c r="O18">
-        <v>-6.324301926179527E-05</v>
+        <v>-9.103762041800192E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004640577322180428</v>
+        <v>-0.0006013723820286275</v>
       </c>
       <c r="Q18">
-        <v>-0.0004665276037224568</v>
+        <v>-0.000605444288692634</v>
       </c>
       <c r="R18">
-        <v>-0.001527602343543212</v>
+        <v>-0.003722391163206866</v>
       </c>
       <c r="S18">
-        <v>-8.797267534584834E-09</v>
+        <v>-6.901632087147999E-09</v>
       </c>
       <c r="T18">
-        <v>-3.316482484772724E-06</v>
+        <v>-2.884030311106604E-06</v>
       </c>
       <c r="U18">
-        <v>-0.001920371176203873</v>
+        <v>-0.003060162418436801</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001639086792878112</v>
+        <v>-0.0001926107895961572</v>
       </c>
       <c r="B19">
-        <v>-2.55088066816102</v>
+        <v>-3.020232371444754</v>
       </c>
       <c r="C19">
-        <v>-0.1339112701648152</v>
+        <v>-0.1585580381544423</v>
       </c>
       <c r="D19">
-        <v>-0.1939066745902733</v>
+        <v>-0.2295974278150845</v>
       </c>
       <c r="E19">
-        <v>-7.460027110401506</v>
+        <v>-8.832198441950514</v>
       </c>
       <c r="F19">
-        <v>-0.004342334980273354</v>
+        <v>-0.00498277180919643</v>
       </c>
       <c r="G19">
-        <v>-2.366434652965611E-06</v>
+        <v>-2.600694347398834E-06</v>
       </c>
       <c r="H19">
-        <v>-4.000192104587586E-06</v>
+        <v>-4.71296750259093E-06</v>
       </c>
       <c r="I19">
-        <v>-0.008617201789286572</v>
+        <v>-0.009844745955195298</v>
       </c>
       <c r="J19">
-        <v>-1.619220927655206</v>
+        <v>-1.917227264349378</v>
       </c>
       <c r="K19">
-        <v>-0.0003756151457224608</v>
+        <v>-0.0004261771991730424</v>
       </c>
       <c r="L19">
-        <v>-0.0002616834048422939</v>
+        <v>-0.0002952296275902998</v>
       </c>
       <c r="M19">
-        <v>-0.0009631102682630724</v>
+        <v>-0.00100965905627125</v>
       </c>
       <c r="N19">
-        <v>-1.861432755534356E-07</v>
+        <v>-2.203428893462114E-07</v>
       </c>
       <c r="O19">
-        <v>-5.508284460730452E-05</v>
+        <v>-6.324301919446182E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0003933495481578215</v>
+        <v>-0.0004640577321477693</v>
       </c>
       <c r="Q19">
-        <v>-0.0003955901472785586</v>
+        <v>-0.0004665276036527544</v>
       </c>
       <c r="R19">
-        <v>-0.0014494660837886</v>
+        <v>-0.001527602343385386</v>
       </c>
       <c r="S19">
-        <v>-7.43083473978585E-09</v>
+        <v>-8.797267534425082E-09</v>
       </c>
       <c r="T19">
-        <v>-2.80348565209001E-06</v>
+        <v>-3.316482484628596E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001684653516407921</v>
+        <v>-0.001920371174757131</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001395958797221734</v>
+        <v>-0.00016390867916263</v>
       </c>
       <c r="B20">
-        <v>-0.7560797520653713</v>
+        <v>-2.550880668140064</v>
       </c>
       <c r="C20">
-        <v>-0.01826306655693495</v>
+        <v>-0.1339112701593011</v>
       </c>
       <c r="D20">
-        <v>-0.02424443910904609</v>
+        <v>-0.1939066745830324</v>
       </c>
       <c r="E20">
-        <v>-0.1419770780107587</v>
+        <v>-7.46002710981804</v>
       </c>
       <c r="F20">
-        <v>-0.02676679743193339</v>
+        <v>-0.00434233497549584</v>
       </c>
       <c r="G20">
-        <v>-9.553340623944157E-06</v>
+        <v>-2.366434640512027E-06</v>
       </c>
       <c r="H20">
-        <v>-0.0002332124981844386</v>
+        <v>-4.000192103690845E-06</v>
       </c>
       <c r="I20">
-        <v>-0.006439796938679598</v>
+        <v>-0.008617201772019998</v>
       </c>
       <c r="J20">
-        <v>-0.4334910784862847</v>
+        <v>-1.619220927572738</v>
       </c>
       <c r="K20">
-        <v>-0.001813180600342777</v>
+        <v>-0.0003756151444214481</v>
       </c>
       <c r="L20">
-        <v>-0.0007497014126038408</v>
+        <v>-0.0002616833959600743</v>
       </c>
       <c r="M20">
-        <v>-0.002686348883331665</v>
+        <v>-0.0009631102656956993</v>
       </c>
       <c r="N20">
-        <v>-1.16733137479299E-05</v>
+        <v>-1.861432755464934E-07</v>
       </c>
       <c r="O20">
-        <v>-0.000437471857068633</v>
+        <v>-5.508284454237924E-05</v>
       </c>
       <c r="P20">
-        <v>-0.003155472649310552</v>
+        <v>-0.0003933495480869728</v>
       </c>
       <c r="Q20">
-        <v>-0.003166045751773025</v>
+        <v>-0.0003955901472069691</v>
       </c>
       <c r="R20">
-        <v>-0.002119597161412283</v>
+        <v>-0.001449466083628071</v>
       </c>
       <c r="S20">
-        <v>-2.851281866747921E-09</v>
+        <v>-7.430834739592966E-09</v>
       </c>
       <c r="T20">
-        <v>-1.111285649647058E-06</v>
+        <v>-2.803485651953204E-06</v>
       </c>
       <c r="U20">
-        <v>-0.009781148778634775</v>
+        <v>-0.001684653514786829</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001243276863723447</v>
+        <v>-0.001395958797155795</v>
       </c>
       <c r="B21">
-        <v>0.02863769586525965</v>
+        <v>-0.7560797520469889</v>
       </c>
       <c r="C21">
-        <v>0.001085950372486286</v>
+        <v>-0.01826306655101297</v>
       </c>
       <c r="D21">
-        <v>0.001203462702779423</v>
+        <v>-0.02424443910148172</v>
       </c>
       <c r="E21">
-        <v>0.0702801528343522</v>
+        <v>-0.1419770772946593</v>
       </c>
       <c r="F21">
-        <v>0.01613015404281799</v>
+        <v>-0.026766797425004</v>
       </c>
       <c r="G21">
-        <v>1.042370418099545E-05</v>
+        <v>-9.553340613841936E-06</v>
       </c>
       <c r="H21">
-        <v>4.367342421720804E-05</v>
+        <v>-0.0002332124981832169</v>
       </c>
       <c r="I21">
-        <v>0.001138779899783023</v>
+        <v>-0.006439796926237776</v>
       </c>
       <c r="J21">
-        <v>0.02180390557904579</v>
+        <v>-0.4334910784114571</v>
       </c>
       <c r="K21">
-        <v>0.001614134321835049</v>
+        <v>-0.001813180601137236</v>
       </c>
       <c r="L21">
-        <v>0.006308440117743036</v>
+        <v>-0.0007497014247909419</v>
       </c>
       <c r="M21">
-        <v>0.0002176138608191709</v>
+        <v>-0.002686348879662826</v>
       </c>
       <c r="N21">
-        <v>5.338596178957186E-08</v>
+        <v>-1.167331374792677E-05</v>
       </c>
       <c r="O21">
-        <v>3.815966441699809E-05</v>
+        <v>-0.000437471857029632</v>
       </c>
       <c r="P21">
-        <v>0.0005466381236304504</v>
+        <v>-0.003155472649231046</v>
       </c>
       <c r="Q21">
-        <v>0.0008454525270618258</v>
+        <v>-0.003166045751682266</v>
       </c>
       <c r="R21">
-        <v>0.004763877567086902</v>
+        <v>-0.00211959716135587</v>
       </c>
       <c r="S21">
-        <v>2.803087478346289E-10</v>
+        <v>-2.851281866759122E-09</v>
       </c>
       <c r="T21">
-        <v>7.042486359747278E-08</v>
+        <v>-1.111285649546959E-06</v>
       </c>
       <c r="U21">
-        <v>0.006196128874857361</v>
+        <v>-0.009781148775219604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22">
+        <v>0.0001243276865925544</v>
+      </c>
+      <c r="B22">
+        <v>0.02863769590598792</v>
+      </c>
+      <c r="C22">
+        <v>0.001085950379681219</v>
+      </c>
+      <c r="D22">
+        <v>0.001203462712244322</v>
+      </c>
+      <c r="E22">
+        <v>0.07028015360566205</v>
+      </c>
+      <c r="F22">
+        <v>0.01613015405265448</v>
+      </c>
+      <c r="G22">
+        <v>1.04237041971031E-05</v>
+      </c>
+      <c r="H22">
+        <v>4.367342421851043E-05</v>
+      </c>
+      <c r="I22">
+        <v>0.001138779912046702</v>
+      </c>
+      <c r="J22">
+        <v>0.02180390571139957</v>
+      </c>
+      <c r="K22">
+        <v>0.001614134322437935</v>
+      </c>
+      <c r="L22">
+        <v>0.006308440118217933</v>
+      </c>
+      <c r="M22">
+        <v>0.0002176138634578097</v>
+      </c>
+      <c r="N22">
+        <v>5.338596180084148E-08</v>
+      </c>
+      <c r="O22">
+        <v>3.815966451800494E-05</v>
+      </c>
+      <c r="P22">
+        <v>0.0005466381237905339</v>
+      </c>
+      <c r="Q22">
+        <v>0.0008454525272293004</v>
+      </c>
+      <c r="R22">
+        <v>0.004763877567341813</v>
+      </c>
+      <c r="S22">
+        <v>2.803087480467609E-10</v>
+      </c>
+      <c r="T22">
+        <v>7.042486377035946E-08</v>
+      </c>
+      <c r="U22">
+        <v>0.006196128878438551</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -507,1367 +507,1367 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.000717285822073984</v>
+        <v>0.0007172858218313292</v>
       </c>
       <c r="B2">
-        <v>0.2476010127049158</v>
+        <v>0.2476010126911955</v>
       </c>
       <c r="C2">
-        <v>0.007638919643349559</v>
+        <v>0.00763891962301754</v>
       </c>
       <c r="D2">
-        <v>0.01007273941998863</v>
+        <v>0.01007273939412592</v>
       </c>
       <c r="E2">
-        <v>0.6735796774574083</v>
+        <v>0.6735796754162288</v>
       </c>
       <c r="F2">
-        <v>0.149743328941828</v>
+        <v>0.1497433289353224</v>
       </c>
       <c r="G2">
-        <v>5.476664507749736E-05</v>
+        <v>5.476664506024624E-05</v>
       </c>
       <c r="H2">
-        <v>7.737268587160864E-06</v>
+        <v>7.737268587587274E-06</v>
       </c>
       <c r="I2">
-        <v>0.009802520075714522</v>
+        <v>0.009802520110312482</v>
       </c>
       <c r="J2">
-        <v>0.1526597169823759</v>
+        <v>0.152659716639029</v>
       </c>
       <c r="K2">
-        <v>0.01108799457601747</v>
+        <v>0.01108799457801528</v>
       </c>
       <c r="L2">
-        <v>0.004108042020145753</v>
+        <v>0.00410804202821325</v>
       </c>
       <c r="M2">
-        <v>0.002434545175767611</v>
+        <v>0.002434545186025267</v>
       </c>
       <c r="N2">
-        <v>4.65614584355328E-08</v>
+        <v>4.656145843700213E-08</v>
       </c>
       <c r="O2">
-        <v>0.0003086847793968818</v>
+        <v>0.0003086847793396875</v>
       </c>
       <c r="P2">
-        <v>0.000581295618231238</v>
+        <v>0.0005812956182000259</v>
       </c>
       <c r="Q2">
-        <v>0.0006158725335396966</v>
+        <v>0.000615872533492754</v>
       </c>
       <c r="R2">
-        <v>0.002000869314090184</v>
+        <v>0.002000869314300273</v>
       </c>
       <c r="S2">
-        <v>1.012221229769225E-09</v>
+        <v>1.01222122969331E-09</v>
       </c>
       <c r="T2">
-        <v>4.961592799958188E-07</v>
+        <v>4.961592799842444E-07</v>
       </c>
       <c r="U2">
-        <v>0.05715518801149502</v>
+        <v>0.05715518801017808</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002052429300185033</v>
+        <v>0.002052429301171659</v>
       </c>
       <c r="B3">
-        <v>0.7085726050600442</v>
+        <v>0.708572605151076</v>
       </c>
       <c r="C3">
-        <v>0.02185264061014</v>
+        <v>0.02185264070391627</v>
       </c>
       <c r="D3">
-        <v>0.02881605938731101</v>
+        <v>0.02881605950563562</v>
       </c>
       <c r="E3">
-        <v>1.92602184104226</v>
+        <v>1.926021849099848</v>
       </c>
       <c r="F3">
-        <v>0.428408511775361</v>
+        <v>0.4284085117938134</v>
       </c>
       <c r="G3">
-        <v>0.0001570287132891481</v>
+        <v>0.0001570287133964959</v>
       </c>
       <c r="H3">
-        <v>2.241806636872244E-05</v>
+        <v>2.241806638287417E-05</v>
       </c>
       <c r="I3">
-        <v>0.02806666519360916</v>
+        <v>0.02806666519047893</v>
       </c>
       <c r="J3">
-        <v>0.4371104054515319</v>
+        <v>0.4371104065806726</v>
       </c>
       <c r="K3">
-        <v>0.03189183542762093</v>
+        <v>0.0318918354564018</v>
       </c>
       <c r="L3">
-        <v>0.01197444742304666</v>
+        <v>0.01197444770458451</v>
       </c>
       <c r="M3">
-        <v>0.006964031643006453</v>
+        <v>0.006964031634804708</v>
       </c>
       <c r="N3">
-        <v>1.335684927581652E-07</v>
+        <v>1.335684928308047E-07</v>
       </c>
       <c r="O3">
-        <v>0.0008831184136332457</v>
+        <v>0.0008831184140795189</v>
       </c>
       <c r="P3">
-        <v>0.001663931910604501</v>
+        <v>0.001663931910582345</v>
       </c>
       <c r="Q3">
-        <v>0.001763208261808474</v>
+        <v>0.001763208261818057</v>
       </c>
       <c r="R3">
-        <v>0.005758781211245484</v>
+        <v>0.005758781212378747</v>
       </c>
       <c r="S3">
-        <v>2.898876273542128E-09</v>
+        <v>2.898876276747711E-09</v>
       </c>
       <c r="T3">
-        <v>1.419896832125682E-06</v>
+        <v>1.419896832740202E-06</v>
       </c>
       <c r="U3">
-        <v>0.163507349081575</v>
+        <v>0.1635073490850754</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.2926121465778755</v>
+        <v>0.2926121467208578</v>
       </c>
       <c r="B4">
-        <v>67.60476018155245</v>
+        <v>67.60476021964361</v>
       </c>
       <c r="C4">
-        <v>5.628516445976704</v>
+        <v>5.628516449607375</v>
       </c>
       <c r="D4">
-        <v>7.147256915454436</v>
+        <v>7.147256920142987</v>
       </c>
       <c r="E4">
-        <v>165.7995225761766</v>
+        <v>165.7995226905459</v>
       </c>
       <c r="F4">
-        <v>15.3459352051772</v>
+        <v>15.34593521628001</v>
       </c>
       <c r="G4">
-        <v>0.02516519706616504</v>
+        <v>0.02516519707631416</v>
       </c>
       <c r="H4">
-        <v>0.002877731852249751</v>
+        <v>0.002877731854685518</v>
       </c>
       <c r="I4">
-        <v>11.81339519184716</v>
+        <v>11.81339522112455</v>
       </c>
       <c r="J4">
-        <v>74.48885137407952</v>
+        <v>74.48885138471918</v>
       </c>
       <c r="K4">
-        <v>4.842772612601845</v>
+        <v>4.842772613236815</v>
       </c>
       <c r="L4">
-        <v>1.31817131650959</v>
+        <v>1.318171330488651</v>
       </c>
       <c r="M4">
-        <v>1.113191241882717</v>
+        <v>1.113191250256393</v>
       </c>
       <c r="N4">
-        <v>1.666525698815092E-05</v>
+        <v>1.666525699553844E-05</v>
       </c>
       <c r="O4">
-        <v>0.1267996991031374</v>
+        <v>0.1267996991710347</v>
       </c>
       <c r="P4">
-        <v>0.169657594639666</v>
+        <v>0.1696575947408195</v>
       </c>
       <c r="Q4">
-        <v>0.1732763346256601</v>
+        <v>0.1732763347416874</v>
       </c>
       <c r="R4">
-        <v>0.6963203626528149</v>
+        <v>0.6963203630473959</v>
       </c>
       <c r="S4">
-        <v>3.088258367868882E-07</v>
+        <v>3.088258370740609E-07</v>
       </c>
       <c r="T4">
-        <v>0.0002003468455782229</v>
+        <v>0.0002003468457568439</v>
       </c>
       <c r="U4">
-        <v>3.383806310909824</v>
+        <v>3.383806316254089</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.1744351750350207</v>
+        <v>0.1744351751057815</v>
       </c>
       <c r="B5">
-        <v>40.26300473220532</v>
+        <v>40.26300475043907</v>
       </c>
       <c r="C5">
-        <v>3.358309979029481</v>
+        <v>3.358309980036545</v>
       </c>
       <c r="D5">
-        <v>4.264337908577596</v>
+        <v>4.264337909889871</v>
       </c>
       <c r="E5">
-        <v>98.63498053815692</v>
+        <v>98.63498050979392</v>
       </c>
       <c r="F5">
-        <v>9.104724231405857</v>
+        <v>9.104724237742364</v>
       </c>
       <c r="G5">
-        <v>0.01499755926697738</v>
+        <v>0.01499755927162363</v>
       </c>
       <c r="H5">
-        <v>0.001713004359293499</v>
+        <v>0.001713004360699884</v>
       </c>
       <c r="I5">
-        <v>7.052533279977734</v>
+        <v>7.052533296972872</v>
       </c>
       <c r="J5">
-        <v>44.38572163538614</v>
+        <v>44.38572162622577</v>
       </c>
       <c r="K5">
-        <v>2.88519417036441</v>
+        <v>2.885194170789707</v>
       </c>
       <c r="L5">
-        <v>0.7858005422392398</v>
+        <v>0.785800546960736</v>
       </c>
       <c r="M5">
-        <v>0.6616361132001086</v>
+        <v>0.6616361181824033</v>
       </c>
       <c r="N5">
-        <v>9.920714377058976E-06</v>
+        <v>9.920714380820888E-06</v>
       </c>
       <c r="O5">
-        <v>0.07557572172046402</v>
+        <v>0.07557572175566296</v>
       </c>
       <c r="P5">
-        <v>0.1010804644681376</v>
+        <v>0.1010804645259834</v>
       </c>
       <c r="Q5">
-        <v>0.1032192730394716</v>
+        <v>0.1032192731061271</v>
       </c>
       <c r="R5">
-        <v>0.4135629686537948</v>
+        <v>0.4135629688821451</v>
       </c>
       <c r="S5">
-        <v>1.839808551410032E-07</v>
+        <v>1.839808552611986E-07</v>
       </c>
       <c r="T5">
-        <v>0.0001194149021843196</v>
+        <v>0.000119414902278263</v>
       </c>
       <c r="U5">
-        <v>1.99869732210117</v>
+        <v>1.998697325218832</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.009221070648572697</v>
+        <v>0.009221071061273714</v>
       </c>
       <c r="B6">
-        <v>2.613780851731164</v>
+        <v>2.613780910720725</v>
       </c>
       <c r="C6">
-        <v>0.5237057365757175</v>
+        <v>0.5237057564099696</v>
       </c>
       <c r="D6">
-        <v>0.6594677111125826</v>
+        <v>0.6594677366721672</v>
       </c>
       <c r="E6">
-        <v>27.28412664441876</v>
+        <v>27.28412830543612</v>
       </c>
       <c r="F6">
-        <v>0.6726728441473374</v>
+        <v>0.6726728587052417</v>
       </c>
       <c r="G6">
-        <v>0.00255828903112697</v>
+        <v>0.002558289063884285</v>
       </c>
       <c r="H6">
-        <v>0.001769465488343716</v>
+        <v>0.001769465491352865</v>
       </c>
       <c r="I6">
-        <v>0.2443130783962033</v>
+        <v>0.2443130990061531</v>
       </c>
       <c r="J6">
-        <v>7.4180879356065</v>
+        <v>7.418088225578911</v>
       </c>
       <c r="K6">
-        <v>0.719475848910666</v>
+        <v>0.7194758506022259</v>
       </c>
       <c r="L6">
-        <v>0.4853171331126638</v>
+        <v>0.485317146609793</v>
       </c>
       <c r="M6">
-        <v>0.05620282347957235</v>
+        <v>0.05620283124161018</v>
       </c>
       <c r="N6">
-        <v>2.905570428457461E-06</v>
+        <v>2.905570443664557E-06</v>
       </c>
       <c r="O6">
-        <v>0.003190112372468144</v>
+        <v>0.003190112521825602</v>
       </c>
       <c r="P6">
-        <v>0.005521833503995882</v>
+        <v>0.005521833707394634</v>
       </c>
       <c r="Q6">
-        <v>0.00566018565660567</v>
+        <v>0.005660185872762544</v>
       </c>
       <c r="R6">
-        <v>0.04791135570585944</v>
+        <v>0.04791135613241231</v>
       </c>
       <c r="S6">
-        <v>1.676798328474637E-08</v>
+        <v>1.676798374244447E-08</v>
       </c>
       <c r="T6">
-        <v>7.051189725585081E-06</v>
+        <v>7.051190009844453E-06</v>
       </c>
       <c r="U6">
-        <v>0.1411066799004605</v>
+        <v>0.1411066860477284</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02530154829856895</v>
+        <v>0.02530154833671564</v>
       </c>
       <c r="B7">
-        <v>5.804199975220341</v>
+        <v>5.804199981043449</v>
       </c>
       <c r="C7">
-        <v>3.252090702501102</v>
+        <v>3.252090704786711</v>
       </c>
       <c r="D7">
-        <v>3.926635959846382</v>
+        <v>3.926635962793291</v>
       </c>
       <c r="E7">
-        <v>13.22407592276414</v>
+        <v>13.22407611923437</v>
       </c>
       <c r="F7">
-        <v>1.237341574323509</v>
+        <v>1.237341575631696</v>
       </c>
       <c r="G7">
-        <v>0.001834956716542793</v>
+        <v>0.001834956720319436</v>
       </c>
       <c r="H7">
-        <v>0.0001424809146065182</v>
+        <v>0.000142480914877148</v>
       </c>
       <c r="I7">
-        <v>1.104179391452043</v>
+        <v>1.104179394257516</v>
       </c>
       <c r="J7">
-        <v>9.089711836962303</v>
+        <v>9.08971186975492</v>
       </c>
       <c r="K7">
-        <v>0.1135132795308761</v>
+        <v>0.1135132797526222</v>
       </c>
       <c r="L7">
-        <v>0.07736411448265063</v>
+        <v>0.07736411615333627</v>
       </c>
       <c r="M7">
-        <v>0.1088357592029391</v>
+        <v>0.1088357599953336</v>
       </c>
       <c r="N7">
-        <v>1.481457687179921E-06</v>
+        <v>1.481457688588298E-06</v>
       </c>
       <c r="O7">
-        <v>0.01110264505982038</v>
+        <v>0.0111026450747728</v>
       </c>
       <c r="P7">
-        <v>0.01538134121671514</v>
+        <v>0.01538134123320818</v>
       </c>
       <c r="Q7">
-        <v>0.01563481718799101</v>
+        <v>0.01563481720548779</v>
       </c>
       <c r="R7">
-        <v>0.03521361397160153</v>
+        <v>0.03521361402195727</v>
       </c>
       <c r="S7">
-        <v>2.83654755486025E-08</v>
+        <v>2.836547559675106E-08</v>
       </c>
       <c r="T7">
-        <v>1.819359485923347E-05</v>
+        <v>1.819359489095024E-05</v>
       </c>
       <c r="U7">
-        <v>0.2638603431780548</v>
+        <v>0.2638603437112261</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.0005037847113081951</v>
+        <v>0.0005037847485883036</v>
       </c>
       <c r="B8">
-        <v>0.2084098652489746</v>
+        <v>0.208409870249309</v>
       </c>
       <c r="C8">
-        <v>0.01250017782651672</v>
+        <v>0.01250017970810395</v>
       </c>
       <c r="D8">
-        <v>0.01630201045288217</v>
+        <v>0.01630201287060264</v>
       </c>
       <c r="E8">
-        <v>0.6245136504247453</v>
+        <v>0.624513812523216</v>
       </c>
       <c r="F8">
-        <v>0.05471552585941118</v>
+        <v>0.05471552711106247</v>
       </c>
       <c r="G8">
-        <v>0.0001634954695762753</v>
+        <v>0.0001634954724798868</v>
       </c>
       <c r="H8">
-        <v>1.188510930961295E-05</v>
+        <v>1.188510953492059E-05</v>
       </c>
       <c r="I8">
-        <v>0.01662770163175291</v>
+        <v>0.01662770317150804</v>
       </c>
       <c r="J8">
-        <v>0.2947844719630262</v>
+        <v>0.2947844992244046</v>
       </c>
       <c r="K8">
-        <v>0.06328972154931427</v>
+        <v>0.063289721692847</v>
       </c>
       <c r="L8">
-        <v>0.04349396202732678</v>
+        <v>0.04349396284469132</v>
       </c>
       <c r="M8">
-        <v>0.00209643584726272</v>
+        <v>0.002096436423087906</v>
       </c>
       <c r="N8">
-        <v>2.09075066525828E-07</v>
+        <v>2.09075067825897E-07</v>
       </c>
       <c r="O8">
-        <v>0.0001699537360664994</v>
+        <v>0.0001699537497114625</v>
       </c>
       <c r="P8">
-        <v>0.000408989641478939</v>
+        <v>0.0004089896592515622</v>
       </c>
       <c r="Q8">
-        <v>0.0004182080162982915</v>
+        <v>0.0004182080351695425</v>
       </c>
       <c r="R8">
-        <v>0.003495028300723486</v>
+        <v>0.003495028334883439</v>
       </c>
       <c r="S8">
-        <v>1.257077506721761E-09</v>
+        <v>1.257077543669224E-09</v>
       </c>
       <c r="T8">
-        <v>4.31387251796307E-07</v>
+        <v>4.313872764295365E-07</v>
       </c>
       <c r="U8">
-        <v>0.01031957020105097</v>
+        <v>0.01031957071921155</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006303521150975214</v>
+        <v>0.006303521151216638</v>
       </c>
       <c r="B9">
-        <v>2.378755637346851</v>
+        <v>2.378755637033482</v>
       </c>
       <c r="C9">
-        <v>0.05408767061997893</v>
+        <v>0.05408767065837711</v>
       </c>
       <c r="D9">
-        <v>0.0720814643108168</v>
+        <v>0.07208146436244704</v>
       </c>
       <c r="E9">
-        <v>5.129597039837097</v>
+        <v>5.129597044332776</v>
       </c>
       <c r="F9">
-        <v>1.713173815043781</v>
+        <v>1.713173814929801</v>
       </c>
       <c r="G9">
-        <v>0.0003886539703598497</v>
+        <v>0.000388653970434841</v>
       </c>
       <c r="H9">
-        <v>3.880851508412491E-05</v>
+        <v>3.880851508091183E-05</v>
       </c>
       <c r="I9">
-        <v>0.08570471151666255</v>
+        <v>0.0857047115985947</v>
       </c>
       <c r="J9">
-        <v>1.151822911958387</v>
+        <v>1.151822912837072</v>
       </c>
       <c r="K9">
-        <v>0.04709684703113342</v>
+        <v>0.0470968470557128</v>
       </c>
       <c r="L9">
-        <v>0.01837651461671232</v>
+        <v>0.01837651474848189</v>
       </c>
       <c r="M9">
-        <v>0.02050259063826712</v>
+        <v>0.02050259064117762</v>
       </c>
       <c r="N9">
-        <v>2.695596546778646E-07</v>
+        <v>2.695596547042216E-07</v>
       </c>
       <c r="O9">
-        <v>0.002388588636900164</v>
+        <v>0.002388588636899256</v>
       </c>
       <c r="P9">
-        <v>0.004929617340548314</v>
+        <v>0.004929617339636251</v>
       </c>
       <c r="Q9">
-        <v>0.005278743536728193</v>
+        <v>0.005278743535555984</v>
       </c>
       <c r="R9">
-        <v>0.01752713856933262</v>
+        <v>0.01752713857011003</v>
       </c>
       <c r="S9">
-        <v>9.207598072814914E-09</v>
+        <v>9.20759807314057E-09</v>
       </c>
       <c r="T9">
-        <v>4.299010273885547E-06</v>
+        <v>4.299010274067598E-06</v>
       </c>
       <c r="U9">
-        <v>0.6788007263273615</v>
+        <v>0.6788007262781902</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.01162068804822315</v>
+        <v>0.01162068862056821</v>
       </c>
       <c r="B10">
-        <v>3.466886107365547</v>
+        <v>3.466886179356818</v>
       </c>
       <c r="C10">
-        <v>0.7086161641832104</v>
+        <v>0.7086161946843126</v>
       </c>
       <c r="D10">
-        <v>0.8912456066418757</v>
+        <v>0.8912456458418875</v>
       </c>
       <c r="E10">
-        <v>36.42125085496972</v>
+        <v>36.42125349477424</v>
       </c>
       <c r="F10">
-        <v>0.8974062246420504</v>
+        <v>0.8974062433235819</v>
       </c>
       <c r="G10">
-        <v>0.003207825005012909</v>
+        <v>0.003207825051692993</v>
       </c>
       <c r="H10">
-        <v>0.001413958187570511</v>
+        <v>0.001413958191065324</v>
       </c>
       <c r="I10">
-        <v>0.3160316704119533</v>
+        <v>0.316031692624819</v>
       </c>
       <c r="J10">
-        <v>9.502532153364111</v>
+        <v>9.502532601603793</v>
       </c>
       <c r="K10">
-        <v>0.9889259668761475</v>
+        <v>0.9889259695236678</v>
       </c>
       <c r="L10">
-        <v>0.6648528768323583</v>
+        <v>0.6648528943499574</v>
       </c>
       <c r="M10">
-        <v>0.05724204493406125</v>
+        <v>0.05724205351689676</v>
       </c>
       <c r="N10">
-        <v>3.638717799694638E-06</v>
+        <v>3.638717820199367E-06</v>
       </c>
       <c r="O10">
-        <v>0.00399774662459763</v>
+        <v>0.003997746824482971</v>
       </c>
       <c r="P10">
-        <v>0.007253941039422547</v>
+        <v>0.007253941294759243</v>
       </c>
       <c r="Q10">
-        <v>0.007432664579662583</v>
+        <v>0.007432664851969042</v>
       </c>
       <c r="R10">
-        <v>0.05870154914409529</v>
+        <v>0.05870154967256373</v>
       </c>
       <c r="S10">
-        <v>2.217736153727305E-08</v>
+        <v>2.217736213746053E-08</v>
       </c>
       <c r="T10">
-        <v>9.091799191905476E-06</v>
+        <v>9.091799561646357E-06</v>
       </c>
       <c r="U10">
-        <v>0.1818204827645303</v>
+        <v>0.1818204905597413</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001182622958222963</v>
+        <v>0.0001182622972644622</v>
       </c>
       <c r="B11">
-        <v>0.03461772762986059</v>
+        <v>0.03461772780936612</v>
       </c>
       <c r="C11">
-        <v>0.001739476049617164</v>
+        <v>0.001739476123306634</v>
       </c>
       <c r="D11">
-        <v>0.002274848360418705</v>
+        <v>0.0022748484553629</v>
       </c>
       <c r="E11">
-        <v>0.172708078227156</v>
+        <v>0.1727080846350935</v>
       </c>
       <c r="F11">
-        <v>0.009931553818339432</v>
+        <v>0.009931553863327667</v>
       </c>
       <c r="G11">
-        <v>1.041736731118785E-05</v>
+        <v>1.041736742835859E-05</v>
       </c>
       <c r="H11">
-        <v>9.033479415445073E-07</v>
+        <v>9.033479507755956E-07</v>
       </c>
       <c r="I11">
-        <v>0.001523289733508508</v>
+        <v>0.001523289796411274</v>
       </c>
       <c r="J11">
-        <v>0.0421407667666827</v>
+        <v>0.0421407678647274</v>
       </c>
       <c r="K11">
-        <v>0.002968783000930037</v>
+        <v>0.002968783007516144</v>
       </c>
       <c r="L11">
-        <v>0.02088456533216508</v>
+        <v>0.0208845653881734</v>
       </c>
       <c r="M11">
-        <v>0.0003024705119679542</v>
+        <v>0.0003024705326353438</v>
       </c>
       <c r="N11">
-        <v>3.236197829341984E-08</v>
+        <v>3.236197834421542E-08</v>
       </c>
       <c r="O11">
-        <v>5.050228326155675E-05</v>
+        <v>5.050228379072857E-05</v>
       </c>
       <c r="P11">
-        <v>0.0001251274050180749</v>
+        <v>0.0001251274056634778</v>
       </c>
       <c r="Q11">
-        <v>0.0001294711476131838</v>
+        <v>0.000129471148293346</v>
       </c>
       <c r="R11">
-        <v>0.0002207392825372745</v>
+        <v>0.0002207392838855741</v>
       </c>
       <c r="S11">
-        <v>3.343011024297217E-10</v>
+        <v>3.34301104035639E-10</v>
       </c>
       <c r="T11">
-        <v>7.91768743761724E-08</v>
+        <v>7.917687533803022E-08</v>
       </c>
       <c r="U11">
-        <v>0.0030458205727897</v>
+        <v>0.003045820590743514</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001440246804972307</v>
+        <v>0.001440246804052241</v>
       </c>
       <c r="B12">
-        <v>0.6372168138932609</v>
+        <v>0.6372168142525322</v>
       </c>
       <c r="C12">
-        <v>0.07976703979796793</v>
+        <v>0.07976703956997715</v>
       </c>
       <c r="D12">
-        <v>0.1062083053401067</v>
+        <v>0.1062083050475164</v>
       </c>
       <c r="E12">
-        <v>4.704536445280661</v>
+        <v>4.704536422420069</v>
       </c>
       <c r="F12">
-        <v>0.1437812388610653</v>
+        <v>0.1437812389853063</v>
       </c>
       <c r="G12">
-        <v>0.0002276075192459245</v>
+        <v>0.0002276075190381431</v>
       </c>
       <c r="H12">
-        <v>0.0001474222404167577</v>
+        <v>0.0001474222404493094</v>
       </c>
       <c r="I12">
-        <v>0.07681775928046888</v>
+        <v>0.07681775965392777</v>
       </c>
       <c r="J12">
-        <v>1.470723073294336</v>
+        <v>1.470723069102262</v>
       </c>
       <c r="K12">
-        <v>0.1171778795271697</v>
+        <v>0.1171778795343067</v>
       </c>
       <c r="L12">
-        <v>0.02330676179500792</v>
+        <v>0.02330676228390094</v>
       </c>
       <c r="M12">
-        <v>0.01675322755197791</v>
+        <v>0.01675322766119974</v>
       </c>
       <c r="N12">
-        <v>2.466677331683354E-07</v>
+        <v>2.466677332268217E-07</v>
       </c>
       <c r="O12">
-        <v>0.0006523257249917747</v>
+        <v>0.0006523257250176072</v>
       </c>
       <c r="P12">
-        <v>0.001241821656611868</v>
+        <v>0.001241821657459624</v>
       </c>
       <c r="Q12">
-        <v>0.001304905158563109</v>
+        <v>0.001304905159653502</v>
       </c>
       <c r="R12">
-        <v>0.004383512444426994</v>
+        <v>0.004383512448626439</v>
       </c>
       <c r="S12">
-        <v>2.737740843659373E-09</v>
+        <v>2.737740848362653E-09</v>
       </c>
       <c r="T12">
-        <v>1.603706681701829E-06</v>
+        <v>1.603706682346263E-06</v>
       </c>
       <c r="U12">
-        <v>0.04916392708387297</v>
+        <v>0.04916392715389003</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.002444220071017033</v>
+        <v>0.002444220067914818</v>
       </c>
       <c r="B13">
-        <v>0.9739013211484931</v>
+        <v>0.9739013215349199</v>
       </c>
       <c r="C13">
-        <v>0.1854003876045837</v>
+        <v>0.1854003871109715</v>
       </c>
       <c r="D13">
-        <v>0.2440385428064109</v>
+        <v>0.2440385421721489</v>
       </c>
       <c r="E13">
-        <v>6.910475091344327</v>
+        <v>6.910475042570924</v>
       </c>
       <c r="F13">
-        <v>0.2745314972013425</v>
+        <v>0.2745314973528981</v>
       </c>
       <c r="G13">
-        <v>0.0004186046827884051</v>
+        <v>0.0004186046822534216</v>
       </c>
       <c r="H13">
-        <v>0.00018215003417596</v>
+        <v>0.0001821500342256123</v>
       </c>
       <c r="I13">
-        <v>0.1081739510348234</v>
+        <v>0.1081739517672521</v>
       </c>
       <c r="J13">
-        <v>3.491392304852433</v>
+        <v>3.491392295907454</v>
       </c>
       <c r="K13">
-        <v>0.2192466562285853</v>
+        <v>0.2192466562321544</v>
       </c>
       <c r="L13">
-        <v>0.03347840897372488</v>
+        <v>0.03347840903146698</v>
       </c>
       <c r="M13">
-        <v>0.02266609032177674</v>
+        <v>0.02266609051676102</v>
       </c>
       <c r="N13">
-        <v>3.870600225313501E-07</v>
+        <v>3.870600225642098E-07</v>
       </c>
       <c r="O13">
-        <v>0.001064864194553824</v>
+        <v>0.001064864194154202</v>
       </c>
       <c r="P13">
-        <v>0.002034292527809086</v>
+        <v>0.002034292528552789</v>
       </c>
       <c r="Q13">
-        <v>0.002146172399380587</v>
+        <v>0.002146172400444317</v>
       </c>
       <c r="R13">
-        <v>0.007903182004017396</v>
+        <v>0.007903182011121196</v>
       </c>
       <c r="S13">
-        <v>4.333016398723898E-09</v>
+        <v>4.333016398475507E-09</v>
       </c>
       <c r="T13">
-        <v>2.749860959857216E-06</v>
+        <v>2.749860960374558E-06</v>
       </c>
       <c r="U13">
-        <v>0.09029821439721664</v>
+        <v>0.09029821449481717</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.001686106082253855</v>
+        <v>0.001686106080793503</v>
       </c>
       <c r="B14">
-        <v>0.7234644006404126</v>
+        <v>0.723464400957767</v>
       </c>
       <c r="C14">
-        <v>0.08197067979199336</v>
+        <v>0.08197067952493875</v>
       </c>
       <c r="D14">
-        <v>0.1099897082350404</v>
+        <v>0.109989707892307</v>
       </c>
       <c r="E14">
-        <v>6.196947043310128</v>
+        <v>6.196947016485723</v>
       </c>
       <c r="F14">
-        <v>0.170750760278951</v>
+        <v>0.1707507604011118</v>
       </c>
       <c r="G14">
-        <v>0.0002375871840972313</v>
+        <v>0.0002375871838396239</v>
       </c>
       <c r="H14">
-        <v>0.0001500038624438931</v>
+        <v>0.0001500038624745633</v>
       </c>
       <c r="I14">
-        <v>0.08282905536715685</v>
+        <v>0.08282905570843975</v>
       </c>
       <c r="J14">
-        <v>1.537275085899429</v>
+        <v>1.537275081115763</v>
       </c>
       <c r="K14">
-        <v>0.1205755455684466</v>
+        <v>0.1205755455736395</v>
       </c>
       <c r="L14">
-        <v>0.02749938343749142</v>
+        <v>0.02749938383262275</v>
       </c>
       <c r="M14">
-        <v>0.01875526246977449</v>
+        <v>0.01875526257812327</v>
       </c>
       <c r="N14">
-        <v>2.680698749166532E-07</v>
+        <v>2.680698749697429E-07</v>
       </c>
       <c r="O14">
-        <v>0.0007603305400769092</v>
+        <v>0.0007603305398478662</v>
       </c>
       <c r="P14">
-        <v>0.001699001827139272</v>
+        <v>0.001699001827876856</v>
       </c>
       <c r="Q14">
-        <v>0.001781178132015026</v>
+        <v>0.001781178133001006</v>
       </c>
       <c r="R14">
-        <v>0.004581041623443297</v>
+        <v>0.004581041627397871</v>
       </c>
       <c r="S14">
-        <v>3.155684568525825E-09</v>
+        <v>3.155684572040494E-09</v>
       </c>
       <c r="T14">
-        <v>1.787673273456094E-06</v>
+        <v>1.787673273659098E-06</v>
       </c>
       <c r="U14">
-        <v>0.06068961068935239</v>
+        <v>0.06068961075997561</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>0.007452921304432396</v>
+        <v>0.007452921307188784</v>
       </c>
       <c r="B15">
-        <v>0.8011559359015941</v>
+        <v>0.8011559363185917</v>
       </c>
       <c r="C15">
-        <v>12.43630401850372</v>
+        <v>12.43630401862616</v>
       </c>
       <c r="D15">
-        <v>14.87577718692946</v>
+        <v>14.87577718708958</v>
       </c>
       <c r="E15">
-        <v>50.85425529380193</v>
+        <v>50.85425530462578</v>
       </c>
       <c r="F15">
-        <v>0.1854203264230045</v>
+        <v>0.185420326509152</v>
       </c>
       <c r="G15">
-        <v>0.0007846963256112298</v>
+        <v>0.0007846963259315459</v>
       </c>
       <c r="H15">
-        <v>2.67217688328648E-05</v>
+        <v>2.672176885897551E-05</v>
       </c>
       <c r="I15">
-        <v>0.08330189570277592</v>
+        <v>0.08330189606710298</v>
       </c>
       <c r="J15">
-        <v>10.16158250485277</v>
+        <v>10.16158250678609</v>
       </c>
       <c r="K15">
-        <v>0.05957553282374088</v>
+        <v>0.05957553284816294</v>
       </c>
       <c r="L15">
-        <v>0.04563348860921154</v>
+        <v>0.04563348897953501</v>
       </c>
       <c r="M15">
-        <v>0.03221521110513953</v>
+        <v>0.03221521116127889</v>
       </c>
       <c r="N15">
-        <v>2.917508606939542E-07</v>
+        <v>2.917508607939432E-07</v>
       </c>
       <c r="O15">
-        <v>0.002654052227708405</v>
+        <v>0.002654052228728387</v>
       </c>
       <c r="P15">
-        <v>0.002240654461888078</v>
+        <v>0.002240654462608883</v>
       </c>
       <c r="Q15">
-        <v>0.002328867462966797</v>
+        <v>0.002328867463673034</v>
       </c>
       <c r="R15">
-        <v>0.005490033572079439</v>
+        <v>0.005490033574621976</v>
       </c>
       <c r="S15">
-        <v>1.579819143035219E-08</v>
+        <v>1.579819143592212E-08</v>
       </c>
       <c r="T15">
-        <v>5.018727755253978E-06</v>
+        <v>5.018727757938939E-06</v>
       </c>
       <c r="U15">
-        <v>0.06163244736782188</v>
+        <v>0.06163244739475903</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>0.0001665626001791726</v>
+        <v>0.0001665626043475686</v>
       </c>
       <c r="B16">
-        <v>0.06417485311536184</v>
+        <v>0.06417485380025688</v>
       </c>
       <c r="C16">
-        <v>0.003148154729057589</v>
+        <v>0.003148154944622123</v>
       </c>
       <c r="D16">
-        <v>0.00424301402837992</v>
+        <v>0.004243014308965182</v>
       </c>
       <c r="E16">
-        <v>0.1787814608957422</v>
+        <v>0.1787814813468032</v>
       </c>
       <c r="F16">
-        <v>0.01427287304758992</v>
+        <v>0.01427287323157663</v>
       </c>
       <c r="G16">
-        <v>7.732679479250932E-06</v>
+        <v>7.732679895706144E-06</v>
       </c>
       <c r="H16">
-        <v>1.440669531904714E-05</v>
+        <v>1.44066953475663E-05</v>
       </c>
       <c r="I16">
-        <v>0.004894198531259394</v>
+        <v>0.004894198788326388</v>
       </c>
       <c r="J16">
-        <v>0.0664991462317483</v>
+        <v>0.06649914950056499</v>
       </c>
       <c r="K16">
-        <v>0.002360122247392997</v>
+        <v>0.00236012232134217</v>
       </c>
       <c r="L16">
-        <v>0.0008281552030719898</v>
+        <v>0.0008281552229390052</v>
       </c>
       <c r="M16">
-        <v>0.001651304003949861</v>
+        <v>0.001651304038742919</v>
       </c>
       <c r="N16">
-        <v>3.992359752531558E-08</v>
+        <v>3.992359775910661E-08</v>
       </c>
       <c r="O16">
-        <v>7.762011502155323E-05</v>
+        <v>7.762011698132405E-05</v>
       </c>
       <c r="P16">
-        <v>0.0002904709228138738</v>
+        <v>0.0002904709247735935</v>
       </c>
       <c r="Q16">
-        <v>0.000308026800432875</v>
+        <v>0.0003080268025238233</v>
       </c>
       <c r="R16">
-        <v>0.0001380484619632011</v>
+        <v>0.0001380484688552128</v>
       </c>
       <c r="S16">
-        <v>2.719825396997373E-10</v>
+        <v>2.719825436383072E-10</v>
       </c>
       <c r="T16">
-        <v>1.403803775040984E-07</v>
+        <v>1.403803809875656E-07</v>
       </c>
       <c r="U16">
-        <v>0.006057706555414479</v>
+        <v>0.006057706612945329</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>0.0001800963173772835</v>
+        <v>0.0001800963232621803</v>
       </c>
       <c r="B17">
-        <v>0.05946456358702724</v>
+        <v>0.05946456479222027</v>
       </c>
       <c r="C17">
-        <v>0.003280486510972439</v>
+        <v>0.003280486792239678</v>
       </c>
       <c r="D17">
-        <v>0.004459450085601693</v>
+        <v>0.004459450449717744</v>
       </c>
       <c r="E17">
-        <v>0.2154058082342934</v>
+        <v>0.2154058366975893</v>
       </c>
       <c r="F17">
-        <v>0.01472402572452236</v>
+        <v>0.01472402602585713</v>
       </c>
       <c r="G17">
-        <v>7.501696565236472E-06</v>
+        <v>7.501697364710505E-06</v>
       </c>
       <c r="H17">
-        <v>2.429200855753841E-05</v>
+        <v>2.429200861014622E-05</v>
       </c>
       <c r="I17">
-        <v>0.004801345051083624</v>
+        <v>0.004801345546485722</v>
       </c>
       <c r="J17">
-        <v>0.0806777613616655</v>
+        <v>0.0806777658476651</v>
       </c>
       <c r="K17">
-        <v>0.0009118517203525467</v>
+        <v>0.0009118518139960481</v>
       </c>
       <c r="L17">
-        <v>0.0008546993722424607</v>
+        <v>0.0008546996702438673</v>
       </c>
       <c r="M17">
-        <v>0.001628072350398133</v>
+        <v>0.001628072420187003</v>
       </c>
       <c r="N17">
-        <v>3.438117357288224E-08</v>
+        <v>3.438117393386032E-08</v>
       </c>
       <c r="O17">
-        <v>0.0001129354173113004</v>
+        <v>0.000112935420257864</v>
       </c>
       <c r="P17">
-        <v>0.0003028718456451616</v>
+        <v>0.0003028718487290117</v>
       </c>
       <c r="Q17">
-        <v>0.0003203858417963027</v>
+        <v>0.0003203858450480794</v>
       </c>
       <c r="R17">
-        <v>0.0001155305567348192</v>
+        <v>0.0001155305653701839</v>
       </c>
       <c r="S17">
-        <v>2.638945119999803E-10</v>
+        <v>2.638945207803857E-10</v>
       </c>
       <c r="T17">
-        <v>1.610902811160363E-07</v>
+        <v>1.610902867763848E-07</v>
       </c>
       <c r="U17">
-        <v>0.006001468034724432</v>
+        <v>0.006001468118922476</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0002703665012480702</v>
+        <v>-0.0002703665009362999</v>
       </c>
       <c r="B18">
-        <v>-2.372651841944999</v>
+        <v>-2.37265184189197</v>
       </c>
       <c r="C18">
-        <v>-0.1200802839395092</v>
+        <v>-0.1200802839211729</v>
       </c>
       <c r="D18">
-        <v>-0.1599095142720314</v>
+        <v>-0.1599095142483323</v>
       </c>
       <c r="E18">
-        <v>-1.263153882844763</v>
+        <v>-1.26315388120802</v>
       </c>
       <c r="F18">
-        <v>-0.00784279117289428</v>
+        <v>-0.007842791157148428</v>
       </c>
       <c r="G18">
-        <v>-5.136435263347077E-06</v>
+        <v>-5.136435230583489E-06</v>
       </c>
       <c r="H18">
-        <v>-2.141437715087163E-05</v>
+        <v>-2.141437714894802E-05</v>
       </c>
       <c r="I18">
-        <v>-0.02399076781156646</v>
+        <v>-0.02399076779884507</v>
       </c>
       <c r="J18">
-        <v>-2.349318089360443</v>
+        <v>-2.349318089078102</v>
       </c>
       <c r="K18">
-        <v>-0.001041090795874953</v>
+        <v>-0.00104109079284223</v>
       </c>
       <c r="L18">
-        <v>-0.0005414004402980756</v>
+        <v>-0.0005414004422667552</v>
       </c>
       <c r="M18">
-        <v>-0.001682385508718667</v>
+        <v>-0.001682385505922581</v>
       </c>
       <c r="N18">
-        <v>-1.016975884472829E-06</v>
+        <v>-1.016975884459606E-06</v>
       </c>
       <c r="O18">
-        <v>-9.103762041800192E-05</v>
+        <v>-9.103762029114923E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0006013723820286275</v>
+        <v>-0.0006013723818688901</v>
       </c>
       <c r="Q18">
-        <v>-0.000605444288692634</v>
+        <v>-0.0006054442885117022</v>
       </c>
       <c r="R18">
-        <v>-0.003722391163206866</v>
+        <v>-0.003722391162908303</v>
       </c>
       <c r="S18">
-        <v>-6.901632087147999E-09</v>
+        <v>-6.901632086871735E-09</v>
       </c>
       <c r="T18">
-        <v>-2.884030311106604E-06</v>
+        <v>-2.884030310870258E-06</v>
       </c>
       <c r="U18">
-        <v>-0.003060162418436801</v>
+        <v>-0.003060162412579179</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001926107895961572</v>
+        <v>-0.0001926107895257512</v>
       </c>
       <c r="B19">
-        <v>-3.020232371444754</v>
+        <v>-3.020232371427563</v>
       </c>
       <c r="C19">
-        <v>-0.1585580381544423</v>
+        <v>-0.1585580381497712</v>
       </c>
       <c r="D19">
-        <v>-0.2295974278150845</v>
+        <v>-0.2295974278090507</v>
       </c>
       <c r="E19">
-        <v>-8.832198441950514</v>
+        <v>-8.832198441572388</v>
       </c>
       <c r="F19">
-        <v>-0.00498277180919643</v>
+        <v>-0.004982771803487034</v>
       </c>
       <c r="G19">
-        <v>-2.600694347398834E-06</v>
+        <v>-2.600694338193465E-06</v>
       </c>
       <c r="H19">
-        <v>-4.71296750259093E-06</v>
+        <v>-4.71296750203573E-06</v>
       </c>
       <c r="I19">
-        <v>-0.009844745955195298</v>
+        <v>-0.009844745954480554</v>
       </c>
       <c r="J19">
-        <v>-1.917227264349378</v>
+        <v>-1.917227264277136</v>
       </c>
       <c r="K19">
-        <v>-0.0004261771991730424</v>
+        <v>-0.0004261771981209655</v>
       </c>
       <c r="L19">
-        <v>-0.0002952296275902998</v>
+        <v>-0.0002952296233591761</v>
       </c>
       <c r="M19">
-        <v>-0.00100965905627125</v>
+        <v>-0.001009659055673083</v>
       </c>
       <c r="N19">
-        <v>-2.203428893462114E-07</v>
+        <v>-2.203428893424636E-07</v>
       </c>
       <c r="O19">
-        <v>-6.324301919446182E-05</v>
+        <v>-6.324301916593746E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0004640577321477693</v>
+        <v>-0.0004640577321045981</v>
       </c>
       <c r="Q19">
-        <v>-0.0004665276036527544</v>
+        <v>-0.0004665276035992876</v>
       </c>
       <c r="R19">
-        <v>-0.001527602343385386</v>
+        <v>-0.001527602343305675</v>
       </c>
       <c r="S19">
-        <v>-8.797267534425082E-09</v>
+        <v>-8.797267534303203E-09</v>
       </c>
       <c r="T19">
-        <v>-3.316482484628596E-06</v>
+        <v>-3.316482484575654E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001920371174757131</v>
+        <v>-0.001920371172550706</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.00016390867916263</v>
+        <v>-0.000163908679104351</v>
       </c>
       <c r="B20">
-        <v>-2.550880668140064</v>
+        <v>-2.550880668125965</v>
       </c>
       <c r="C20">
-        <v>-0.1339112701593011</v>
+        <v>-0.1339112701554068</v>
       </c>
       <c r="D20">
-        <v>-0.1939066745830324</v>
+        <v>-0.1939066745780078</v>
       </c>
       <c r="E20">
-        <v>-7.46002710981804</v>
+        <v>-7.460027109488524</v>
       </c>
       <c r="F20">
-        <v>-0.00434233497549584</v>
+        <v>-0.004342334970835401</v>
       </c>
       <c r="G20">
-        <v>-2.366434640512027E-06</v>
+        <v>-2.36643463279159E-06</v>
       </c>
       <c r="H20">
-        <v>-4.000192103690845E-06</v>
+        <v>-4.0001921032859E-06</v>
       </c>
       <c r="I20">
-        <v>-0.008617201772019998</v>
+        <v>-0.008617201770528552</v>
       </c>
       <c r="J20">
-        <v>-1.619220927572738</v>
+        <v>-1.619220927513707</v>
       </c>
       <c r="K20">
-        <v>-0.0003756151444214481</v>
+        <v>-0.0003756151435793617</v>
       </c>
       <c r="L20">
-        <v>-0.0002616833959600743</v>
+        <v>-0.0002616834057553023</v>
       </c>
       <c r="M20">
-        <v>-0.0009631102656956993</v>
+        <v>-0.0009631102651987682</v>
       </c>
       <c r="N20">
-        <v>-1.861432755464934E-07</v>
+        <v>-1.861432755435391E-07</v>
       </c>
       <c r="O20">
-        <v>-5.508284454237924E-05</v>
+        <v>-5.508284451739301E-05</v>
       </c>
       <c r="P20">
-        <v>-0.0003933495480869728</v>
+        <v>-0.0003933495480513232</v>
       </c>
       <c r="Q20">
-        <v>-0.0003955901472069691</v>
+        <v>-0.0003955901471630077</v>
       </c>
       <c r="R20">
-        <v>-0.001449466083628071</v>
+        <v>-0.001449466083564873</v>
       </c>
       <c r="S20">
-        <v>-7.430834739592966E-09</v>
+        <v>-7.43083473961026E-09</v>
       </c>
       <c r="T20">
-        <v>-2.803485651953204E-06</v>
+        <v>-2.803485651905835E-06</v>
       </c>
       <c r="U20">
-        <v>-0.001684653514786829</v>
+        <v>-0.001684653513013104</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>-0.001395958797155795</v>
+        <v>-0.001395958796000865</v>
       </c>
       <c r="B21">
-        <v>-0.7560797520469889</v>
+        <v>-0.756079751887516</v>
       </c>
       <c r="C21">
-        <v>-0.01826306655101297</v>
+        <v>-0.01826306648995484</v>
       </c>
       <c r="D21">
-        <v>-0.02424443910148172</v>
+        <v>-0.02424443902241439</v>
       </c>
       <c r="E21">
-        <v>-0.1419770772946593</v>
+        <v>-0.1419770716828003</v>
       </c>
       <c r="F21">
-        <v>-0.026766797425004</v>
+        <v>-0.02676679738325055</v>
       </c>
       <c r="G21">
-        <v>-9.553340613841936E-06</v>
+        <v>-9.553340506498326E-06</v>
       </c>
       <c r="H21">
-        <v>-0.0002332124981832169</v>
+        <v>-0.0002332124981770885</v>
       </c>
       <c r="I21">
-        <v>-0.006439796926237776</v>
+        <v>-0.006439796875104771</v>
       </c>
       <c r="J21">
-        <v>-0.4334910784114571</v>
+        <v>-0.4334910774497948</v>
       </c>
       <c r="K21">
-        <v>-0.001813180601137236</v>
+        <v>-0.00181318059205578</v>
       </c>
       <c r="L21">
-        <v>-0.0007497014247909419</v>
+        <v>-0.0007497013816182962</v>
       </c>
       <c r="M21">
-        <v>-0.002686348879662826</v>
+        <v>-0.002686348869026963</v>
       </c>
       <c r="N21">
-        <v>-1.167331374792677E-05</v>
+        <v>-1.167331374787922E-05</v>
       </c>
       <c r="O21">
-        <v>-0.000437471857029632</v>
+        <v>-0.0004374718565732491</v>
       </c>
       <c r="P21">
-        <v>-0.003155472649231046</v>
+        <v>-0.003155472648708819</v>
       </c>
       <c r="Q21">
-        <v>-0.003166045751682266</v>
+        <v>-0.003166045751120051</v>
       </c>
       <c r="R21">
-        <v>-0.00211959716135587</v>
+        <v>-0.002119597160295259</v>
       </c>
       <c r="S21">
-        <v>-2.851281866759122E-09</v>
+        <v>-2.85128186542541E-09</v>
       </c>
       <c r="T21">
-        <v>-1.111285649546959E-06</v>
+        <v>-1.111285648720291E-06</v>
       </c>
       <c r="U21">
-        <v>-0.009781148775219604</v>
+        <v>-0.009781148760332186</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
-        <v>0.0001243276865925544</v>
+        <v>0.0001243276865334999</v>
       </c>
       <c r="B22">
-        <v>0.02863769590598792</v>
+        <v>0.02863769588957772</v>
       </c>
       <c r="C22">
-        <v>0.001085950379681219</v>
+        <v>0.001085950376931576</v>
       </c>
       <c r="D22">
-        <v>0.001203462712244322</v>
+        <v>0.001203462708657432</v>
       </c>
       <c r="E22">
-        <v>0.07028015360566205</v>
+        <v>0.07028015326285436</v>
       </c>
       <c r="F22">
-        <v>0.01613015405265448</v>
+        <v>0.01613015405034236</v>
       </c>
       <c r="G22">
-        <v>1.04237041971031E-05</v>
+        <v>1.042370419264235E-05</v>
       </c>
       <c r="H22">
-        <v>4.367342421851043E-05</v>
+        <v>4.367342421853665E-05</v>
       </c>
       <c r="I22">
-        <v>0.001138779912046702</v>
+        <v>0.001138779908327672</v>
       </c>
       <c r="J22">
-        <v>0.02180390571139957</v>
+        <v>0.02180390566298631</v>
       </c>
       <c r="K22">
-        <v>0.001614134322437935</v>
+        <v>0.00161413432158376</v>
       </c>
       <c r="L22">
-        <v>0.006308440118217933</v>
+        <v>0.006308440123575195</v>
       </c>
       <c r="M22">
-        <v>0.0002176138634578097</v>
+        <v>0.0002176138638648869</v>
       </c>
       <c r="N22">
-        <v>5.338596180084148E-08</v>
+        <v>5.338596179726291E-08</v>
       </c>
       <c r="O22">
-        <v>3.815966451800494E-05</v>
+        <v>3.81596644775819E-05</v>
       </c>
       <c r="P22">
-        <v>0.0005466381237905339</v>
+        <v>0.0005466381237303078</v>
       </c>
       <c r="Q22">
-        <v>0.0008454525272293004</v>
+        <v>0.0008454525271692497</v>
       </c>
       <c r="R22">
-        <v>0.004763877567341813</v>
+        <v>0.004763877567275732</v>
       </c>
       <c r="S22">
-        <v>2.803087480467609E-10</v>
+        <v>2.803087480189123E-10</v>
       </c>
       <c r="T22">
-        <v>7.042486377035946E-08</v>
+        <v>7.042486370612559E-08</v>
       </c>
       <c r="U22">
-        <v>0.006196128878438551</v>
+        <v>0.006196128877896685</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -14,69 +14,132 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>'H200' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'H400' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'alubox (large)' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'alubox (small)' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'autoclave' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for aluminium, cast alloy' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for polypropylene, granulate' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'mixed heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper, unsorted, sorting' (kilogram, RoW, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'wet wipe' (unit, GLO, None)</t>
   </si>
 </sst>
 </file>
@@ -434,1440 +497,1503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>0.0007172858218313292</v>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>0.2476010126911955</v>
+        <v>0.0007172858226591937</v>
       </c>
       <c r="C2">
-        <v>0.00763891962301754</v>
+        <v>0.2476010127823798</v>
       </c>
       <c r="D2">
-        <v>0.01007273939412592</v>
+        <v>0.007638919670045573</v>
       </c>
       <c r="E2">
-        <v>0.6735796754162288</v>
+        <v>0.01007273945460103</v>
       </c>
       <c r="F2">
-        <v>0.1497433289353224</v>
+        <v>0.6735796795611869</v>
       </c>
       <c r="G2">
-        <v>5.476664506024624E-05</v>
+        <v>0.1497433289582103</v>
       </c>
       <c r="H2">
-        <v>7.737268587587274E-06</v>
+        <v>5.476664513112171E-05</v>
       </c>
       <c r="I2">
-        <v>0.009802520110312482</v>
+        <v>7.73726859172265E-06</v>
       </c>
       <c r="J2">
-        <v>0.152659716639029</v>
+        <v>0.009802520141825021</v>
       </c>
       <c r="K2">
-        <v>0.01108799457801528</v>
+        <v>0.1526597173361643</v>
       </c>
       <c r="L2">
-        <v>0.00410804202821325</v>
+        <v>0.01108799457987285</v>
       </c>
       <c r="M2">
-        <v>0.002434545186025267</v>
+        <v>0.004108042023276777</v>
       </c>
       <c r="N2">
-        <v>4.656145843700213E-08</v>
+        <v>0.002434545194762226</v>
       </c>
       <c r="O2">
-        <v>0.0003086847793396875</v>
+        <v>4.656145846387809E-08</v>
       </c>
       <c r="P2">
-        <v>0.0005812956182000259</v>
+        <v>0.0003086847796506381</v>
       </c>
       <c r="Q2">
-        <v>0.000615872533492754</v>
+        <v>0.0005812956185708715</v>
       </c>
       <c r="R2">
-        <v>0.002000869314300273</v>
+        <v>0.0006158725338788586</v>
       </c>
       <c r="S2">
-        <v>1.01222122969331E-09</v>
+        <v>0.002000869314931992</v>
       </c>
       <c r="T2">
-        <v>4.961592799842444E-07</v>
+        <v>1.012221230263815E-09</v>
       </c>
       <c r="U2">
-        <v>0.05715518801017808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>0.002052429301171659</v>
+        <v>4.961592805295296E-07</v>
+      </c>
+      <c r="V2">
+        <v>0.05715518801870324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0.708572605151076</v>
+        <v>0.002052429302680412</v>
       </c>
       <c r="C3">
-        <v>0.02185264070391627</v>
+        <v>0.7085726059190411</v>
       </c>
       <c r="D3">
-        <v>0.02881605950563562</v>
+        <v>0.02185264058719703</v>
       </c>
       <c r="E3">
-        <v>1.926021849099848</v>
+        <v>0.02881605936291776</v>
       </c>
       <c r="F3">
-        <v>0.4284085117938134</v>
+        <v>1.926021838467711</v>
       </c>
       <c r="G3">
-        <v>0.0001570287133964959</v>
+        <v>0.4284085119813798</v>
       </c>
       <c r="H3">
-        <v>2.241806638287417E-05</v>
+        <v>0.0001570287134844438</v>
       </c>
       <c r="I3">
-        <v>0.02806666519047893</v>
+        <v>2.241806640748683E-05</v>
       </c>
       <c r="J3">
-        <v>0.4371104065806726</v>
+        <v>0.02806666551542845</v>
       </c>
       <c r="K3">
-        <v>0.0318918354564018</v>
+        <v>0.4371104052309813</v>
       </c>
       <c r="L3">
-        <v>0.01197444770458451</v>
+        <v>0.03189183548179637</v>
       </c>
       <c r="M3">
-        <v>0.006964031634804708</v>
+        <v>0.01197444731836038</v>
       </c>
       <c r="N3">
-        <v>1.335684928308047E-07</v>
+        <v>0.006964031748665449</v>
       </c>
       <c r="O3">
-        <v>0.0008831184140795189</v>
+        <v>1.335684929439003E-07</v>
       </c>
       <c r="P3">
-        <v>0.001663931910582345</v>
+        <v>0.0008831184148803699</v>
       </c>
       <c r="Q3">
-        <v>0.001763208261818057</v>
+        <v>0.001663931913019943</v>
       </c>
       <c r="R3">
-        <v>0.005758781212378747</v>
+        <v>0.001763208264375804</v>
       </c>
       <c r="S3">
-        <v>2.898876276747711E-09</v>
+        <v>0.00575878121648915</v>
       </c>
       <c r="T3">
-        <v>1.419896832740202E-06</v>
+        <v>2.89887627596207E-09</v>
       </c>
       <c r="U3">
-        <v>0.1635073490850754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
-        <v>0.2926121467208578</v>
+        <v>1.419896834739364E-06</v>
+      </c>
+      <c r="V3">
+        <v>0.1635073491629384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>67.60476021964361</v>
+        <v>0.2926121471543339</v>
       </c>
       <c r="C4">
-        <v>5.628516449607375</v>
+        <v>67.60476026645823</v>
       </c>
       <c r="D4">
-        <v>7.147256920142987</v>
+        <v>5.628516477181527</v>
       </c>
       <c r="E4">
-        <v>165.7995226905459</v>
+        <v>7.147256955555438</v>
       </c>
       <c r="F4">
-        <v>15.34593521628001</v>
+        <v>165.7995250720273</v>
       </c>
       <c r="G4">
-        <v>0.02516519707631416</v>
+        <v>15.34593522635629</v>
       </c>
       <c r="H4">
-        <v>0.002877731854685518</v>
+        <v>0.02516519711815085</v>
       </c>
       <c r="I4">
-        <v>11.81339522112455</v>
+        <v>0.002877731856540782</v>
       </c>
       <c r="J4">
-        <v>74.48885138471918</v>
+        <v>11.81339523916165</v>
       </c>
       <c r="K4">
-        <v>4.842772613236815</v>
+        <v>74.48885178414118</v>
       </c>
       <c r="L4">
-        <v>1.318171330488651</v>
+        <v>4.842772615153978</v>
       </c>
       <c r="M4">
-        <v>1.113191250256393</v>
+        <v>1.318171331746827</v>
       </c>
       <c r="N4">
-        <v>1.666525699553844E-05</v>
+        <v>1.113191255494747</v>
       </c>
       <c r="O4">
-        <v>0.1267996991710347</v>
+        <v>1.666525701140069E-05</v>
       </c>
       <c r="P4">
-        <v>0.1696575947408195</v>
+        <v>0.1267996993406274</v>
       </c>
       <c r="Q4">
-        <v>0.1732763347416874</v>
+        <v>0.1696575949284417</v>
       </c>
       <c r="R4">
-        <v>0.6963203630473959</v>
+        <v>0.1732763349316006</v>
       </c>
       <c r="S4">
-        <v>3.088258370740609E-07</v>
+        <v>0.6963203634156574</v>
       </c>
       <c r="T4">
-        <v>0.0002003468457568439</v>
+        <v>3.08825837410719E-07</v>
       </c>
       <c r="U4">
-        <v>3.383806316254089</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
-        <v>0.1744351751057815</v>
+        <v>0.0002003468460587838</v>
+      </c>
+      <c r="V4">
+        <v>3.383806319695433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>40.26300475043907</v>
+        <v>0.1744351753636339</v>
       </c>
       <c r="C5">
-        <v>3.358309980036545</v>
+        <v>40.26300478309686</v>
       </c>
       <c r="D5">
-        <v>4.264337909889871</v>
+        <v>3.35830999652015</v>
       </c>
       <c r="E5">
-        <v>98.63498050979392</v>
+        <v>4.264337931073019</v>
       </c>
       <c r="F5">
-        <v>9.104724237742364</v>
+        <v>98.63498193330858</v>
       </c>
       <c r="G5">
-        <v>0.01499755927162363</v>
+        <v>9.104724243806665</v>
       </c>
       <c r="H5">
-        <v>0.001713004360699884</v>
+        <v>0.01499755929666903</v>
       </c>
       <c r="I5">
-        <v>7.052533296972872</v>
+        <v>0.001713004361796226</v>
       </c>
       <c r="J5">
-        <v>44.38572162622577</v>
+        <v>7.052533307811868</v>
       </c>
       <c r="K5">
-        <v>2.885194170789707</v>
+        <v>44.38572186470959</v>
       </c>
       <c r="L5">
-        <v>0.785800546960736</v>
+        <v>2.885194171856304</v>
       </c>
       <c r="M5">
-        <v>0.6616361181824033</v>
+        <v>0.78580056588298</v>
       </c>
       <c r="N5">
-        <v>9.920714380820888E-06</v>
+        <v>0.661636121318616</v>
       </c>
       <c r="O5">
-        <v>0.07557572175566296</v>
+        <v>9.92071439036191E-06</v>
       </c>
       <c r="P5">
-        <v>0.1010804645259834</v>
+        <v>0.07557572185678774</v>
       </c>
       <c r="Q5">
-        <v>0.1032192731061271</v>
+        <v>0.1010804646369605</v>
       </c>
       <c r="R5">
-        <v>0.4135629688821451</v>
+        <v>0.1032192732184992</v>
       </c>
       <c r="S5">
-        <v>1.839808552611986E-07</v>
+        <v>0.4135629691015247</v>
       </c>
       <c r="T5">
-        <v>0.000119414902278263</v>
+        <v>1.839808556364532E-07</v>
       </c>
       <c r="U5">
-        <v>1.998697325218832</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
-        <v>0.009221071061273714</v>
+        <v>0.0001194149024630528</v>
+      </c>
+      <c r="V5">
+        <v>1.99869732728778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>2.613780910720725</v>
+        <v>0.009221070973897124</v>
       </c>
       <c r="C6">
-        <v>0.5237057564099696</v>
+        <v>2.613780889874965</v>
       </c>
       <c r="D6">
-        <v>0.6594677366721672</v>
+        <v>0.5237057546641026</v>
       </c>
       <c r="E6">
-        <v>27.28412830543612</v>
+        <v>0.6594677343320928</v>
       </c>
       <c r="F6">
-        <v>0.6726728587052417</v>
+        <v>27.28412816628965</v>
       </c>
       <c r="G6">
-        <v>0.002558289063884285</v>
+        <v>0.6726728535917488</v>
       </c>
       <c r="H6">
-        <v>0.001769465491352865</v>
+        <v>0.002558289057147708</v>
       </c>
       <c r="I6">
-        <v>0.2443130990061531</v>
+        <v>0.001769465490347368</v>
       </c>
       <c r="J6">
-        <v>7.418088225578911</v>
+        <v>0.2443130902436057</v>
       </c>
       <c r="K6">
-        <v>0.7194758506022259</v>
+        <v>7.418088196571201</v>
       </c>
       <c r="L6">
-        <v>0.485317146609793</v>
+        <v>0.7194758494855367</v>
       </c>
       <c r="M6">
-        <v>0.05620283124161018</v>
+        <v>0.4853171487199046</v>
       </c>
       <c r="N6">
-        <v>2.905570443664557E-06</v>
+        <v>0.05620282835971264</v>
       </c>
       <c r="O6">
-        <v>0.003190112521825602</v>
+        <v>2.905570438954906E-06</v>
       </c>
       <c r="P6">
-        <v>0.005521833707394634</v>
+        <v>0.003190112486867853</v>
       </c>
       <c r="Q6">
-        <v>0.005660185872762544</v>
+        <v>0.005521833644000322</v>
       </c>
       <c r="R6">
-        <v>0.04791135613241231</v>
+        <v>0.005660185804998582</v>
       </c>
       <c r="S6">
-        <v>1.676798374244447E-08</v>
+        <v>0.04791135597627674</v>
       </c>
       <c r="T6">
-        <v>7.051190009844453E-06</v>
+        <v>1.676798366797057E-08</v>
       </c>
       <c r="U6">
-        <v>0.1411066860477284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
-        <v>0.02530154833671564</v>
+        <v>7.051189932409196E-06</v>
+      </c>
+      <c r="V6">
+        <v>0.1411066838610118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>5.804199981043449</v>
+        <v>0.02530154834404853</v>
       </c>
       <c r="C7">
-        <v>3.252090704786711</v>
+        <v>5.804199981968098</v>
       </c>
       <c r="D7">
-        <v>3.926635962793291</v>
+        <v>3.252090705001601</v>
       </c>
       <c r="E7">
-        <v>13.22407611923437</v>
+        <v>3.926635963070761</v>
       </c>
       <c r="F7">
-        <v>1.237341575631696</v>
+        <v>13.22407613444603</v>
       </c>
       <c r="G7">
-        <v>0.001834956720319436</v>
+        <v>1.23734157577883</v>
       </c>
       <c r="H7">
-        <v>0.000142480914877148</v>
+        <v>0.001834956720745917</v>
       </c>
       <c r="I7">
-        <v>1.104179394257516</v>
+        <v>0.0001424809149365362</v>
       </c>
       <c r="J7">
-        <v>9.08971186975492</v>
+        <v>1.104179394867693</v>
       </c>
       <c r="K7">
-        <v>0.1135132797526222</v>
+        <v>9.089711872477569</v>
       </c>
       <c r="L7">
-        <v>0.07736411615333627</v>
+        <v>0.1135132797559816</v>
       </c>
       <c r="M7">
-        <v>0.1088357599953336</v>
+        <v>0.07736411563592326</v>
       </c>
       <c r="N7">
-        <v>1.481457688588298E-06</v>
+        <v>0.1088357601546512</v>
       </c>
       <c r="O7">
-        <v>0.0111026450747728</v>
+        <v>1.481457688890951E-06</v>
       </c>
       <c r="P7">
-        <v>0.01538134123320818</v>
+        <v>0.01110264507781764</v>
       </c>
       <c r="Q7">
-        <v>0.01563481720548779</v>
+        <v>0.01538134123719932</v>
       </c>
       <c r="R7">
-        <v>0.03521361402195727</v>
+        <v>0.01563481720932655</v>
       </c>
       <c r="S7">
-        <v>2.836547559675106E-08</v>
+        <v>0.03521361402979045</v>
       </c>
       <c r="T7">
-        <v>1.819359489095024E-05</v>
+        <v>2.836547559743464E-08</v>
       </c>
       <c r="U7">
-        <v>0.2638603437112261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>0.0005037847485883036</v>
+        <v>1.819359489638951E-05</v>
+      </c>
+      <c r="V7">
+        <v>0.2638603437625603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0.208409870249309</v>
+        <v>0.0005037847341087873</v>
       </c>
       <c r="C8">
-        <v>0.01250017970810395</v>
+        <v>0.208409867813794</v>
       </c>
       <c r="D8">
-        <v>0.01630201287060264</v>
+        <v>0.01250017914284438</v>
       </c>
       <c r="E8">
-        <v>0.624513812523216</v>
+        <v>0.01630201213709701</v>
       </c>
       <c r="F8">
-        <v>0.05471552711106247</v>
+        <v>0.6245137642433647</v>
       </c>
       <c r="G8">
-        <v>0.0001634954724798868</v>
+        <v>0.05471552648299119</v>
       </c>
       <c r="H8">
-        <v>1.188510953492059E-05</v>
+        <v>0.0001634954713703035</v>
       </c>
       <c r="I8">
-        <v>0.01662770317150804</v>
+        <v>1.188510941238676E-05</v>
       </c>
       <c r="J8">
-        <v>0.2947844992244046</v>
+        <v>0.01662770223567023</v>
       </c>
       <c r="K8">
-        <v>0.063289721692847</v>
+        <v>0.2947844907210351</v>
       </c>
       <c r="L8">
-        <v>0.04349396284469132</v>
+        <v>0.06328972159019754</v>
       </c>
       <c r="M8">
-        <v>0.002096436423087906</v>
+        <v>0.04349396231541356</v>
       </c>
       <c r="N8">
-        <v>2.09075067825897E-07</v>
+        <v>0.002096436110137786</v>
       </c>
       <c r="O8">
-        <v>0.0001699537497114625</v>
+        <v>2.090750672734474E-07</v>
       </c>
       <c r="P8">
-        <v>0.0004089896592515622</v>
+        <v>0.0001699537440602577</v>
       </c>
       <c r="Q8">
-        <v>0.0004182080351695425</v>
+        <v>0.0004089896507679458</v>
       </c>
       <c r="R8">
-        <v>0.003495028334883439</v>
+        <v>0.0004182080260600769</v>
       </c>
       <c r="S8">
-        <v>1.257077543669224E-09</v>
+        <v>0.003495028317303268</v>
       </c>
       <c r="T8">
-        <v>4.313872764295365E-07</v>
+        <v>1.257077526142608E-09</v>
       </c>
       <c r="U8">
-        <v>0.01031957071921155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
-        <v>0.006303521151216638</v>
+        <v>4.313872655248885E-07</v>
+      </c>
+      <c r="V8">
+        <v>0.01031957045217975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>2.378755637033482</v>
+        <v>0.00630352115370954</v>
       </c>
       <c r="C9">
-        <v>0.05408767065837711</v>
+        <v>2.378755637297624</v>
       </c>
       <c r="D9">
-        <v>0.07208146436244704</v>
+        <v>0.05408767079657541</v>
       </c>
       <c r="E9">
-        <v>5.129597044332776</v>
+        <v>0.07208146453979183</v>
       </c>
       <c r="F9">
-        <v>1.713173814929801</v>
+        <v>5.129597056261876</v>
       </c>
       <c r="G9">
-        <v>0.000388653970434841</v>
+        <v>1.713173814985671</v>
       </c>
       <c r="H9">
-        <v>3.880851508091183E-05</v>
+        <v>0.0003886539706415083</v>
       </c>
       <c r="I9">
-        <v>0.0857047115985947</v>
+        <v>3.880851509623564E-05</v>
       </c>
       <c r="J9">
-        <v>1.151822912837072</v>
+        <v>0.08570471170434558</v>
       </c>
       <c r="K9">
-        <v>0.0470968470557128</v>
+        <v>1.151822914813602</v>
       </c>
       <c r="L9">
-        <v>0.01837651474848189</v>
+        <v>0.04709684705838323</v>
       </c>
       <c r="M9">
-        <v>0.02050259064117762</v>
+        <v>0.01837651481080835</v>
       </c>
       <c r="N9">
-        <v>2.695596547042216E-07</v>
+        <v>0.02050259067326626</v>
       </c>
       <c r="O9">
-        <v>0.002388588636899256</v>
+        <v>2.695596547892098E-07</v>
       </c>
       <c r="P9">
-        <v>0.004929617339636251</v>
+        <v>0.002388588637840936</v>
       </c>
       <c r="Q9">
-        <v>0.005278743535555984</v>
+        <v>0.004929617340697525</v>
       </c>
       <c r="R9">
-        <v>0.01752713857011003</v>
+        <v>0.005278743536640286</v>
       </c>
       <c r="S9">
-        <v>9.20759807314057E-09</v>
+        <v>0.01752713857216689</v>
       </c>
       <c r="T9">
-        <v>4.299010274067598E-06</v>
+        <v>9.207598075490688E-09</v>
       </c>
       <c r="U9">
-        <v>0.6788007262781902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
-        <v>0.01162068862056821</v>
+        <v>4.299010275711558E-06</v>
+      </c>
+      <c r="V9">
+        <v>0.6788007262990402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>3.466886179356818</v>
+        <v>0.01162068844491524</v>
       </c>
       <c r="C10">
-        <v>0.7086161946843126</v>
+        <v>3.466886147627521</v>
       </c>
       <c r="D10">
-        <v>0.8912456458418875</v>
+        <v>0.708616187958259</v>
       </c>
       <c r="E10">
-        <v>36.42125349477424</v>
+        <v>0.8912456370570504</v>
       </c>
       <c r="F10">
-        <v>0.8974062433235819</v>
+        <v>36.42125289301666</v>
       </c>
       <c r="G10">
-        <v>0.003207825051692993</v>
+        <v>0.8974062347427548</v>
       </c>
       <c r="H10">
-        <v>0.001413958191065324</v>
+        <v>0.00320782503564048</v>
       </c>
       <c r="I10">
-        <v>0.316031692624819</v>
+        <v>0.001413958189378907</v>
       </c>
       <c r="J10">
-        <v>9.502532601603793</v>
+        <v>0.3160316785500221</v>
       </c>
       <c r="K10">
-        <v>0.9889259695236678</v>
+        <v>9.502532497568863</v>
       </c>
       <c r="L10">
-        <v>0.6648528943499574</v>
+        <v>0.988925967409149</v>
       </c>
       <c r="M10">
-        <v>0.05724205351689676</v>
+        <v>0.664852877433654</v>
       </c>
       <c r="N10">
-        <v>3.638717820199367E-06</v>
+        <v>0.05724204926170606</v>
       </c>
       <c r="O10">
-        <v>0.003997746824482971</v>
+        <v>3.638717811428322E-06</v>
       </c>
       <c r="P10">
-        <v>0.007253941294759243</v>
+        <v>0.003997746754925566</v>
       </c>
       <c r="Q10">
-        <v>0.007432664851969042</v>
+        <v>0.007253941188714746</v>
       </c>
       <c r="R10">
-        <v>0.05870154967256373</v>
+        <v>0.00743266473731813</v>
       </c>
       <c r="S10">
-        <v>2.217736213746053E-08</v>
+        <v>0.05870154940864322</v>
       </c>
       <c r="T10">
-        <v>9.091799561646357E-06</v>
+        <v>2.217736182321467E-08</v>
       </c>
       <c r="U10">
-        <v>0.1818204905597413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>0.0001182622972644622</v>
+        <v>9.091799417346803E-06</v>
+      </c>
+      <c r="V10">
+        <v>0.1818204869703411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>0.03461772780936612</v>
+        <v>0.0001182622968275282</v>
       </c>
       <c r="C11">
-        <v>0.001739476123306634</v>
+        <v>0.03461772775010567</v>
       </c>
       <c r="D11">
-        <v>0.0022748484553629</v>
+        <v>0.001739476100338882</v>
       </c>
       <c r="E11">
-        <v>0.1727080846350935</v>
+        <v>0.002274848425716617</v>
       </c>
       <c r="F11">
-        <v>0.009931553863327667</v>
+        <v>0.1727080826165624</v>
       </c>
       <c r="G11">
-        <v>1.041736742835859E-05</v>
+        <v>0.00993155384874618</v>
       </c>
       <c r="H11">
-        <v>9.033479507755956E-07</v>
+        <v>1.041736738885854E-05</v>
       </c>
       <c r="I11">
-        <v>0.001523289796411274</v>
+        <v>9.033479471892122E-07</v>
       </c>
       <c r="J11">
-        <v>0.0421407678647274</v>
+        <v>0.001523289770277552</v>
       </c>
       <c r="K11">
-        <v>0.002968783007516144</v>
+        <v>0.04214076751215778</v>
       </c>
       <c r="L11">
-        <v>0.0208845653881734</v>
+        <v>0.002968783004581754</v>
       </c>
       <c r="M11">
-        <v>0.0003024705326353438</v>
+        <v>0.02088456536295083</v>
       </c>
       <c r="N11">
-        <v>3.236197834421542E-08</v>
+        <v>0.0003024705241590724</v>
       </c>
       <c r="O11">
-        <v>5.050228379072857E-05</v>
+        <v>3.236197832717314E-08</v>
       </c>
       <c r="P11">
-        <v>0.0001251274056634778</v>
+        <v>5.050228362873503E-05</v>
       </c>
       <c r="Q11">
-        <v>0.000129471148293346</v>
+        <v>0.0001251274054455563</v>
       </c>
       <c r="R11">
-        <v>0.0002207392838855741</v>
+        <v>0.0001294711480649784</v>
       </c>
       <c r="S11">
-        <v>3.34301104035639E-10</v>
+        <v>0.0002207392834288229</v>
       </c>
       <c r="T11">
-        <v>7.917687533803022E-08</v>
+        <v>3.343011034552111E-10</v>
       </c>
       <c r="U11">
-        <v>0.003045820590743514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
-        <v>0.001440246804052241</v>
+        <v>7.917687501286984E-08</v>
+      </c>
+      <c r="V11">
+        <v>0.003045820584618719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>0.6372168142525322</v>
+        <v>0.001440246813417722</v>
       </c>
       <c r="C12">
-        <v>0.07976703956997715</v>
+        <v>0.6372168150574901</v>
       </c>
       <c r="D12">
-        <v>0.1062083050475164</v>
+        <v>0.07976704023890291</v>
       </c>
       <c r="E12">
-        <v>4.704536422420069</v>
+        <v>0.1062083059051799</v>
       </c>
       <c r="F12">
-        <v>0.1437812389853063</v>
+        <v>4.704536481095666</v>
       </c>
       <c r="G12">
-        <v>0.0002276075190381431</v>
+        <v>0.143781239164393</v>
       </c>
       <c r="H12">
-        <v>0.0001474222404493094</v>
+        <v>0.0002276075199222337</v>
       </c>
       <c r="I12">
-        <v>0.07681775965392777</v>
+        <v>0.0001474222404684726</v>
       </c>
       <c r="J12">
-        <v>1.470723069102262</v>
+        <v>0.07681775992092246</v>
       </c>
       <c r="K12">
-        <v>0.1171778795343067</v>
+        <v>1.470723078920599</v>
       </c>
       <c r="L12">
-        <v>0.02330676228390094</v>
+        <v>0.117177879553827</v>
       </c>
       <c r="M12">
-        <v>0.01675322766119974</v>
+        <v>0.02330676235322178</v>
       </c>
       <c r="N12">
-        <v>2.466677332268217E-07</v>
+        <v>0.01675322773593927</v>
       </c>
       <c r="O12">
-        <v>0.0006523257250176072</v>
+        <v>2.466677334975415E-07</v>
       </c>
       <c r="P12">
-        <v>0.001241821657459624</v>
+        <v>0.0006523257284804715</v>
       </c>
       <c r="Q12">
-        <v>0.001304905159653502</v>
+        <v>0.001241821660864144</v>
       </c>
       <c r="R12">
-        <v>0.004383512448626439</v>
+        <v>0.001304905163084774</v>
       </c>
       <c r="S12">
-        <v>2.737740848362653E-09</v>
+        <v>0.004383512454396143</v>
       </c>
       <c r="T12">
-        <v>1.603706682346263E-06</v>
+        <v>2.737740855474841E-09</v>
       </c>
       <c r="U12">
-        <v>0.04916392715389003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
-        <v>0.002444220067914818</v>
+        <v>1.603706688409354E-06</v>
+      </c>
+      <c r="V12">
+        <v>0.04916392721270775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>0.9739013215349199</v>
+        <v>0.002444220085810572</v>
       </c>
       <c r="C13">
-        <v>0.1854003871109715</v>
+        <v>0.9739013230942893</v>
       </c>
       <c r="D13">
-        <v>0.2440385421721489</v>
+        <v>0.1854003883791448</v>
       </c>
       <c r="E13">
-        <v>6.910475042570924</v>
+        <v>0.2440385438000781</v>
       </c>
       <c r="F13">
-        <v>0.2745314973528981</v>
+        <v>6.910475155052036</v>
       </c>
       <c r="G13">
-        <v>0.0004186046822534216</v>
+        <v>0.2745314976974803</v>
       </c>
       <c r="H13">
-        <v>0.0001821500342256123</v>
+        <v>0.0004186046840489242</v>
       </c>
       <c r="I13">
-        <v>0.1081739517672521</v>
+        <v>0.0001821500342707042</v>
       </c>
       <c r="J13">
-        <v>3.491392295907454</v>
+        <v>0.1081739522767425</v>
       </c>
       <c r="K13">
-        <v>0.2192466562321544</v>
+        <v>3.491392314730534</v>
       </c>
       <c r="L13">
-        <v>0.03347840903146698</v>
+        <v>0.2192466562804284</v>
       </c>
       <c r="M13">
-        <v>0.02266609051676102</v>
+        <v>0.03347840938052699</v>
       </c>
       <c r="N13">
-        <v>3.870600225642098E-07</v>
+        <v>0.02266609065385854</v>
       </c>
       <c r="O13">
-        <v>0.001064864194154202</v>
+        <v>3.870600231170741E-07</v>
       </c>
       <c r="P13">
-        <v>0.002034292528552789</v>
+        <v>0.001064864200844973</v>
       </c>
       <c r="Q13">
-        <v>0.002146172400444317</v>
+        <v>0.002034292535127826</v>
       </c>
       <c r="R13">
-        <v>0.007903182011121196</v>
+        <v>0.002146172407061451</v>
       </c>
       <c r="S13">
-        <v>4.333016398475507E-09</v>
+        <v>0.007903182021835995</v>
       </c>
       <c r="T13">
-        <v>2.749860960374558E-06</v>
+        <v>4.333016414122755E-09</v>
       </c>
       <c r="U13">
-        <v>0.09029821449481717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
-        <v>0.001686106080793503</v>
+        <v>2.749860972037613E-06</v>
+      </c>
+      <c r="V13">
+        <v>0.09029821460318797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>0.723464400957767</v>
+        <v>0.001686106090762785</v>
       </c>
       <c r="C14">
-        <v>0.08197067952493875</v>
+        <v>0.7234644018747204</v>
       </c>
       <c r="D14">
-        <v>0.109989707892307</v>
+        <v>0.08197068022735469</v>
       </c>
       <c r="E14">
-        <v>6.196947016485723</v>
+        <v>0.1099897087938838</v>
       </c>
       <c r="F14">
-        <v>0.1707507604011118</v>
+        <v>6.196947078385718</v>
       </c>
       <c r="G14">
-        <v>0.0002375871838396239</v>
+        <v>0.1707507605958401</v>
       </c>
       <c r="H14">
-        <v>0.0001500038624745633</v>
+        <v>0.0002375871847816071</v>
       </c>
       <c r="I14">
-        <v>0.08282905570843975</v>
+        <v>0.0001500038624968227</v>
       </c>
       <c r="J14">
-        <v>1.537275081115763</v>
+        <v>0.08282905601852826</v>
       </c>
       <c r="K14">
-        <v>0.1205755455736395</v>
+        <v>1.537275091411936</v>
       </c>
       <c r="L14">
-        <v>0.02749938383262275</v>
+        <v>0.1205755456064769</v>
       </c>
       <c r="M14">
-        <v>0.01875526257812327</v>
+        <v>0.02749938382483959</v>
       </c>
       <c r="N14">
-        <v>2.680698749697429E-07</v>
+        <v>0.01875526266388211</v>
       </c>
       <c r="O14">
-        <v>0.0007603305398478662</v>
+        <v>2.680698752702553E-07</v>
       </c>
       <c r="P14">
-        <v>0.001699001827876856</v>
+        <v>0.0007603305436388452</v>
       </c>
       <c r="Q14">
-        <v>0.001781178133001006</v>
+        <v>0.001699001831726575</v>
       </c>
       <c r="R14">
-        <v>0.004581041627397871</v>
+        <v>0.001781178136889521</v>
       </c>
       <c r="S14">
-        <v>3.155684572040494E-09</v>
+        <v>0.004581041634490818</v>
       </c>
       <c r="T14">
-        <v>1.787673273659098E-06</v>
+        <v>3.155684579072434E-09</v>
       </c>
       <c r="U14">
-        <v>0.06068961075997561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
-        <v>0.007452921307188784</v>
+        <v>1.787673280287822E-06</v>
+      </c>
+      <c r="V14">
+        <v>0.06068961082478051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>0.8011559363185917</v>
+        <v>0.0074529213060313</v>
       </c>
       <c r="C15">
-        <v>12.43630401862616</v>
+        <v>0.8011559361883533</v>
       </c>
       <c r="D15">
-        <v>14.87577718708958</v>
+        <v>12.43630401854918</v>
       </c>
       <c r="E15">
-        <v>50.85425530462578</v>
+        <v>14.87577718698993</v>
       </c>
       <c r="F15">
-        <v>0.185420326509152</v>
+        <v>50.85425529421944</v>
       </c>
       <c r="G15">
-        <v>0.0007846963259315459</v>
+        <v>0.1854203264586634</v>
       </c>
       <c r="H15">
-        <v>2.672176885897551E-05</v>
+        <v>0.0007846963257871181</v>
       </c>
       <c r="I15">
-        <v>0.08330189606710298</v>
+        <v>2.672176885752907E-05</v>
       </c>
       <c r="J15">
-        <v>10.16158250678609</v>
+        <v>0.08330189614556351</v>
       </c>
       <c r="K15">
-        <v>0.05957553284816294</v>
+        <v>10.16158250530168</v>
       </c>
       <c r="L15">
-        <v>0.04563348897953501</v>
+        <v>0.05957553281440299</v>
       </c>
       <c r="M15">
-        <v>0.03221521116127889</v>
+        <v>0.04563348929346108</v>
       </c>
       <c r="N15">
-        <v>2.917508607939432E-07</v>
+        <v>0.03221521121209953</v>
       </c>
       <c r="O15">
-        <v>0.002654052228728387</v>
+        <v>2.917508607002805E-07</v>
       </c>
       <c r="P15">
-        <v>0.002240654462608883</v>
+        <v>0.002654052228165122</v>
       </c>
       <c r="Q15">
-        <v>0.002328867463673034</v>
+        <v>0.002240654462701083</v>
       </c>
       <c r="R15">
-        <v>0.005490033574621976</v>
+        <v>0.002328867463710532</v>
       </c>
       <c r="S15">
-        <v>1.579819143592212E-08</v>
+        <v>0.005490033575141905</v>
       </c>
       <c r="T15">
-        <v>5.018727757938939E-06</v>
+        <v>1.579819143782433E-08</v>
       </c>
       <c r="U15">
-        <v>0.06163244739475903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
-        <v>0.0001665626043475686</v>
+        <v>5.018727757387085E-06</v>
+      </c>
+      <c r="V15">
+        <v>0.06163244738871867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>0.06417485380025688</v>
+        <v>0.0001665626035051287</v>
       </c>
       <c r="C16">
-        <v>0.003148154944622123</v>
+        <v>0.06417485362682471</v>
       </c>
       <c r="D16">
-        <v>0.004243014308965182</v>
+        <v>0.003148154879497274</v>
       </c>
       <c r="E16">
-        <v>0.1787814813468032</v>
+        <v>0.004243014222949885</v>
       </c>
       <c r="F16">
-        <v>0.01427287323157663</v>
+        <v>0.1787814727602061</v>
       </c>
       <c r="G16">
-        <v>7.732679895706144E-06</v>
+        <v>0.01427287318522536</v>
       </c>
       <c r="H16">
-        <v>1.44066953475663E-05</v>
+        <v>7.732679715970496E-06</v>
       </c>
       <c r="I16">
-        <v>0.004894198788326388</v>
+        <v>1.440669534940952E-05</v>
       </c>
       <c r="J16">
-        <v>0.06649914950056499</v>
+        <v>0.004894198729085924</v>
       </c>
       <c r="K16">
-        <v>0.00236012232134217</v>
+        <v>0.06649914835584693</v>
       </c>
       <c r="L16">
-        <v>0.0008281552229390052</v>
+        <v>0.002360122278393748</v>
       </c>
       <c r="M16">
-        <v>0.001651304038742919</v>
+        <v>0.0008281552240994724</v>
       </c>
       <c r="N16">
-        <v>3.992359775910661E-08</v>
+        <v>0.001651304050030998</v>
       </c>
       <c r="O16">
-        <v>7.762011698132405E-05</v>
+        <v>3.992359766517276E-08</v>
       </c>
       <c r="P16">
-        <v>0.0002904709247735935</v>
+        <v>7.762011643101135E-05</v>
       </c>
       <c r="Q16">
-        <v>0.0003080268025238233</v>
+        <v>0.0002904709242631594</v>
       </c>
       <c r="R16">
-        <v>0.0001380484688552128</v>
+        <v>0.000308026802011428</v>
       </c>
       <c r="S16">
-        <v>2.719825436383072E-10</v>
+        <v>0.000138048467364752</v>
       </c>
       <c r="T16">
-        <v>1.403803809875656E-07</v>
+        <v>2.719825426458903E-10</v>
       </c>
       <c r="U16">
-        <v>0.006057706612945329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
-        <v>0.0001800963232621803</v>
+        <v>1.403803800190702E-07</v>
+      </c>
+      <c r="V16">
+        <v>0.006057706607129874</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>0.05946456479222027</v>
+        <v>0.0001800963211665666</v>
       </c>
       <c r="C17">
-        <v>0.003280486792239678</v>
+        <v>0.05946456423421999</v>
       </c>
       <c r="D17">
-        <v>0.004459450449717744</v>
+        <v>0.00328048667293659</v>
       </c>
       <c r="E17">
-        <v>0.2154058366975893</v>
+        <v>0.004459450294001232</v>
       </c>
       <c r="F17">
-        <v>0.01472402602585713</v>
+        <v>0.2154058208196384</v>
       </c>
       <c r="G17">
-        <v>7.501697364710505E-06</v>
+        <v>0.01472402588723096</v>
       </c>
       <c r="H17">
-        <v>2.429200861014622E-05</v>
+        <v>7.501696882989429E-06</v>
       </c>
       <c r="I17">
-        <v>0.004801345546485722</v>
+        <v>2.429200859427743E-05</v>
       </c>
       <c r="J17">
-        <v>0.0806777658476651</v>
+        <v>0.004801345270779434</v>
       </c>
       <c r="K17">
-        <v>0.0009118518139960481</v>
+        <v>0.08067776369507482</v>
       </c>
       <c r="L17">
-        <v>0.0008546996702438673</v>
+        <v>0.0009118517069953515</v>
       </c>
       <c r="M17">
-        <v>0.001628072420187003</v>
+        <v>0.0008546997902054179</v>
       </c>
       <c r="N17">
-        <v>3.438117393386032E-08</v>
+        <v>0.001628072402039563</v>
       </c>
       <c r="O17">
-        <v>0.000112935420257864</v>
+        <v>3.438117370906817E-08</v>
       </c>
       <c r="P17">
-        <v>0.0003028718487290117</v>
+        <v>0.0001129354189530594</v>
       </c>
       <c r="Q17">
-        <v>0.0003203858450480794</v>
+        <v>0.0003028718474336064</v>
       </c>
       <c r="R17">
-        <v>0.0001155305653701839</v>
+        <v>0.0003203858437155765</v>
       </c>
       <c r="S17">
-        <v>2.638945207803857E-10</v>
+        <v>0.0001155305605376002</v>
       </c>
       <c r="T17">
-        <v>1.610902867763848E-07</v>
+        <v>2.638945190638578E-10</v>
       </c>
       <c r="U17">
-        <v>0.006001468118922476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
-        <v>-0.0002703665009362999</v>
+        <v>1.610902840196363E-07</v>
+      </c>
+      <c r="V17">
+        <v>0.006001468087747041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>-2.37265184189197</v>
+        <v>-0.0002703665010079054</v>
       </c>
       <c r="C18">
-        <v>-0.1200802839211729</v>
+        <v>-2.372651841901257</v>
       </c>
       <c r="D18">
-        <v>-0.1599095142483323</v>
+        <v>-0.1200802839246686</v>
       </c>
       <c r="E18">
-        <v>-1.26315388120802</v>
+        <v>-0.159909514252844</v>
       </c>
       <c r="F18">
-        <v>-0.007842791157148428</v>
+        <v>-1.263153881524834</v>
       </c>
       <c r="G18">
-        <v>-5.136435230583489E-06</v>
+        <v>-0.007842791159423107</v>
       </c>
       <c r="H18">
-        <v>-2.141437714894802E-05</v>
+        <v>-5.136435236597021E-06</v>
       </c>
       <c r="I18">
-        <v>-0.02399076779884507</v>
+        <v>-2.141437714927917E-05</v>
       </c>
       <c r="J18">
-        <v>-2.349318089078102</v>
+        <v>-0.02399076780294145</v>
       </c>
       <c r="K18">
-        <v>-0.00104109079284223</v>
+        <v>-2.349318089127402</v>
       </c>
       <c r="L18">
-        <v>-0.0005414004422667552</v>
+        <v>-0.001041090793226161</v>
       </c>
       <c r="M18">
-        <v>-0.001682385505922581</v>
+        <v>-0.000541400451110745</v>
       </c>
       <c r="N18">
-        <v>-1.016975884459606E-06</v>
+        <v>-0.001682385507090649</v>
       </c>
       <c r="O18">
-        <v>-9.103762029114923E-05</v>
+        <v>-1.016975884461976E-06</v>
       </c>
       <c r="P18">
-        <v>-0.0006013723818688901</v>
+        <v>-9.103762032067246E-05</v>
       </c>
       <c r="Q18">
-        <v>-0.0006054442885117022</v>
+        <v>-0.0006013723819012911</v>
       </c>
       <c r="R18">
-        <v>-0.003722391162908303</v>
+        <v>-0.0006054442885458187</v>
       </c>
       <c r="S18">
-        <v>-6.901632086871735E-09</v>
+        <v>-0.00372239116298852</v>
       </c>
       <c r="T18">
-        <v>-2.884030310870258E-06</v>
+        <v>-6.901632087006361E-09</v>
       </c>
       <c r="U18">
-        <v>-0.003060162412579179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
-        <v>-0.0001926107895257512</v>
+        <v>-2.884030310922471E-06</v>
+      </c>
+      <c r="V18">
+        <v>-0.003060162413445113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>-3.020232371427563</v>
+        <v>-0.0001926107895501777</v>
       </c>
       <c r="C19">
-        <v>-0.1585580381497712</v>
+        <v>-3.020232371432147</v>
       </c>
       <c r="D19">
-        <v>-0.2295974278090507</v>
+        <v>-0.1585580381505579</v>
       </c>
       <c r="E19">
-        <v>-8.832198441572388</v>
+        <v>-0.2295974278100845</v>
       </c>
       <c r="F19">
-        <v>-0.004982771803487034</v>
+        <v>-8.832198441651535</v>
       </c>
       <c r="G19">
-        <v>-2.600694338193465E-06</v>
+        <v>-0.004982771804642287</v>
       </c>
       <c r="H19">
-        <v>-4.71296750203573E-06</v>
+        <v>-2.60069434013564E-06</v>
       </c>
       <c r="I19">
-        <v>-0.009844745954480554</v>
+        <v>-4.712967502190845E-06</v>
       </c>
       <c r="J19">
-        <v>-1.917227264277136</v>
+        <v>-0.009844745956714878</v>
       </c>
       <c r="K19">
-        <v>-0.0004261771981209655</v>
+        <v>-1.917227264287437</v>
       </c>
       <c r="L19">
-        <v>-0.0002952296233591761</v>
+        <v>-0.000426177198316771</v>
       </c>
       <c r="M19">
-        <v>-0.001009659055673083</v>
+        <v>-0.0002952296183495175</v>
       </c>
       <c r="N19">
-        <v>-2.203428893424636E-07</v>
+        <v>-0.001009659056359852</v>
       </c>
       <c r="O19">
-        <v>-6.324301916593746E-05</v>
+        <v>-2.203428893431695E-07</v>
       </c>
       <c r="P19">
-        <v>-0.0004640577321045981</v>
+        <v>-6.3243019177061E-05</v>
       </c>
       <c r="Q19">
-        <v>-0.0004665276035992876</v>
+        <v>-0.0004640577321163179</v>
       </c>
       <c r="R19">
-        <v>-0.001527602343305675</v>
+        <v>-0.0004665276036123376</v>
       </c>
       <c r="S19">
-        <v>-8.797267534303203E-09</v>
+        <v>-0.001527602343349098</v>
       </c>
       <c r="T19">
-        <v>-3.316482484575654E-06</v>
+        <v>-8.797267534281286E-09</v>
       </c>
       <c r="U19">
-        <v>-0.001920371172550706</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>-0.000163908679104351</v>
+        <v>-3.316482484596772E-06</v>
+      </c>
+      <c r="V19">
+        <v>-0.001920371173027031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>-2.550880668125965</v>
+        <v>-0.0001639086791379191</v>
       </c>
       <c r="C20">
-        <v>-0.1339112701554068</v>
+        <v>-2.550880668132456</v>
       </c>
       <c r="D20">
-        <v>-0.1939066745780078</v>
+        <v>-0.1339112701566305</v>
       </c>
       <c r="E20">
-        <v>-7.460027109488524</v>
+        <v>-0.1939066745795889</v>
       </c>
       <c r="F20">
-        <v>-0.004342334970835401</v>
+        <v>-7.460027109601704</v>
       </c>
       <c r="G20">
-        <v>-2.36643463279159E-06</v>
+        <v>-0.004342334972359238</v>
       </c>
       <c r="H20">
-        <v>-4.0001921032859E-06</v>
+        <v>-2.366434635568344E-06</v>
       </c>
       <c r="I20">
-        <v>-0.008617201770528552</v>
+        <v>-4.000192103462117E-06</v>
       </c>
       <c r="J20">
-        <v>-1.619220927513707</v>
+        <v>-0.008617201773364983</v>
       </c>
       <c r="K20">
-        <v>-0.0003756151435793617</v>
+        <v>-1.619220927530003</v>
       </c>
       <c r="L20">
-        <v>-0.0002616834057553023</v>
+        <v>-0.0003756151438455242</v>
       </c>
       <c r="M20">
-        <v>-0.0009631102651987682</v>
+        <v>-0.000261683396004602</v>
       </c>
       <c r="N20">
-        <v>-1.861432755435391E-07</v>
+        <v>-0.0009631102660097976</v>
       </c>
       <c r="O20">
-        <v>-5.508284451739301E-05</v>
+        <v>-1.861432755448074E-07</v>
       </c>
       <c r="P20">
-        <v>-0.0003933495480513232</v>
+        <v>-5.508284453220902E-05</v>
       </c>
       <c r="Q20">
-        <v>-0.0003955901471630077</v>
+        <v>-0.0003933495480692887</v>
       </c>
       <c r="R20">
-        <v>-0.001449466083564873</v>
+        <v>-0.0003955901471824342</v>
       </c>
       <c r="S20">
-        <v>-7.43083473961026E-09</v>
+        <v>-0.001449466083616342</v>
       </c>
       <c r="T20">
-        <v>-2.803485651905835E-06</v>
+        <v>-7.430834739555668E-09</v>
       </c>
       <c r="U20">
-        <v>-0.001684653513013104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <v>-0.001395958796000865</v>
+        <v>-2.803485651934429E-06</v>
+      </c>
+      <c r="V20">
+        <v>-0.001684653513616403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>-0.756079751887516</v>
+        <v>-0.001395958796121129</v>
       </c>
       <c r="C21">
-        <v>-0.01826306648995484</v>
+        <v>-0.7560797519038288</v>
       </c>
       <c r="D21">
-        <v>-0.02424443902241439</v>
+        <v>-0.01826306649439019</v>
       </c>
       <c r="E21">
-        <v>-0.1419770716828003</v>
+        <v>-0.02424443902812597</v>
       </c>
       <c r="F21">
-        <v>-0.02676679738325055</v>
+        <v>-0.1419770721080243</v>
       </c>
       <c r="G21">
-        <v>-9.553340506498326E-06</v>
+        <v>-0.02676679738734044</v>
       </c>
       <c r="H21">
-        <v>-0.0002332124981770885</v>
+        <v>-9.553340514772542E-06</v>
       </c>
       <c r="I21">
-        <v>-0.006439796875104771</v>
+        <v>-0.0002332124981776974</v>
       </c>
       <c r="J21">
-        <v>-0.4334910774497948</v>
+        <v>-0.006439796882414821</v>
       </c>
       <c r="K21">
-        <v>-0.00181318059205578</v>
+        <v>-0.4334910775065842</v>
       </c>
       <c r="L21">
-        <v>-0.0007497013816182962</v>
+        <v>-0.001813180592251006</v>
       </c>
       <c r="M21">
-        <v>-0.002686348869026963</v>
+        <v>-0.0007497013664429397</v>
       </c>
       <c r="N21">
-        <v>-1.167331374787922E-05</v>
+        <v>-0.002686348871359832</v>
       </c>
       <c r="O21">
-        <v>-0.0004374718565732491</v>
+        <v>-1.167331374788234E-05</v>
       </c>
       <c r="P21">
-        <v>-0.003155472648708819</v>
+        <v>-0.0004374718566248808</v>
       </c>
       <c r="Q21">
-        <v>-0.003166045751120051</v>
+        <v>-0.003155472648763493</v>
       </c>
       <c r="R21">
-        <v>-0.002119597160295259</v>
+        <v>-0.003166045751179451</v>
       </c>
       <c r="S21">
-        <v>-2.85128186542541E-09</v>
+        <v>-0.002119597160466482</v>
       </c>
       <c r="T21">
-        <v>-1.111285648720291E-06</v>
+        <v>-2.85128186538362E-09</v>
       </c>
       <c r="U21">
-        <v>-0.009781148760332186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22">
-        <v>0.0001243276865334999</v>
+        <v>-1.11128564880551E-06</v>
+      </c>
+      <c r="V21">
+        <v>-0.009781148762007957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B22">
-        <v>0.02863769588957772</v>
+        <v>0.0001243276866177336</v>
       </c>
       <c r="C22">
-        <v>0.001085950376931576</v>
+        <v>0.02863769589443061</v>
       </c>
       <c r="D22">
-        <v>0.001203462708657432</v>
+        <v>0.001085950383852027</v>
       </c>
       <c r="E22">
-        <v>0.07028015326285436</v>
+        <v>0.001203462717565334</v>
       </c>
       <c r="F22">
-        <v>0.01613015405034236</v>
+        <v>0.0702801538725461</v>
       </c>
       <c r="G22">
-        <v>1.042370419264235E-05</v>
+        <v>0.01613015405166459</v>
       </c>
       <c r="H22">
-        <v>4.367342421853665E-05</v>
+        <v>1.042370420230484E-05</v>
       </c>
       <c r="I22">
-        <v>0.001138779908327672</v>
+        <v>4.367342421882244E-05</v>
       </c>
       <c r="J22">
-        <v>0.02180390566298631</v>
+        <v>0.001138779911766455</v>
       </c>
       <c r="K22">
-        <v>0.00161413432158376</v>
+        <v>0.02180390576427527</v>
       </c>
       <c r="L22">
-        <v>0.006308440123575195</v>
+        <v>0.001614134321625172</v>
       </c>
       <c r="M22">
-        <v>0.0002176138638648869</v>
+        <v>0.006308440123193925</v>
       </c>
       <c r="N22">
-        <v>5.338596179726291E-08</v>
+        <v>0.0002176138646643324</v>
       </c>
       <c r="O22">
-        <v>3.81596644775819E-05</v>
+        <v>5.338596179794861E-08</v>
       </c>
       <c r="P22">
-        <v>0.0005466381237303078</v>
+        <v>3.815966451084339E-05</v>
       </c>
       <c r="Q22">
-        <v>0.0008454525271692497</v>
+        <v>0.0005466381237456295</v>
       </c>
       <c r="R22">
-        <v>0.004763877567275732</v>
+        <v>0.0008454525271845065</v>
       </c>
       <c r="S22">
-        <v>2.803087480189123E-10</v>
+        <v>0.004763877567324038</v>
       </c>
       <c r="T22">
-        <v>7.042486370612559E-08</v>
+        <v>2.803087480680985E-10</v>
       </c>
       <c r="U22">
-        <v>0.006196128877896685</v>
+        <v>7.042486376615352E-08</v>
+      </c>
+      <c r="V22">
+        <v>0.00619612887830544</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>'steel recycling' (kilogram, RER, None)</t>
   </si>
   <si>
     <t>'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)</t>
@@ -497,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,67 +579,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0007172858226591937</v>
+        <v>0.0007172858205863946</v>
       </c>
       <c r="C2">
-        <v>0.2476010127823798</v>
+        <v>0.2476010124132689</v>
       </c>
       <c r="D2">
-        <v>0.007638919670045573</v>
+        <v>0.007638919561047276</v>
       </c>
       <c r="E2">
-        <v>0.01007273945460103</v>
+        <v>0.01007273931400546</v>
       </c>
       <c r="F2">
-        <v>0.6735796795611869</v>
+        <v>0.6735796700220829</v>
       </c>
       <c r="G2">
-        <v>0.1497433289582103</v>
+        <v>0.1497433288510999</v>
       </c>
       <c r="H2">
-        <v>5.476664513112171E-05</v>
+        <v>5.476664494770941E-05</v>
       </c>
       <c r="I2">
-        <v>7.73726859172265E-06</v>
+        <v>7.737268578870763E-06</v>
       </c>
       <c r="J2">
-        <v>0.009802520141825021</v>
+        <v>0.009802520000627257</v>
       </c>
       <c r="K2">
-        <v>0.1526597173361643</v>
+        <v>0.1526597158159187</v>
       </c>
       <c r="L2">
-        <v>0.01108799457987285</v>
+        <v>0.01108799457209496</v>
       </c>
       <c r="M2">
-        <v>0.004108042023276777</v>
+        <v>0.004108041913942138</v>
       </c>
       <c r="N2">
-        <v>0.002434545194762226</v>
+        <v>0.002434545158856471</v>
       </c>
       <c r="O2">
-        <v>4.656145846387809E-08</v>
+        <v>4.656145836550634E-08</v>
       </c>
       <c r="P2">
-        <v>0.0003086847796506381</v>
+        <v>0.0003086847787609868</v>
       </c>
       <c r="Q2">
-        <v>0.0005812956185708715</v>
+        <v>0.0005812956169746583</v>
       </c>
       <c r="R2">
-        <v>0.0006158725338788586</v>
+        <v>0.0006158725321343524</v>
       </c>
       <c r="S2">
-        <v>0.002000869314931992</v>
+        <v>0.002000869312765366</v>
       </c>
       <c r="T2">
-        <v>1.012221230263815E-09</v>
+        <v>1.012221227273204E-09</v>
       </c>
       <c r="U2">
-        <v>4.961592805295296E-07</v>
+        <v>4.961592788063003E-07</v>
       </c>
       <c r="V2">
-        <v>0.05715518801870324</v>
+        <v>0.05715518797360822</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -641,67 +647,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.002052429302680412</v>
+        <v>0.002052429116504303</v>
       </c>
       <c r="C3">
-        <v>0.7085726059190411</v>
+        <v>0.7085725581597672</v>
       </c>
       <c r="D3">
-        <v>0.02185264058719703</v>
+        <v>0.0218526341443191</v>
       </c>
       <c r="E3">
-        <v>0.02881605936291776</v>
+        <v>0.02881605097634806</v>
       </c>
       <c r="F3">
-        <v>1.926021838467711</v>
+        <v>1.926021312207436</v>
       </c>
       <c r="G3">
-        <v>0.4284085119813798</v>
+        <v>0.4284084970341085</v>
       </c>
       <c r="H3">
-        <v>0.0001570287134844438</v>
+        <v>0.0001570286981293993</v>
       </c>
       <c r="I3">
-        <v>2.241806640748683E-05</v>
+        <v>2.241806401659907E-05</v>
       </c>
       <c r="J3">
-        <v>0.02806666551542845</v>
+        <v>0.02806665055029835</v>
       </c>
       <c r="K3">
-        <v>0.4371104052309813</v>
+        <v>0.4371103046633947</v>
       </c>
       <c r="L3">
-        <v>0.03189183548179637</v>
+        <v>0.03189183415537099</v>
       </c>
       <c r="M3">
-        <v>0.01197444731836038</v>
+        <v>0.01197443792159359</v>
       </c>
       <c r="N3">
-        <v>0.006964031748665449</v>
+        <v>0.006964027864480823</v>
       </c>
       <c r="O3">
-        <v>1.335684929439003E-07</v>
+        <v>1.335684850267721E-07</v>
       </c>
       <c r="P3">
-        <v>0.0008831184148803699</v>
+        <v>0.0008831183419753461</v>
       </c>
       <c r="Q3">
-        <v>0.001663931913019943</v>
+        <v>0.001663931781448774</v>
       </c>
       <c r="R3">
-        <v>0.001763208264375804</v>
+        <v>0.001763208109703314</v>
       </c>
       <c r="S3">
-        <v>0.00575878121648915</v>
+        <v>0.005758780950677136</v>
       </c>
       <c r="T3">
-        <v>2.89887627596207E-09</v>
+        <v>2.898875977745303E-09</v>
       </c>
       <c r="U3">
-        <v>1.419896834739364E-06</v>
+        <v>1.419896671270584E-06</v>
       </c>
       <c r="V3">
-        <v>0.1635073491629384</v>
+        <v>0.1635073429149324</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -709,67 +715,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.2926121471543339</v>
+        <v>0.2902900430388984</v>
       </c>
       <c r="C4">
-        <v>67.60476026645823</v>
+        <v>67.11489758423517</v>
       </c>
       <c r="D4">
-        <v>5.628516477181527</v>
+        <v>5.585698662795999</v>
       </c>
       <c r="E4">
-        <v>7.147256955555438</v>
+        <v>7.096970068555442</v>
       </c>
       <c r="F4">
-        <v>165.7995250720273</v>
+        <v>171.4530002688095</v>
       </c>
       <c r="G4">
-        <v>15.34593522635629</v>
+        <v>15.24296106193048</v>
       </c>
       <c r="H4">
-        <v>0.02516519711815085</v>
+        <v>0.02498211484110116</v>
       </c>
       <c r="I4">
-        <v>0.002877731856540782</v>
+        <v>0.002860085427165215</v>
       </c>
       <c r="J4">
-        <v>11.81339523916165</v>
+        <v>12.07028877084176</v>
       </c>
       <c r="K4">
-        <v>74.48885178414118</v>
+        <v>74.00182901069024</v>
       </c>
       <c r="L4">
-        <v>4.842772615153978</v>
+        <v>4.81182504112223</v>
       </c>
       <c r="M4">
-        <v>1.318171331746827</v>
+        <v>1.314610652348169</v>
       </c>
       <c r="N4">
-        <v>1.113191255494747</v>
+        <v>1.126393645233239</v>
       </c>
       <c r="O4">
-        <v>1.666525701140069E-05</v>
+        <v>1.655983359760903E-05</v>
       </c>
       <c r="P4">
-        <v>0.1267996993406274</v>
+        <v>0.1262312689292344</v>
       </c>
       <c r="Q4">
-        <v>0.1696575949284417</v>
+        <v>0.1684118799336703</v>
       </c>
       <c r="R4">
-        <v>0.1732763349316006</v>
+        <v>0.1720224774533709</v>
       </c>
       <c r="S4">
-        <v>0.6963203634156574</v>
+        <v>0.6934099811253059</v>
       </c>
       <c r="T4">
-        <v>3.08825837410719E-07</v>
+        <v>3.066751321292848E-07</v>
       </c>
       <c r="U4">
-        <v>0.0002003468460587838</v>
+        <v>0.0002002695364231822</v>
       </c>
       <c r="V4">
-        <v>3.383806319695433</v>
+        <v>3.368791421447343</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -777,67 +783,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.1744351753636339</v>
+        <v>0.1721226448600199</v>
       </c>
       <c r="C5">
-        <v>40.26300478309686</v>
+        <v>39.77606277478282</v>
       </c>
       <c r="D5">
-        <v>3.35830999652015</v>
+        <v>3.315820412007004</v>
       </c>
       <c r="E5">
-        <v>4.264337931073019</v>
+        <v>4.21447292702434</v>
       </c>
       <c r="F5">
-        <v>98.63498193330858</v>
+        <v>104.2998573791524</v>
       </c>
       <c r="G5">
-        <v>9.104724243806665</v>
+        <v>9.002532145049532</v>
       </c>
       <c r="H5">
-        <v>0.01499755929666903</v>
+        <v>0.01481639187360607</v>
       </c>
       <c r="I5">
-        <v>0.001713004361796226</v>
+        <v>0.001695719994908829</v>
       </c>
       <c r="J5">
-        <v>7.052533307811868</v>
+        <v>7.309670030086922</v>
       </c>
       <c r="K5">
-        <v>44.38572186470959</v>
+        <v>43.90438263820416</v>
       </c>
       <c r="L5">
-        <v>2.885194171856304</v>
+        <v>2.85533500455009</v>
       </c>
       <c r="M5">
-        <v>0.78580056588298</v>
+        <v>0.782347816255424</v>
       </c>
       <c r="N5">
-        <v>0.661636121318616</v>
+        <v>0.6748752964489219</v>
       </c>
       <c r="O5">
-        <v>9.92071439036191E-06</v>
+        <v>9.81643664915931E-06</v>
       </c>
       <c r="P5">
-        <v>0.07557572185678774</v>
+        <v>0.07501110062164412</v>
       </c>
       <c r="Q5">
-        <v>0.1010804646369605</v>
+        <v>0.09984019761056201</v>
       </c>
       <c r="R5">
-        <v>0.1032192732184992</v>
+        <v>0.101971177369138</v>
       </c>
       <c r="S5">
-        <v>0.4135629691015247</v>
+        <v>0.4106851124666266</v>
       </c>
       <c r="T5">
-        <v>1.839808556364532E-07</v>
+        <v>1.818437447734774E-07</v>
       </c>
       <c r="U5">
-        <v>0.0001194149024630528</v>
+        <v>0.0001193448865855156</v>
       </c>
       <c r="V5">
-        <v>1.99869732728778</v>
+        <v>1.983882822131776</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -845,67 +851,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.009221070973897124</v>
+        <v>0.009221070797286556</v>
       </c>
       <c r="C6">
-        <v>2.613780889874965</v>
+        <v>2.613780863760995</v>
       </c>
       <c r="D6">
-        <v>0.5237057546641026</v>
+        <v>0.5237057457294819</v>
       </c>
       <c r="E6">
-        <v>0.6594677343320928</v>
+        <v>0.65946772279606</v>
       </c>
       <c r="F6">
-        <v>27.28412816628965</v>
+        <v>27.28412729681972</v>
       </c>
       <c r="G6">
-        <v>0.6726728535917488</v>
+        <v>0.672672846134448</v>
       </c>
       <c r="H6">
-        <v>0.002558289057147708</v>
+        <v>0.002558289042369886</v>
       </c>
       <c r="I6">
-        <v>0.001769465490347368</v>
+        <v>0.001769465490088388</v>
       </c>
       <c r="J6">
-        <v>0.2443130902436057</v>
+        <v>0.2443130885317085</v>
       </c>
       <c r="K6">
-        <v>7.418088196571201</v>
+        <v>7.418088057750522</v>
       </c>
       <c r="L6">
-        <v>0.7194758494855367</v>
+        <v>0.7194758475534186</v>
       </c>
       <c r="M6">
-        <v>0.4853171487199046</v>
+        <v>0.4853171429234385</v>
       </c>
       <c r="N6">
-        <v>0.05620282835971264</v>
+        <v>0.05620282870232673</v>
       </c>
       <c r="O6">
-        <v>2.905570438954906E-06</v>
+        <v>2.905570427971262E-06</v>
       </c>
       <c r="P6">
-        <v>0.003190112486867853</v>
+        <v>0.003190112403743575</v>
       </c>
       <c r="Q6">
-        <v>0.005521833644000322</v>
+        <v>0.005521833497151568</v>
       </c>
       <c r="R6">
-        <v>0.005660185804998582</v>
+        <v>0.005660185650096094</v>
       </c>
       <c r="S6">
-        <v>0.04791135597627674</v>
+        <v>0.04791135589781953</v>
       </c>
       <c r="T6">
-        <v>1.676798366797057E-08</v>
+        <v>1.676798345874571E-08</v>
       </c>
       <c r="U6">
-        <v>7.051189932409196E-06</v>
+        <v>7.051189818276591E-06</v>
       </c>
       <c r="V6">
-        <v>0.1411066838610118</v>
+        <v>0.1411066813705004</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -913,67 +919,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.02530154834404853</v>
+        <v>0.02530154838688309</v>
       </c>
       <c r="C7">
-        <v>5.804199981968098</v>
+        <v>5.804199993150969</v>
       </c>
       <c r="D7">
-        <v>3.252090705001601</v>
+        <v>3.252090702164653</v>
       </c>
       <c r="E7">
-        <v>3.926635963070761</v>
+        <v>3.92663595951184</v>
       </c>
       <c r="F7">
-        <v>13.22407613444603</v>
+        <v>13.22407591024963</v>
       </c>
       <c r="G7">
-        <v>1.23734157577883</v>
+        <v>1.237341580424299</v>
       </c>
       <c r="H7">
-        <v>0.001834956720745917</v>
+        <v>0.00183495671694368</v>
       </c>
       <c r="I7">
-        <v>0.0001424809149365362</v>
+        <v>0.0001424809158303506</v>
       </c>
       <c r="J7">
-        <v>1.104179394867693</v>
+        <v>1.104179391984044</v>
       </c>
       <c r="K7">
-        <v>9.089711872477569</v>
+        <v>9.08971184404642</v>
       </c>
       <c r="L7">
-        <v>0.1135132797559816</v>
+        <v>0.1135132791838008</v>
       </c>
       <c r="M7">
-        <v>0.07736411563592326</v>
+        <v>0.07736411751587555</v>
       </c>
       <c r="N7">
-        <v>0.1088357601546512</v>
+        <v>0.1088357599630572</v>
       </c>
       <c r="O7">
-        <v>1.481457688890951E-06</v>
+        <v>1.481457691354612E-06</v>
       </c>
       <c r="P7">
-        <v>0.01110264507781764</v>
+        <v>0.01110264508798453</v>
       </c>
       <c r="Q7">
-        <v>0.01538134123719932</v>
+        <v>0.01538134130078015</v>
       </c>
       <c r="R7">
-        <v>0.01563481720932655</v>
+        <v>0.0156348172812216</v>
       </c>
       <c r="S7">
-        <v>0.03521361402979045</v>
+        <v>0.03521361404559688</v>
       </c>
       <c r="T7">
-        <v>2.836547559743464E-08</v>
+        <v>2.836547565633721E-08</v>
       </c>
       <c r="U7">
-        <v>1.819359489638951E-05</v>
+        <v>1.819359489720294E-05</v>
       </c>
       <c r="V7">
-        <v>0.2638603437625603</v>
+        <v>0.2638603458660876</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -981,67 +987,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.0005037847341087873</v>
+        <v>0.0005037847451426213</v>
       </c>
       <c r="C8">
-        <v>0.208409867813794</v>
+        <v>0.2084098686305832</v>
       </c>
       <c r="D8">
-        <v>0.01250017914284438</v>
+        <v>0.01250017988579287</v>
       </c>
       <c r="E8">
-        <v>0.01630201213709701</v>
+        <v>0.01630201309581224</v>
       </c>
       <c r="F8">
-        <v>0.6245137642433647</v>
+        <v>0.624513829324929</v>
       </c>
       <c r="G8">
-        <v>0.05471552648299119</v>
+        <v>0.05471552660654222</v>
       </c>
       <c r="H8">
-        <v>0.0001634954713703035</v>
+        <v>0.0001634954725948268</v>
       </c>
       <c r="I8">
-        <v>1.188510941238676E-05</v>
+        <v>1.188510950284984E-05</v>
       </c>
       <c r="J8">
-        <v>0.01662770223567023</v>
+        <v>0.01662770294592123</v>
       </c>
       <c r="K8">
-        <v>0.2947844907210351</v>
+        <v>0.2947845019301868</v>
       </c>
       <c r="L8">
-        <v>0.06328972159019754</v>
+        <v>0.06328972167734032</v>
       </c>
       <c r="M8">
-        <v>0.04349396231541356</v>
+        <v>0.04349396139695492</v>
       </c>
       <c r="N8">
-        <v>0.002096436110137786</v>
+        <v>0.002096436299937704</v>
       </c>
       <c r="O8">
-        <v>2.090750672734474E-07</v>
+        <v>2.090750675908016E-07</v>
       </c>
       <c r="P8">
-        <v>0.0001699537440602577</v>
+        <v>0.0001699537483528872</v>
       </c>
       <c r="Q8">
-        <v>0.0004089896507679458</v>
+        <v>0.0004089896536113029</v>
       </c>
       <c r="R8">
-        <v>0.0004182080260600769</v>
+        <v>0.0004182080287973072</v>
       </c>
       <c r="S8">
-        <v>0.003495028317303268</v>
+        <v>0.00349502833025262</v>
       </c>
       <c r="T8">
-        <v>1.257077526142608E-09</v>
+        <v>1.257077525146718E-09</v>
       </c>
       <c r="U8">
-        <v>4.313872655248885E-07</v>
+        <v>4.313872739253504E-07</v>
       </c>
       <c r="V8">
-        <v>0.01031957045217975</v>
+        <v>0.01031957049305035</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1049,67 +1055,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.00630352115370954</v>
+        <v>0.006303521149544376</v>
       </c>
       <c r="C9">
-        <v>2.378755637297624</v>
+        <v>2.378755636612428</v>
       </c>
       <c r="D9">
-        <v>0.05408767079657541</v>
+        <v>0.05408767047348152</v>
       </c>
       <c r="E9">
-        <v>0.07208146453979183</v>
+        <v>0.07208146412484485</v>
       </c>
       <c r="F9">
-        <v>5.129597056261876</v>
+        <v>5.129597028461249</v>
       </c>
       <c r="G9">
-        <v>1.713173814985671</v>
+        <v>1.713173814739194</v>
       </c>
       <c r="H9">
-        <v>0.0003886539706415083</v>
+        <v>0.0003886539702004281</v>
       </c>
       <c r="I9">
-        <v>3.880851509623564E-05</v>
+        <v>3.880851510870865E-05</v>
       </c>
       <c r="J9">
-        <v>0.08570471170434558</v>
+        <v>0.08570471164021171</v>
       </c>
       <c r="K9">
-        <v>1.151822914813602</v>
+        <v>1.151822910488829</v>
       </c>
       <c r="L9">
-        <v>0.04709684705838323</v>
+        <v>0.04709684705093588</v>
       </c>
       <c r="M9">
-        <v>0.01837651481080835</v>
+        <v>0.01837651352645435</v>
       </c>
       <c r="N9">
-        <v>0.02050259067326626</v>
+        <v>0.02050259064345443</v>
       </c>
       <c r="O9">
-        <v>2.695596547892098E-07</v>
+        <v>2.69559654592323E-07</v>
       </c>
       <c r="P9">
-        <v>0.002388588637840936</v>
+        <v>0.002388588636151023</v>
       </c>
       <c r="Q9">
-        <v>0.004929617340697525</v>
+        <v>0.004929617336492582</v>
       </c>
       <c r="R9">
-        <v>0.005278743536640286</v>
+        <v>0.005278743531950749</v>
       </c>
       <c r="S9">
-        <v>0.01752713857216689</v>
+        <v>0.01752713856919999</v>
       </c>
       <c r="T9">
-        <v>9.207598075490688E-09</v>
+        <v>9.207598059803178E-09</v>
       </c>
       <c r="U9">
-        <v>4.299010275711558E-06</v>
+        <v>4.299010272805144E-06</v>
       </c>
       <c r="V9">
-        <v>0.6788007262990402</v>
+        <v>0.6788007261916564</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1117,67 +1123,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>0.01162068844491524</v>
+        <v>0.01162068838673749</v>
       </c>
       <c r="C10">
-        <v>3.466886147627521</v>
+        <v>3.466886142401511</v>
       </c>
       <c r="D10">
-        <v>0.708616187958259</v>
+        <v>0.7086161830143645</v>
       </c>
       <c r="E10">
-        <v>0.8912456370570504</v>
+        <v>0.8912456307767904</v>
       </c>
       <c r="F10">
-        <v>36.42125289301666</v>
+        <v>36.42125230593503</v>
       </c>
       <c r="G10">
-        <v>0.8974062347427548</v>
+        <v>0.8974062324988419</v>
       </c>
       <c r="H10">
-        <v>0.00320782503564048</v>
+        <v>0.003207825032211584</v>
       </c>
       <c r="I10">
-        <v>0.001413958189378907</v>
+        <v>0.001413958191170094</v>
       </c>
       <c r="J10">
-        <v>0.3160316785500221</v>
+        <v>0.3160316883760144</v>
       </c>
       <c r="K10">
-        <v>9.502532497568863</v>
+        <v>9.502532421946158</v>
       </c>
       <c r="L10">
-        <v>0.988925967409149</v>
+        <v>0.9889259674951562</v>
       </c>
       <c r="M10">
-        <v>0.664852877433654</v>
+        <v>0.6648529125975797</v>
       </c>
       <c r="N10">
-        <v>0.05724204926170606</v>
+        <v>0.0572420530368709</v>
       </c>
       <c r="O10">
-        <v>3.638717811428322E-06</v>
+        <v>3.63871780769982E-06</v>
       </c>
       <c r="P10">
-        <v>0.003997746754925566</v>
+        <v>0.003997746717120672</v>
       </c>
       <c r="Q10">
-        <v>0.007253941188714746</v>
+        <v>0.007253941085343999</v>
       </c>
       <c r="R10">
-        <v>0.00743266473731813</v>
+        <v>0.007432664630865842</v>
       </c>
       <c r="S10">
-        <v>0.05870154940864322</v>
+        <v>0.05870154955289073</v>
       </c>
       <c r="T10">
-        <v>2.217736182321467E-08</v>
+        <v>2.217736208157454E-08</v>
       </c>
       <c r="U10">
-        <v>9.091799417346803E-06</v>
+        <v>9.091799404346258E-06</v>
       </c>
       <c r="V10">
-        <v>0.1818204869703411</v>
+        <v>0.1818204865479742</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1185,67 +1191,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>0.0001182622968275282</v>
+        <v>0.0001182622977235709</v>
       </c>
       <c r="C11">
-        <v>0.03461772775010567</v>
+        <v>0.03461772830242759</v>
       </c>
       <c r="D11">
-        <v>0.001739476100338882</v>
+        <v>0.001739476070324781</v>
       </c>
       <c r="E11">
-        <v>0.002274848425716617</v>
+        <v>0.002274848386363586</v>
       </c>
       <c r="F11">
-        <v>0.1727080826165624</v>
+        <v>0.1727080770122513</v>
       </c>
       <c r="G11">
-        <v>0.00993155384874618</v>
+        <v>0.009931553946732384</v>
       </c>
       <c r="H11">
-        <v>1.041736738885854E-05</v>
+        <v>1.041736750175292E-05</v>
       </c>
       <c r="I11">
-        <v>9.033479471892122E-07</v>
+        <v>9.033480138583167E-07</v>
       </c>
       <c r="J11">
-        <v>0.001523289770277552</v>
+        <v>0.001523290340257081</v>
       </c>
       <c r="K11">
-        <v>0.04214076751215778</v>
+        <v>0.04214076692478821</v>
       </c>
       <c r="L11">
-        <v>0.002968783004581754</v>
+        <v>0.002968783024114094</v>
       </c>
       <c r="M11">
-        <v>0.02088456536295083</v>
+        <v>0.02088456591656291</v>
       </c>
       <c r="N11">
-        <v>0.0003024705241590724</v>
+        <v>0.0003024706508016892</v>
       </c>
       <c r="O11">
-        <v>3.236197832717314E-08</v>
+        <v>3.236197842745041E-08</v>
       </c>
       <c r="P11">
-        <v>5.050228362873503E-05</v>
+        <v>5.050228396578758E-05</v>
       </c>
       <c r="Q11">
-        <v>0.0001251274054455563</v>
+        <v>0.000125127405563231</v>
       </c>
       <c r="R11">
-        <v>0.0001294711480649784</v>
+        <v>0.0001294711481745347</v>
       </c>
       <c r="S11">
-        <v>0.0002207392834288229</v>
+        <v>0.0002207392896598178</v>
       </c>
       <c r="T11">
-        <v>3.343011034552111E-10</v>
+        <v>3.343011101071763E-10</v>
       </c>
       <c r="U11">
-        <v>7.917687501286984E-08</v>
+        <v>7.917687750997556E-08</v>
       </c>
       <c r="V11">
-        <v>0.003045820584618719</v>
+        <v>0.003045820627149892</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1253,67 +1259,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.001440246813417722</v>
+        <v>0.001440246806970047</v>
       </c>
       <c r="C12">
-        <v>0.6372168150574901</v>
+        <v>0.6372168138750742</v>
       </c>
       <c r="D12">
-        <v>0.07976704023890291</v>
+        <v>0.07976704009979174</v>
       </c>
       <c r="E12">
-        <v>0.1062083059051799</v>
+        <v>0.1062083057264358</v>
       </c>
       <c r="F12">
-        <v>4.704536481095666</v>
+        <v>4.704536473893028</v>
       </c>
       <c r="G12">
-        <v>0.143781239164393</v>
+        <v>0.1437812388166146</v>
       </c>
       <c r="H12">
-        <v>0.0002276075199222337</v>
+        <v>0.0002276075196301932</v>
       </c>
       <c r="I12">
-        <v>0.0001474222404684726</v>
+        <v>0.0001474222404481314</v>
       </c>
       <c r="J12">
-        <v>0.07681775992092246</v>
+        <v>0.07681775973464233</v>
       </c>
       <c r="K12">
-        <v>1.470723078920599</v>
+        <v>1.470723077377654</v>
       </c>
       <c r="L12">
-        <v>0.117177879553827</v>
+        <v>0.1171778795040317</v>
       </c>
       <c r="M12">
-        <v>0.02330676235322178</v>
+        <v>0.0233067614521093</v>
       </c>
       <c r="N12">
-        <v>0.01675322773593927</v>
+        <v>0.01675322762245345</v>
       </c>
       <c r="O12">
-        <v>2.466677334975415E-07</v>
+        <v>2.466677331761388E-07</v>
       </c>
       <c r="P12">
-        <v>0.0006523257284804715</v>
+        <v>0.0006523257258530283</v>
       </c>
       <c r="Q12">
-        <v>0.001241821660864144</v>
+        <v>0.001241821653449614</v>
       </c>
       <c r="R12">
-        <v>0.001304905163084774</v>
+        <v>0.001304905155255553</v>
       </c>
       <c r="S12">
-        <v>0.004383512454396143</v>
+        <v>0.004383512447283739</v>
       </c>
       <c r="T12">
-        <v>2.737740855474841E-09</v>
+        <v>2.737740841394402E-09</v>
       </c>
       <c r="U12">
-        <v>1.603706688409354E-06</v>
+        <v>1.603706684667732E-06</v>
       </c>
       <c r="V12">
-        <v>0.04916392721270775</v>
+        <v>0.04916392705993825</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1321,67 +1327,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.002444220085810572</v>
+        <v>0.002444220073614525</v>
       </c>
       <c r="C13">
-        <v>0.9739013230942893</v>
+        <v>0.9739013210387525</v>
       </c>
       <c r="D13">
-        <v>0.1854003883791448</v>
+        <v>0.1854003880483541</v>
       </c>
       <c r="E13">
-        <v>0.2440385438000781</v>
+        <v>0.24403854336793</v>
       </c>
       <c r="F13">
-        <v>6.910475155052036</v>
+        <v>6.910475126585938</v>
       </c>
       <c r="G13">
-        <v>0.2745314976974803</v>
+        <v>0.2745314971583174</v>
       </c>
       <c r="H13">
-        <v>0.0004186046840489242</v>
+        <v>0.0004186046832805398</v>
       </c>
       <c r="I13">
-        <v>0.0001821500342707042</v>
+        <v>0.0001821500342649074</v>
       </c>
       <c r="J13">
-        <v>0.1081739522767425</v>
+        <v>0.1081739515484673</v>
       </c>
       <c r="K13">
-        <v>3.491392314730534</v>
+        <v>3.491392310569406</v>
       </c>
       <c r="L13">
-        <v>0.2192466562804284</v>
+        <v>0.2192466561685069</v>
       </c>
       <c r="M13">
-        <v>0.03347840938052699</v>
+        <v>0.03347840880692665</v>
       </c>
       <c r="N13">
-        <v>0.02266609065385854</v>
+        <v>0.02266609049230822</v>
       </c>
       <c r="O13">
-        <v>3.870600231170741E-07</v>
+        <v>3.870600224669986E-07</v>
       </c>
       <c r="P13">
-        <v>0.001064864200844973</v>
+        <v>0.001064864194656602</v>
       </c>
       <c r="Q13">
-        <v>0.002034292535127826</v>
+        <v>0.002034292521333208</v>
       </c>
       <c r="R13">
-        <v>0.002146172407061451</v>
+        <v>0.002146172392827069</v>
       </c>
       <c r="S13">
-        <v>0.007903182021835995</v>
+        <v>0.00790318201042676</v>
       </c>
       <c r="T13">
-        <v>4.333016414122755E-09</v>
+        <v>4.333016397737879E-09</v>
       </c>
       <c r="U13">
-        <v>2.749860972037613E-06</v>
+        <v>2.749860962835149E-06</v>
       </c>
       <c r="V13">
-        <v>0.09029821460318797</v>
+        <v>0.09029821439118045</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1389,67 +1395,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.001686106090762785</v>
+        <v>0.001686106085802227</v>
       </c>
       <c r="C14">
-        <v>0.7234644018747204</v>
+        <v>0.7234644010401526</v>
       </c>
       <c r="D14">
-        <v>0.08197068022735469</v>
+        <v>0.08197068014611937</v>
       </c>
       <c r="E14">
-        <v>0.1099897087938838</v>
+        <v>0.1099897086882068</v>
       </c>
       <c r="F14">
-        <v>6.196947078385718</v>
+        <v>6.196947071543391</v>
       </c>
       <c r="G14">
-        <v>0.1707507605958401</v>
+        <v>0.1707507603274648</v>
       </c>
       <c r="H14">
-        <v>0.0002375871847816071</v>
+        <v>0.0002375871845917846</v>
       </c>
       <c r="I14">
-        <v>0.0001500038624968227</v>
+        <v>0.0001500038625081615</v>
       </c>
       <c r="J14">
-        <v>0.08282905601852826</v>
+        <v>0.08282905605884747</v>
       </c>
       <c r="K14">
-        <v>1.537275091411936</v>
+        <v>1.537275090145116</v>
       </c>
       <c r="L14">
-        <v>0.1205755456064769</v>
+        <v>0.120575545574888</v>
       </c>
       <c r="M14">
-        <v>0.02749938382483959</v>
+        <v>0.02749938445938083</v>
       </c>
       <c r="N14">
-        <v>0.01875526266388211</v>
+        <v>0.0187552626094984</v>
       </c>
       <c r="O14">
-        <v>2.680698752702553E-07</v>
+        <v>2.680698750198243E-07</v>
       </c>
       <c r="P14">
-        <v>0.0007603305436388452</v>
+        <v>0.0007603305415678537</v>
       </c>
       <c r="Q14">
-        <v>0.001699001831726575</v>
+        <v>0.001699001825279576</v>
       </c>
       <c r="R14">
-        <v>0.001781178136889521</v>
+        <v>0.001781178130102816</v>
       </c>
       <c r="S14">
-        <v>0.004581041634490818</v>
+        <v>0.004581041629933095</v>
       </c>
       <c r="T14">
-        <v>3.155684579072434E-09</v>
+        <v>3.155684580167719E-09</v>
       </c>
       <c r="U14">
-        <v>1.787673280287822E-06</v>
+        <v>1.7876732780408E-06</v>
       </c>
       <c r="V14">
-        <v>0.06068961082478051</v>
+        <v>0.06068961070675941</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1457,67 +1463,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>0.0074529213060313</v>
+        <v>0.01944632554602552</v>
       </c>
       <c r="C15">
-        <v>0.8011559361883533</v>
+        <v>5.246345808935816</v>
       </c>
       <c r="D15">
-        <v>12.43630401854918</v>
+        <v>0.4397168747915526</v>
       </c>
       <c r="E15">
-        <v>14.87577718698993</v>
+        <v>0.6439605195286419</v>
       </c>
       <c r="F15">
-        <v>50.85425529421944</v>
+        <v>160.5809017328505</v>
       </c>
       <c r="G15">
-        <v>0.1854203264586634</v>
+        <v>1.230181215798119</v>
       </c>
       <c r="H15">
-        <v>0.0007846963257871181</v>
+        <v>0.001789625729241484</v>
       </c>
       <c r="I15">
-        <v>2.672176885752907E-05</v>
+        <v>0.0001854372864674208</v>
       </c>
       <c r="J15">
-        <v>0.08330189614556351</v>
+        <v>8.665389960867401</v>
       </c>
       <c r="K15">
-        <v>10.16158250530168</v>
+        <v>6.865608402625012</v>
       </c>
       <c r="L15">
-        <v>0.05957553281440299</v>
+        <v>0.296673863531399</v>
       </c>
       <c r="M15">
-        <v>0.04563348929346108</v>
+        <v>0.1728036161059379</v>
       </c>
       <c r="N15">
-        <v>0.03221521121209953</v>
+        <v>0.5543736189390471</v>
       </c>
       <c r="O15">
-        <v>2.917508607002805E-07</v>
+        <v>1.341274457681565E-06</v>
       </c>
       <c r="P15">
-        <v>0.002654052228165122</v>
+        <v>0.01825712201181541</v>
       </c>
       <c r="Q15">
-        <v>0.002240654462701083</v>
+        <v>0.0132898367936538</v>
       </c>
       <c r="R15">
-        <v>0.002328867463710532</v>
+        <v>0.01386159510352258</v>
       </c>
       <c r="S15">
-        <v>0.005490033575141905</v>
+        <v>0.03894113907138412</v>
       </c>
       <c r="T15">
-        <v>1.579819143782433E-08</v>
+        <v>2.554094622073584E-08</v>
       </c>
       <c r="U15">
-        <v>5.018727757387085E-06</v>
+        <v>4.678364773272988E-05</v>
       </c>
       <c r="V15">
-        <v>0.06163244738871867</v>
+        <v>0.3949325916224335</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1525,67 +1531,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>0.0001665626035051287</v>
+        <v>0.001328073042803461</v>
       </c>
       <c r="C16">
-        <v>0.06417485362682471</v>
+        <v>0.5187311519614654</v>
       </c>
       <c r="D16">
-        <v>0.003148154879497274</v>
+        <v>0.1264299846720115</v>
       </c>
       <c r="E16">
-        <v>0.004243014222949885</v>
+        <v>0.1852075766566648</v>
       </c>
       <c r="F16">
-        <v>0.1787814727602061</v>
+        <v>1.179565731144211</v>
       </c>
       <c r="G16">
-        <v>0.01427287318522536</v>
+        <v>0.1176554505566807</v>
       </c>
       <c r="H16">
-        <v>7.732679715970496E-06</v>
+        <v>0.0003151016264961326</v>
       </c>
       <c r="I16">
-        <v>1.440669534940952E-05</v>
+        <v>2.235882301808681E-05</v>
       </c>
       <c r="J16">
-        <v>0.004894198729085924</v>
+        <v>7.524689103151999</v>
       </c>
       <c r="K16">
-        <v>0.06649914835584693</v>
+        <v>0.8476531566764992</v>
       </c>
       <c r="L16">
-        <v>0.002360122278393748</v>
+        <v>0.1691627952671099</v>
       </c>
       <c r="M16">
-        <v>0.0008281552240994724</v>
+        <v>0.01259199487637983</v>
       </c>
       <c r="N16">
-        <v>0.001651304050030998</v>
+        <v>0.02974316809681474</v>
       </c>
       <c r="O16">
-        <v>3.992359766517276E-08</v>
+        <v>1.487069583450631E-07</v>
       </c>
       <c r="P16">
-        <v>7.762011643101135E-05</v>
+        <v>0.000543614526596277</v>
       </c>
       <c r="Q16">
-        <v>0.0002904709242631594</v>
+        <v>0.0009290733280602767</v>
       </c>
       <c r="R16">
-        <v>0.000308026802011428</v>
+        <v>0.000971713981098441</v>
       </c>
       <c r="S16">
-        <v>0.000138048467364752</v>
+        <v>0.009189241754950492</v>
       </c>
       <c r="T16">
-        <v>2.719825426458903E-10</v>
+        <v>2.303152387663223E-09</v>
       </c>
       <c r="U16">
-        <v>1.403803800190702E-07</v>
+        <v>2.602008690589926E-05</v>
       </c>
       <c r="V16">
-        <v>0.006057706607129874</v>
+        <v>0.03591344565968576</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1593,67 +1599,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0001800963211665666</v>
+        <v>0.007452921320617679</v>
       </c>
       <c r="C17">
-        <v>0.05946456423421999</v>
+        <v>0.8011559376957911</v>
       </c>
       <c r="D17">
-        <v>0.00328048667293659</v>
+        <v>12.436304019299</v>
       </c>
       <c r="E17">
-        <v>0.004459450294001232</v>
+        <v>14.87577718796002</v>
       </c>
       <c r="F17">
-        <v>0.2154058208196384</v>
+        <v>50.85425536322388</v>
       </c>
       <c r="G17">
-        <v>0.01472402588723096</v>
+        <v>0.1854203267531555</v>
       </c>
       <c r="H17">
-        <v>7.501696882989429E-06</v>
+        <v>0.000784696327028867</v>
       </c>
       <c r="I17">
-        <v>2.429200859427743E-05</v>
+        <v>2.672176897495415E-05</v>
       </c>
       <c r="J17">
-        <v>0.004801345270779434</v>
+        <v>0.08330189664941702</v>
       </c>
       <c r="K17">
-        <v>0.08067776369507482</v>
+        <v>10.16158251782635</v>
       </c>
       <c r="L17">
-        <v>0.0009118517069953515</v>
+        <v>0.05957553291441826</v>
       </c>
       <c r="M17">
-        <v>0.0008546997902054179</v>
+        <v>0.04563349162522624</v>
       </c>
       <c r="N17">
-        <v>0.001628072402039563</v>
+        <v>0.03221521135120243</v>
       </c>
       <c r="O17">
-        <v>3.438117370906817E-08</v>
+        <v>2.917508612038771E-07</v>
       </c>
       <c r="P17">
-        <v>0.0001129354189530594</v>
+        <v>0.002654052233258565</v>
       </c>
       <c r="Q17">
-        <v>0.0003028718474336064</v>
+        <v>0.002240654465038522</v>
       </c>
       <c r="R17">
-        <v>0.0003203858437155765</v>
+        <v>0.002328867466000907</v>
       </c>
       <c r="S17">
-        <v>0.0001155305605376002</v>
+        <v>0.005490033588113243</v>
       </c>
       <c r="T17">
-        <v>2.638945190638578E-10</v>
+        <v>1.579819146837202E-08</v>
       </c>
       <c r="U17">
-        <v>1.610902840196363E-07</v>
+        <v>5.018727766546345E-06</v>
       </c>
       <c r="V17">
-        <v>0.006001468087747041</v>
+        <v>0.06163244747448759</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1661,67 +1667,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>-0.0002703665010079054</v>
+        <v>0.0001665626027701652</v>
       </c>
       <c r="C18">
-        <v>-2.372651841901257</v>
+        <v>0.06417485338369208</v>
       </c>
       <c r="D18">
-        <v>-0.1200802839246686</v>
+        <v>0.003148154843948386</v>
       </c>
       <c r="E18">
-        <v>-0.159909514252844</v>
+        <v>0.00424301417857377</v>
       </c>
       <c r="F18">
-        <v>-1.263153881524834</v>
+        <v>0.1787814697608593</v>
       </c>
       <c r="G18">
-        <v>-0.007842791159423107</v>
+        <v>0.01427287309981527</v>
       </c>
       <c r="H18">
-        <v>-5.136435236597021E-06</v>
+        <v>7.732679564396331E-06</v>
       </c>
       <c r="I18">
-        <v>-2.141437714927917E-05</v>
+        <v>1.440669534355024E-05</v>
       </c>
       <c r="J18">
-        <v>-0.02399076780294145</v>
+        <v>0.004894198704409052</v>
       </c>
       <c r="K18">
-        <v>-2.349318089127402</v>
+        <v>0.06649914789031411</v>
       </c>
       <c r="L18">
-        <v>-0.001041090793226161</v>
+        <v>0.002360122252335726</v>
       </c>
       <c r="M18">
-        <v>-0.000541400451110745</v>
+        <v>0.0008281553284202585</v>
       </c>
       <c r="N18">
-        <v>-0.001682385507090649</v>
+        <v>0.00165130404944789</v>
       </c>
       <c r="O18">
-        <v>-1.016975884461976E-06</v>
+        <v>3.992359760002898E-08</v>
       </c>
       <c r="P18">
-        <v>-9.103762032067246E-05</v>
+        <v>7.762011597403657E-05</v>
       </c>
       <c r="Q18">
-        <v>-0.0006013723819012911</v>
+        <v>0.0002904709237900551</v>
       </c>
       <c r="R18">
-        <v>-0.0006054442885458187</v>
+        <v>0.0003080268014365102</v>
       </c>
       <c r="S18">
-        <v>-0.00372239116298852</v>
+        <v>0.0001380484672808789</v>
       </c>
       <c r="T18">
-        <v>-6.901632087006361E-09</v>
+        <v>2.719825424960317E-10</v>
       </c>
       <c r="U18">
-        <v>-2.884030310922471E-06</v>
+        <v>1.403803793173598E-07</v>
       </c>
       <c r="V18">
-        <v>-0.003060162413445113</v>
+        <v>0.006057706579150484</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1729,67 +1735,67 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>-0.0001926107895501777</v>
+        <v>0.0001800963196196822</v>
       </c>
       <c r="C19">
-        <v>-3.020232371432147</v>
+        <v>0.05946456395289543</v>
       </c>
       <c r="D19">
-        <v>-0.1585580381505579</v>
+        <v>0.00328048663573524</v>
       </c>
       <c r="E19">
-        <v>-0.2295974278100845</v>
+        <v>0.004459450246232138</v>
       </c>
       <c r="F19">
-        <v>-8.832198441651535</v>
+        <v>0.2154058187754857</v>
       </c>
       <c r="G19">
-        <v>-0.004982771804642287</v>
+        <v>0.01472402580392932</v>
       </c>
       <c r="H19">
-        <v>-2.60069434013564E-06</v>
+        <v>7.501696861189849E-06</v>
       </c>
       <c r="I19">
-        <v>-4.712967502190845E-06</v>
+        <v>2.429200858867088E-05</v>
       </c>
       <c r="J19">
-        <v>-0.009844745956714878</v>
+        <v>0.004801345265097184</v>
       </c>
       <c r="K19">
-        <v>-1.917227264287437</v>
+        <v>0.08067776328317861</v>
       </c>
       <c r="L19">
-        <v>-0.000426177198316771</v>
+        <v>0.0009118517276580961</v>
       </c>
       <c r="M19">
-        <v>-0.0002952296183495175</v>
+        <v>0.0008546994981118914</v>
       </c>
       <c r="N19">
-        <v>-0.001009659056359852</v>
+        <v>0.001628072398345957</v>
       </c>
       <c r="O19">
-        <v>-2.203428893431695E-07</v>
+        <v>3.438117368307061E-08</v>
       </c>
       <c r="P19">
-        <v>-6.3243019177061E-05</v>
+        <v>0.0001129354181573717</v>
       </c>
       <c r="Q19">
-        <v>-0.0004640577321163179</v>
+        <v>0.0003028718462159888</v>
       </c>
       <c r="R19">
-        <v>-0.0004665276036123376</v>
+        <v>0.000320385842393865</v>
       </c>
       <c r="S19">
-        <v>-0.001527602343349098</v>
+        <v>0.0001155305599748049</v>
       </c>
       <c r="T19">
-        <v>-8.797267534281286E-09</v>
+        <v>2.638945151158814E-10</v>
       </c>
       <c r="U19">
-        <v>-3.316482484596772E-06</v>
+        <v>1.610902831434875E-07</v>
       </c>
       <c r="V19">
-        <v>-0.001920371173027031</v>
+        <v>0.006001468059879831</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1797,67 +1803,67 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>-0.0001639086791379191</v>
+        <v>-0.0002703665000910082</v>
       </c>
       <c r="C20">
-        <v>-2.550880668132456</v>
+        <v>-2.372651841795681</v>
       </c>
       <c r="D20">
-        <v>-0.1339112701566305</v>
+        <v>-0.1200802838816036</v>
       </c>
       <c r="E20">
-        <v>-0.1939066745795889</v>
+        <v>-0.1599095141973578</v>
       </c>
       <c r="F20">
-        <v>-7.460027109601704</v>
+        <v>-1.263153877816324</v>
       </c>
       <c r="G20">
-        <v>-0.004342334972359238</v>
+        <v>-0.007842791131198033</v>
       </c>
       <c r="H20">
-        <v>-2.366434635568344E-06</v>
+        <v>-5.13643516899421E-06</v>
       </c>
       <c r="I20">
-        <v>-4.000192103462117E-06</v>
+        <v>-2.141437714325911E-05</v>
       </c>
       <c r="J20">
-        <v>-0.008617201773364983</v>
+        <v>-0.02399076779210213</v>
       </c>
       <c r="K20">
-        <v>-1.619220927530003</v>
+        <v>-2.349318088434962</v>
       </c>
       <c r="L20">
-        <v>-0.0003756151438455242</v>
+        <v>-0.001041090780951293</v>
       </c>
       <c r="M20">
-        <v>-0.000261683396004602</v>
+        <v>-0.0005414004821238974</v>
       </c>
       <c r="N20">
-        <v>-0.0009631102660097976</v>
+        <v>-0.001682385501087904</v>
       </c>
       <c r="O20">
-        <v>-1.861432755448074E-07</v>
+        <v>-1.016975884432359E-06</v>
       </c>
       <c r="P20">
-        <v>-5.508284453220902E-05</v>
+        <v>-9.103762001945443E-05</v>
       </c>
       <c r="Q20">
-        <v>-0.0003933495480692887</v>
+        <v>-0.0006013723814244751</v>
       </c>
       <c r="R20">
-        <v>-0.0003955901471824342</v>
+        <v>-0.0006054442880437532</v>
       </c>
       <c r="S20">
-        <v>-0.001449466083616342</v>
+        <v>-0.003722391162321116</v>
       </c>
       <c r="T20">
-        <v>-7.430834739555668E-09</v>
+        <v>-6.901632086603667E-09</v>
       </c>
       <c r="U20">
-        <v>-2.803485651934429E-06</v>
+        <v>-2.884030310439365E-06</v>
       </c>
       <c r="V20">
-        <v>-0.001684653513616403</v>
+        <v>-0.003060162402674089</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1865,67 +1871,67 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>-0.001395958796121129</v>
+        <v>-0.0001926107892008394</v>
       </c>
       <c r="C21">
-        <v>-0.7560797519038288</v>
+        <v>-3.020232371369658</v>
       </c>
       <c r="D21">
-        <v>-0.01826306649439019</v>
+        <v>-0.1585580381415689</v>
       </c>
       <c r="E21">
-        <v>-0.02424443902812597</v>
+        <v>-0.2295974277984242</v>
       </c>
       <c r="F21">
-        <v>-0.1419770721080243</v>
+        <v>-8.832198440851112</v>
       </c>
       <c r="G21">
-        <v>-0.02676679738734044</v>
+        <v>-0.004982771789839824</v>
       </c>
       <c r="H21">
-        <v>-9.553340514772542E-06</v>
+        <v>-2.600694323540359E-06</v>
       </c>
       <c r="I21">
-        <v>-0.0002332124981776974</v>
+        <v>-4.712967499451446E-06</v>
       </c>
       <c r="J21">
-        <v>-0.006439796882414821</v>
+        <v>-0.009844745950656647</v>
       </c>
       <c r="K21">
-        <v>-0.4334910775065842</v>
+        <v>-1.917227264131973</v>
       </c>
       <c r="L21">
-        <v>-0.001813180592251006</v>
+        <v>-0.0004261771961288005</v>
       </c>
       <c r="M21">
-        <v>-0.0007497013664429397</v>
+        <v>-0.0002952296257994057</v>
       </c>
       <c r="N21">
-        <v>-0.002686348871359832</v>
+        <v>-0.001009659053891851</v>
       </c>
       <c r="O21">
-        <v>-1.167331374788234E-05</v>
+        <v>-2.203428893287433E-07</v>
       </c>
       <c r="P21">
-        <v>-0.0004374718566248808</v>
+        <v>-6.324301904648237E-05</v>
       </c>
       <c r="Q21">
-        <v>-0.003155472648763493</v>
+        <v>-0.0004640577318342452</v>
       </c>
       <c r="R21">
-        <v>-0.003166045751179451</v>
+        <v>-0.0004665276033127526</v>
       </c>
       <c r="S21">
-        <v>-0.002119597160466482</v>
+        <v>-0.001527602343094583</v>
       </c>
       <c r="T21">
-        <v>-2.85128186538362E-09</v>
+        <v>-8.797267534031992E-09</v>
       </c>
       <c r="U21">
-        <v>-1.11128564880551E-06</v>
+        <v>-3.3164824844003E-06</v>
       </c>
       <c r="V21">
-        <v>-0.009781148762007957</v>
+        <v>-0.001920371166994144</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1933,67 +1939,203 @@
         <v>41</v>
       </c>
       <c r="B22">
-        <v>0.0001243276866177336</v>
+        <v>-0.0001639086787369042</v>
       </c>
       <c r="C22">
-        <v>0.02863769589443061</v>
+        <v>-2.550880668072701</v>
       </c>
       <c r="D22">
-        <v>0.001085950383852027</v>
+        <v>-0.1339112701352214</v>
       </c>
       <c r="E22">
-        <v>0.001203462717565334</v>
+        <v>-0.1939066745520633</v>
       </c>
       <c r="F22">
-        <v>0.0702801538725461</v>
+        <v>-7.460027107616686</v>
       </c>
       <c r="G22">
-        <v>0.01613015405166459</v>
+        <v>-0.004342334956167551</v>
       </c>
       <c r="H22">
-        <v>1.042370420230484E-05</v>
+        <v>-2.366434602097721E-06</v>
       </c>
       <c r="I22">
-        <v>4.367342421882244E-05</v>
+        <v>-4.000192102216354E-06</v>
       </c>
       <c r="J22">
-        <v>0.001138779911766455</v>
+        <v>-0.008617201771804257</v>
       </c>
       <c r="K22">
-        <v>0.02180390576427527</v>
+        <v>-1.619220927193828</v>
       </c>
       <c r="L22">
-        <v>0.001614134321625172</v>
+        <v>-0.0003756151412708548</v>
       </c>
       <c r="M22">
-        <v>0.006308440123193925</v>
+        <v>-0.000261683430740081</v>
       </c>
       <c r="N22">
-        <v>0.0002176138646643324</v>
+        <v>-0.0009631102655374392</v>
       </c>
       <c r="O22">
-        <v>5.338596179794861E-08</v>
+        <v>-1.861432755284105E-07</v>
       </c>
       <c r="P22">
-        <v>3.815966451084339E-05</v>
+        <v>-5.508284438413647E-05</v>
       </c>
       <c r="Q22">
-        <v>0.0005466381237456295</v>
+        <v>-0.0003933495478238345</v>
       </c>
       <c r="R22">
-        <v>0.0008454525271845065</v>
+        <v>-0.0003955901469202863</v>
       </c>
       <c r="S22">
-        <v>0.004763877567324038</v>
+        <v>-0.001449466083394193</v>
       </c>
       <c r="T22">
-        <v>2.803087480680985E-10</v>
+        <v>-7.430834739515039E-09</v>
       </c>
       <c r="U22">
-        <v>7.042486376615352E-08</v>
+        <v>-2.803485651703375E-06</v>
       </c>
       <c r="V22">
-        <v>0.00619612887830544</v>
+        <v>-0.001684653507791611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>-0.001395958797759836</v>
+      </c>
+      <c r="C23">
+        <v>-0.756079752181828</v>
+      </c>
+      <c r="D23">
+        <v>-0.01826306658012727</v>
+      </c>
+      <c r="E23">
+        <v>-0.02424443913951735</v>
+      </c>
+      <c r="F23">
+        <v>-0.1419770801634876</v>
+      </c>
+      <c r="G23">
+        <v>-0.02676679745248391</v>
+      </c>
+      <c r="H23">
+        <v>-9.553340690379038E-06</v>
+      </c>
+      <c r="I23">
+        <v>-0.0002332124981899504</v>
+      </c>
+      <c r="J23">
+        <v>-0.006439797012903804</v>
+      </c>
+      <c r="K23">
+        <v>-0.4334910788410388</v>
+      </c>
+      <c r="L23">
+        <v>-0.001813180609430021</v>
+      </c>
+      <c r="M23">
+        <v>-0.0007497015433262073</v>
+      </c>
+      <c r="N23">
+        <v>-0.002686348901356413</v>
+      </c>
+      <c r="O23">
+        <v>-1.167331374796988E-05</v>
+      </c>
+      <c r="P23">
+        <v>-0.0004374718573520849</v>
+      </c>
+      <c r="Q23">
+        <v>-0.003155472649466763</v>
+      </c>
+      <c r="R23">
+        <v>-0.003166045751923665</v>
+      </c>
+      <c r="S23">
+        <v>-0.002119597162494664</v>
+      </c>
+      <c r="T23">
+        <v>-2.85128186845632E-09</v>
+      </c>
+      <c r="U23">
+        <v>-1.111285650263202E-06</v>
+      </c>
+      <c r="V23">
+        <v>-0.009781148785150236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>0.0001639587312577817</v>
+      </c>
+      <c r="C24">
+        <v>0.04292853938078239</v>
+      </c>
+      <c r="D24">
+        <v>0.00145530784206465</v>
+      </c>
+      <c r="E24">
+        <v>0.001694812318374844</v>
+      </c>
+      <c r="F24">
+        <v>0.09986939633149436</v>
+      </c>
+      <c r="G24">
+        <v>0.02492759871886467</v>
+      </c>
+      <c r="H24">
+        <v>1.415969922645212E-05</v>
+      </c>
+      <c r="I24">
+        <v>4.416754850444172E-05</v>
+      </c>
+      <c r="J24">
+        <v>0.001722264991826609</v>
+      </c>
+      <c r="K24">
+        <v>0.03049261076249133</v>
+      </c>
+      <c r="L24">
+        <v>0.0027927501138542</v>
+      </c>
+      <c r="M24">
+        <v>0.006689157913214025</v>
+      </c>
+      <c r="N24">
+        <v>0.0003290190702254724</v>
+      </c>
+      <c r="O24">
+        <v>5.593339175677785E-08</v>
+      </c>
+      <c r="P24">
+        <v>5.492884428279842E-05</v>
+      </c>
+      <c r="Q24">
+        <v>0.0005796913296134203</v>
+      </c>
+      <c r="R24">
+        <v>0.0008817780410546951</v>
+      </c>
+      <c r="S24">
+        <v>0.004994849437562789</v>
+      </c>
+      <c r="T24">
+        <v>3.399497262472015E-10</v>
+      </c>
+      <c r="U24">
+        <v>9.869466962539147E-08</v>
+      </c>
+      <c r="V24">
+        <v>0.009528060711244886</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1_cut_off/data_uniquie_case1_cut_off_recipe.xlsx
@@ -715,67 +715,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.2902900430388984</v>
+        <v>0.2872153344288199</v>
       </c>
       <c r="C4">
-        <v>67.11489758423517</v>
+        <v>66.40368451741483</v>
       </c>
       <c r="D4">
-        <v>5.585698662795999</v>
+        <v>5.545090303741442</v>
       </c>
       <c r="E4">
-        <v>7.096970068555442</v>
+        <v>7.043231883362599</v>
       </c>
       <c r="F4">
-        <v>171.4530002688095</v>
+        <v>169.1332873807689</v>
       </c>
       <c r="G4">
-        <v>15.24296106193048</v>
+        <v>15.04973303833874</v>
       </c>
       <c r="H4">
-        <v>0.02498211484110116</v>
+        <v>0.02445496058908228</v>
       </c>
       <c r="I4">
-        <v>0.002860085427165215</v>
+        <v>0.002780821418063086</v>
       </c>
       <c r="J4">
-        <v>12.07028877084176</v>
+        <v>12.00909738516001</v>
       </c>
       <c r="K4">
-        <v>74.00182901069024</v>
+        <v>72.96885994366235</v>
       </c>
       <c r="L4">
-        <v>4.81182504112223</v>
+        <v>4.538147907945314</v>
       </c>
       <c r="M4">
-        <v>1.314610652348169</v>
+        <v>1.286213478040604</v>
       </c>
       <c r="N4">
-        <v>1.126393645233239</v>
+        <v>1.114711158538628</v>
       </c>
       <c r="O4">
-        <v>1.655983359760903E-05</v>
+        <v>1.620495789647623E-05</v>
       </c>
       <c r="P4">
-        <v>0.1262312689292344</v>
+        <v>0.1250728384179116</v>
       </c>
       <c r="Q4">
-        <v>0.1684118799336703</v>
+        <v>0.1669747188470222</v>
       </c>
       <c r="R4">
-        <v>0.1720224774533709</v>
+        <v>0.1705187686217138</v>
       </c>
       <c r="S4">
-        <v>0.6934099811253059</v>
+        <v>0.612570987345165</v>
       </c>
       <c r="T4">
-        <v>3.066751321292848E-07</v>
+        <v>3.031722518808379E-07</v>
       </c>
       <c r="U4">
-        <v>0.0002002695364231822</v>
+        <v>0.0001982599576336482</v>
       </c>
       <c r="V4">
-        <v>3.368791421447343</v>
+        <v>3.320806987482678</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -783,67 +783,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.1721226448600199</v>
+        <v>0.170115896183135</v>
       </c>
       <c r="C5">
-        <v>39.77606277478282</v>
+        <v>39.31188029803625</v>
       </c>
       <c r="D5">
-        <v>3.315820412007004</v>
+        <v>3.289316841004951</v>
       </c>
       <c r="E5">
-        <v>4.21447292702434</v>
+        <v>4.179400005179382</v>
       </c>
       <c r="F5">
-        <v>104.2998573791524</v>
+        <v>102.7858672416644</v>
       </c>
       <c r="G5">
-        <v>9.002532145049532</v>
+        <v>8.876419351735956</v>
       </c>
       <c r="H5">
-        <v>0.01481639187360607</v>
+        <v>0.01447233772670499</v>
       </c>
       <c r="I5">
-        <v>0.001695719994908829</v>
+        <v>0.001643987297546391</v>
       </c>
       <c r="J5">
-        <v>7.309670030086922</v>
+        <v>7.269732702492136</v>
       </c>
       <c r="K5">
-        <v>43.90438263820416</v>
+        <v>43.23020191476842</v>
       </c>
       <c r="L5">
-        <v>2.85533500455009</v>
+        <v>2.676716014619903</v>
       </c>
       <c r="M5">
-        <v>0.782347816255424</v>
+        <v>0.7638139552994736</v>
       </c>
       <c r="N5">
-        <v>0.6748752964489219</v>
+        <v>0.6672505742070513</v>
       </c>
       <c r="O5">
-        <v>9.81643664915931E-06</v>
+        <v>9.58482238413468E-06</v>
       </c>
       <c r="P5">
-        <v>0.07501110062164412</v>
+        <v>0.07425503591504765</v>
       </c>
       <c r="Q5">
-        <v>0.09984019761056201</v>
+        <v>0.09890221597963794</v>
       </c>
       <c r="R5">
-        <v>0.101971177369138</v>
+        <v>0.1009897624936525</v>
       </c>
       <c r="S5">
-        <v>0.4106851124666266</v>
+        <v>0.357924478181378</v>
       </c>
       <c r="T5">
-        <v>1.818437447734774E-07</v>
+        <v>1.795575436680319E-07</v>
       </c>
       <c r="U5">
-        <v>0.0001193448865855156</v>
+        <v>0.0001180333089057532</v>
       </c>
       <c r="V5">
-        <v>1.983882822131776</v>
+        <v>1.952565158117622</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -2075,67 +2075,67 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>0.0001639587312577817</v>
+        <v>8.463547280327839E-05</v>
       </c>
       <c r="C24">
-        <v>0.04292853938078239</v>
+        <v>0.01438584995649703</v>
       </c>
       <c r="D24">
-        <v>0.00145530784206465</v>
+        <v>0.0007244147751826433</v>
       </c>
       <c r="E24">
-        <v>0.001694812318374844</v>
+        <v>0.0007224547320555839</v>
       </c>
       <c r="F24">
-        <v>0.09986939633149436</v>
+        <v>0.03799114111024817</v>
       </c>
       <c r="G24">
-        <v>0.02492759871886467</v>
+        <v>0.007047066023228584</v>
       </c>
       <c r="H24">
-        <v>1.415969922645212E-05</v>
+        <v>7.131404292127324E-06</v>
       </c>
       <c r="I24">
-        <v>4.416754850444172E-05</v>
+        <v>4.331231894962814E-05</v>
       </c>
       <c r="J24">
-        <v>0.001722264991826609</v>
+        <v>0.0005994181065974806</v>
       </c>
       <c r="K24">
-        <v>0.03049261076249133</v>
+        <v>0.01394533110874197</v>
       </c>
       <c r="L24">
-        <v>0.0027927501138542</v>
+        <v>0.0007038338750225103</v>
       </c>
       <c r="M24">
-        <v>0.006689157913214025</v>
+        <v>0.00602342767428775</v>
       </c>
       <c r="N24">
-        <v>0.0003290190702254724</v>
+        <v>0.0001207818608727632</v>
       </c>
       <c r="O24">
-        <v>5.593339175677785E-08</v>
+        <v>5.140228135703972E-08</v>
       </c>
       <c r="P24">
-        <v>5.492884428279842E-05</v>
+        <v>2.263661086690711E-05</v>
       </c>
       <c r="Q24">
-        <v>0.0005796913296134203</v>
+        <v>0.0002607557635730574</v>
       </c>
       <c r="R24">
-        <v>0.0008817780410546951</v>
+        <v>0.0003995536102265772</v>
       </c>
       <c r="S24">
-        <v>0.004994849437562789</v>
+        <v>0.004575276271151862</v>
       </c>
       <c r="T24">
-        <v>3.399497262472015E-10</v>
+        <v>1.690254174598128E-10</v>
       </c>
       <c r="U24">
-        <v>9.869466962539147E-08</v>
+        <v>4.317793132486E-08</v>
       </c>
       <c r="V24">
-        <v>0.009528060711244886</v>
+        <v>0.002658617901035248</v>
       </c>
     </row>
   </sheetData>
